--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -126,7 +126,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -168,13 +168,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -192,7 +192,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -273,7 +273,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -375,7 +375,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -411,7 +411,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>Tableau 22 : Apports financiers extérieurs</t>
   </si>
@@ -1451,11 +1448,9 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1471,54 +1466,54 @@
     </row>
     <row r="2" spans="1:14" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="13">
         <v>1.5631518721783599</v>
@@ -1559,10 +1554,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -1603,10 +1598,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -1647,13 +1642,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="28">
         <v>6.5535041105602101</v>
@@ -1665,13 +1660,13 @@
         <v>22.2321042971003</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="22">
         <v>21.224620653535499</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="30">
         <v>145.97999999999999</v>
@@ -1683,7 +1678,7 @@
         <v>495.22248411518399</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="25">
         <v>472.78067896691402</v>
@@ -1691,10 +1686,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -1735,10 +1730,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="28">
         <v>1.13709947459419</v>
@@ -1779,10 +1774,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="28">
         <v>0.55104907688588001</v>
@@ -1823,10 +1818,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="28">
         <v>1.55910042762527</v>
@@ -1867,10 +1862,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="20">
         <v>-4.8530636055199999E-2</v>
@@ -1911,10 +1906,10 @@
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="33">
         <v>-0.74028326420349999</v>
@@ -1932,7 +1927,7 @@
         <v>10.3722187067292</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="36">
         <v>-145</v>
@@ -1950,15 +1945,15 @@
         <v>2031.6165246472999</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="41">
         <v>1.28994850255264</v>
@@ -1999,10 +1994,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -2043,10 +2038,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="28">
         <v>5.6669671967300002E-2</v>
@@ -2087,10 +2082,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
@@ -2131,10 +2126,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>46</v>
       </c>
       <c r="C17" s="13">
         <v>0</v>
@@ -2175,10 +2170,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="13">
         <v>-1.07087353861E-2</v>
@@ -2190,10 +2185,10 @@
         <v>37.950964565214399</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="48">
         <v>11.605099645088499</v>
@@ -2208,10 +2203,10 @@
         <v>4854.1390000000001</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" s="49">
         <v>1484.3566542112201</v>
@@ -2219,10 +2214,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="C19" s="20">
         <v>0</v>
@@ -2231,13 +2226,13 @@
         <v>6.0031747677036202</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="20">
         <v>4.1197738558415402</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="22">
         <v>10.102190659127199</v>
@@ -2249,13 +2244,13 @@
         <v>3025.53</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="23">
         <v>2076.3179278274201</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="25">
         <v>5091.3861560957002</v>
@@ -2263,10 +2258,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="13">
         <v>1.6452755793159999E-2</v>
@@ -2307,10 +2302,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>54</v>
       </c>
       <c r="C21" s="13">
         <v>0</v>
@@ -2351,10 +2346,10 @@
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="C22" s="28">
         <v>0</v>
@@ -2395,10 +2390,10 @@
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="41">
         <v>1.8028307840109999E-2</v>
@@ -2439,10 +2434,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>59</v>
       </c>
       <c r="C24" s="28">
         <v>0</v>
@@ -2483,10 +2478,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>61</v>
       </c>
       <c r="C25" s="28">
         <v>0</v>
@@ -2504,7 +2499,7 @@
         <v>17.151714450688001</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="30">
         <v>0</v>
@@ -2522,15 +2517,15 @@
         <v>573.94207517443203</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>63</v>
       </c>
       <c r="C26" s="28">
         <v>0</v>
@@ -2571,10 +2566,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="28">
         <v>0</v>
@@ -2615,10 +2610,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="28">
         <v>1.0434103685954399</v>
@@ -2659,10 +2654,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="28">
         <v>-7.8687395612900002E-2</v>
@@ -2703,10 +2698,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="C30" s="28">
         <v>-5.8283874926071002</v>
@@ -2747,10 +2742,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="28">
         <v>0</v>
@@ -2791,16 +2786,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="C32" s="28">
         <v>-1.1176295272173999</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="28">
         <v>9.0971476778140197</v>
@@ -2809,7 +2804,7 @@
         <v>1.49665019984209</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H32" s="22">
         <v>6.2294349910003302</v>
@@ -2818,7 +2813,7 @@
         <v>-17.659402422380001</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="30">
         <v>143.74189999999999</v>
@@ -2827,7 +2822,7 @@
         <v>23.6482193078321</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" s="25">
         <v>98.429843424069404</v>
@@ -2835,13 +2830,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="28">
         <v>36.859385277255797</v>
@@ -2853,13 +2848,13 @@
         <v>31.1577367801072</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="30">
         <v>1865.58</v>
@@ -2871,21 +2866,21 @@
         <v>1577</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="C34" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="20">
         <v>41.085282790605902</v>
@@ -2897,13 +2892,13 @@
         <v>15.254949133770801</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" s="22">
         <v>9.1233718796547993</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" s="23">
         <v>1885.27</v>
@@ -2915,7 +2910,7 @@
         <v>700</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" s="25">
         <v>418.64186237242097</v>
@@ -2923,10 +2918,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
@@ -2967,10 +2962,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="28">
         <v>1.521866712385E-2</v>
@@ -3011,10 +3006,10 @@
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="28">
         <v>-0.249859241156</v>
@@ -3055,10 +3050,10 @@
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="41">
         <v>4.4200153303370002E-2</v>
@@ -3099,10 +3094,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="13">
         <v>0</v>
@@ -3143,10 +3138,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="28">
         <v>1.0200281781001199</v>
@@ -3187,54 +3182,54 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="50" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="13">
         <v>0.80008635090511004</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41" s="16">
         <v>316.01</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L41" s="16">
         <v>0</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>94</v>
       </c>
       <c r="C42" s="13">
         <v>0</v>
@@ -3275,10 +3270,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="28">
         <v>0.95008883074613004</v>
@@ -3319,10 +3314,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="28">
         <v>-0.19378860392450001</v>
@@ -3363,10 +3358,10 @@
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="41">
         <v>0.68675681481568995</v>
@@ -3407,10 +3402,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="28">
         <v>3.19428813230512</v>
@@ -3451,10 +3446,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>103</v>
       </c>
       <c r="C47" s="28">
         <v>1.3037491252459701</v>
@@ -3495,10 +3490,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>105</v>
       </c>
       <c r="C48" s="28">
         <v>0</v>
@@ -3539,10 +3534,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>107</v>
       </c>
       <c r="C49" s="28">
         <v>1.5299771058538001</v>
@@ -3583,10 +3578,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="C50" s="28">
         <v>0.57305142785903995</v>
@@ -3627,10 +3622,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="C51" s="20">
         <v>2.4929562933477598</v>
@@ -3671,13 +3666,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>113</v>
-      </c>
       <c r="C52" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="28">
         <v>4.2968598261085296</v>
@@ -3689,13 +3684,13 @@
         <v>1.1701151138364401</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H52" s="22">
         <v>-9.1468940813879005</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J52" s="30">
         <v>580.67999999999995</v>
@@ -3707,7 +3702,7 @@
         <v>158.13</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52" s="25">
         <v>-1236.1162965818</v>
@@ -3715,13 +3710,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>115</v>
-      </c>
       <c r="C53" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="28">
         <v>8.3707483860655802</v>
@@ -3733,13 +3728,13 @@
         <v>10.5014824039226</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H53" s="22">
         <v>4.3010524053024399</v>
       </c>
       <c r="I53" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53" s="30">
         <v>120.51</v>
@@ -3751,7 +3746,7 @@
         <v>151.18524487050499</v>
       </c>
       <c r="M53" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N53" s="25">
         <v>61.920368580881203</v>
@@ -3759,10 +3754,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="C54" s="28">
         <v>0</v>
@@ -3780,7 +3775,7 @@
         <v>33.446787798231902</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" s="30">
         <v>0</v>
@@ -3798,15 +3793,15 @@
         <v>1030.23409157436</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="C55" s="28">
         <v>0.49205761464532</v>
@@ -3847,10 +3842,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="C56" s="28">
         <v>0.72136063330124001</v>
@@ -3891,10 +3886,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="50" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>123</v>
       </c>
       <c r="C57" s="13">
         <v>1.0203169293521599</v>
@@ -3935,10 +3930,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>125</v>
       </c>
       <c r="C58" s="28">
         <v>-0.82601706877509995</v>
@@ -3979,10 +3974,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>127</v>
       </c>
       <c r="C59" s="28">
         <v>0</v>
@@ -4023,10 +4018,10 @@
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="C60" s="20">
         <v>1.4241233979556001</v>
@@ -4068,7 +4063,7 @@
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39"/>
       <c r="B61" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="41">
         <v>1.1830265203841199</v>
@@ -4110,7 +4105,7 @@
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="53"/>
       <c r="B62" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="55">
         <v>0.79357782896035001</v>
@@ -4152,7 +4147,7 @@
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="53"/>
       <c r="B63" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="55">
         <v>1.12201294321348</v>
@@ -4194,7 +4189,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="61"/>
       <c r="B64" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="63">
         <v>0.21506814439003999</v>
@@ -4236,7 +4231,7 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="61"/>
       <c r="B65" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="70">
         <v>0.69234245083079005</v>
@@ -4278,7 +4273,7 @@
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="61"/>
       <c r="B66" s="76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="77">
         <v>1.1057686150960999</v>
@@ -4320,7 +4315,7 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="61"/>
       <c r="B67" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="70">
         <v>0.49218781637621001</v>
@@ -4362,7 +4357,7 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="61"/>
       <c r="B68" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="70">
         <v>0.97542474683769997</v>
@@ -4404,7 +4399,7 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="61"/>
       <c r="B69" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="70">
         <v>0.41987584836414998</v>
@@ -4446,7 +4441,7 @@
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="61"/>
       <c r="B70" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="70">
         <v>0.61621084712303997</v>
@@ -4488,7 +4483,7 @@
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="61"/>
       <c r="B71" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="70">
         <v>1.1830265203841199</v>
@@ -4530,7 +4525,7 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="61"/>
       <c r="B72" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="70">
         <v>0.28076752555980999</v>
@@ -4572,7 +4567,7 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="61"/>
       <c r="B73" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="70">
         <v>0.91317766677150003</v>
@@ -4614,7 +4609,7 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="61"/>
       <c r="B74" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="70">
         <v>0.26110623859324</v>
@@ -4656,7 +4651,7 @@
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="61"/>
       <c r="B75" s="76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="77">
         <v>1.3393635937305199</v>
@@ -4698,7 +4693,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="61"/>
       <c r="B76" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="70">
         <v>0.78106470055210997</v>
@@ -4740,7 +4735,7 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="61"/>
       <c r="B77" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="70">
         <v>-0.3776072329895</v>
@@ -4782,13 +4777,13 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="61"/>
       <c r="B78" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="70">
         <v>1.5102225738666699</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" s="70">
         <v>2.38247291366558</v>
@@ -4797,7 +4792,7 @@
         <v>0.93727853170999997</v>
       </c>
       <c r="G78" s="71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H78" s="72">
         <v>21.823036324866301</v>
@@ -4806,7 +4801,7 @@
         <v>280276.983037194</v>
       </c>
       <c r="J78" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K78" s="73">
         <v>380280.82140000002</v>
@@ -4815,7 +4810,7 @@
         <v>132031.16708863701</v>
       </c>
       <c r="M78" s="74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N78" s="75">
         <v>3456996.2846801998</v>
@@ -4824,7 +4819,7 @@
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="61"/>
       <c r="B79" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="77">
         <v>1.60061151866394</v>
@@ -4866,7 +4861,7 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="61"/>
       <c r="B80" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="70">
         <v>0.74162162809062004</v>
@@ -4908,7 +4903,7 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="61"/>
       <c r="B81" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="70">
         <v>0.82844879838327001</v>
@@ -4950,7 +4945,7 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="61"/>
       <c r="B82" s="69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="70">
         <v>0.81549128344822996</v>
@@ -4992,7 +4987,7 @@
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="61"/>
       <c r="B83" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="77">
         <v>1.148165577284</v>
@@ -5034,7 +5029,7 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="61"/>
       <c r="B84" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="70">
         <v>0.14731706383679</v>
@@ -5076,7 +5071,7 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="61"/>
       <c r="B85" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="70">
         <v>0</v>
@@ -5118,7 +5113,7 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="61"/>
       <c r="B86" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="70">
         <v>0.86063076878341005</v>
@@ -5160,7 +5155,7 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="61"/>
       <c r="B87" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="70">
         <v>0.49460145690705998</v>
@@ -5202,7 +5197,7 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="61"/>
       <c r="B88" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="70">
         <v>1.15276657334873</v>
@@ -5244,7 +5239,7 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="61"/>
       <c r="B89" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="70">
         <v>0.65727070018221001</v>
@@ -5286,7 +5281,7 @@
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="61"/>
       <c r="B90" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="77">
         <v>1.66441078195975</v>
@@ -5328,7 +5323,7 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="61"/>
       <c r="B91" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="70">
         <v>0.36196856666851002</v>
@@ -5370,7 +5365,7 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="61"/>
       <c r="B92" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" s="70">
         <v>-6.9496905926799996E-2</v>
@@ -5412,7 +5407,7 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="61"/>
       <c r="B93" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" s="70">
         <v>-4.3977685403304001</v>
@@ -5454,7 +5449,7 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="61"/>
       <c r="B94" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C94" s="70">
         <v>0.46117144283548001</v>
@@ -5496,7 +5491,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="61"/>
       <c r="B95" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" s="70">
         <v>6.6279299444629999E-2</v>
@@ -5538,7 +5533,7 @@
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="61"/>
       <c r="B96" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="77">
         <v>0.22846561889483999</v>
@@ -5580,7 +5575,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="61"/>
       <c r="B97" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="70">
         <v>0.66107037006956004</v>
@@ -5622,7 +5617,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="61"/>
       <c r="B98" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="70">
         <v>-4.6373583112600002E-2</v>
@@ -5664,7 +5659,7 @@
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="61"/>
       <c r="B99" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="77">
         <v>-2.297480173E-4</v>
@@ -5721,7 +5716,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" s="90"/>
       <c r="C101" s="91"/>
@@ -5739,7 +5734,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B102" s="90"/>
       <c r="C102" s="91"/>
@@ -5757,7 +5752,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B103" s="90"/>
       <c r="C103" s="91"/>
@@ -5775,7 +5770,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B104" s="90"/>
       <c r="C104" s="91"/>
@@ -5793,7 +5788,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="90"/>
       <c r="C105" s="91"/>
@@ -5841,7 +5836,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C108" s="91"/>
       <c r="D108" s="91"/>
@@ -5873,7 +5868,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="91"/>
       <c r="D110" s="91"/>
@@ -5890,7 +5885,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C111" s="91"/>
       <c r="D111" s="91"/>
@@ -5922,7 +5917,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="91"/>
       <c r="D113" s="91"/>
@@ -5939,7 +5934,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="91"/>
       <c r="D114" s="91"/>
@@ -5971,7 +5966,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
   <si>
     <t>Tableau 22 : Apports financiers extérieurs</t>
   </si>
@@ -501,19 +501,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -528,7 +531,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Comité d'aide au développement de l'OCDE (récupéré 14/09/2021), base de données sur les IDE du Centre de données en ligne UNCTADStat (récupéré le 17/11/2021), données de la Banque mondiale sur la migrations et les remises (mai 2021), base de données des Perspectives de l'économie mondiale du FMI, octobre 2019 (les flux de portefeuille et l'épargne privée brute ne sont pas inclus dans les éditions plus récentes de cet ensemble de données)</t>
@@ -5368,19 +5371,19 @@
         <v>158</v>
       </c>
       <c r="C92" s="70">
-        <v>-6.9496905926799996E-2</v>
+        <v>-6.9535618457900003E-2</v>
       </c>
       <c r="D92" s="70">
-        <v>4.1195589346070403</v>
+        <v>4.1142182084950703</v>
       </c>
       <c r="E92" s="70">
-        <v>1.95773627043122</v>
+        <v>1.9567550851314199</v>
       </c>
       <c r="F92" s="70">
-        <v>7.0981892193160396</v>
+        <v>7.0976380768325704</v>
       </c>
       <c r="G92" s="71">
-        <v>13.105987518427501</v>
+        <v>13.0990757520012</v>
       </c>
       <c r="H92" s="72">
         <v>28.033188605851301</v>
@@ -5389,16 +5392,16 @@
         <v>-482.8860273889</v>
       </c>
       <c r="J92" s="73">
-        <v>19811.22</v>
+        <v>19680.63</v>
       </c>
       <c r="K92" s="73">
-        <v>9931.5715199999995</v>
+        <v>9896.4384900000005</v>
       </c>
       <c r="L92" s="73">
-        <v>35288.938657098501</v>
+        <v>35213.941559484701</v>
       </c>
       <c r="M92" s="74">
-        <v>64548.844149709599</v>
+        <v>64308.124022095799</v>
       </c>
       <c r="N92" s="75">
         <v>136466.44737246999</v>
@@ -5533,7 +5536,7 @@
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="61"/>
       <c r="B96" s="76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C96" s="77">
         <v>0.22846561889483999</v>
@@ -5575,7 +5578,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="61"/>
       <c r="B97" s="69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="70">
         <v>0.66107037006956004</v>
@@ -5617,7 +5620,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="61"/>
       <c r="B98" s="69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="70">
         <v>-4.6373583112600002E-2</v>
@@ -5659,7 +5662,7 @@
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="61"/>
       <c r="B99" s="76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C99" s="77">
         <v>-2.297480173E-4</v>
@@ -5716,7 +5719,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B101" s="90"/>
       <c r="C101" s="91"/>
@@ -5734,7 +5737,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B102" s="90"/>
       <c r="C102" s="91"/>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B103" s="90"/>
       <c r="C103" s="91"/>
@@ -5770,7 +5773,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B104" s="90"/>
       <c r="C104" s="91"/>
@@ -5788,7 +5791,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B105" s="90"/>
       <c r="C105" s="91"/>
@@ -5836,7 +5839,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108" s="91"/>
       <c r="D108" s="91"/>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" s="91"/>
       <c r="D110" s="91"/>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="91"/>
       <c r="D111" s="91"/>
@@ -5917,7 +5920,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C113" s="91"/>
       <c r="D113" s="91"/>
@@ -5934,7 +5937,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" s="91"/>
       <c r="D114" s="91"/>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="176">
   <si>
     <t>Tableau 22 : Apports financiers extérieurs</t>
   </si>
@@ -75,6 +75,9 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Lesotho</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>MWI</t>
@@ -1518,8 +1518,8 @@
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13">
-        <v>1.5631518721783599</v>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="13">
         <v>5.8616440796980002E-2</v>
@@ -1531,13 +1531,13 @@
         <v>4.0767337814000002E-3</v>
       </c>
       <c r="G3" s="14">
-        <v>-3.2235354594527998</v>
-      </c>
-      <c r="H3" s="15">
-        <v>30.108262398328598</v>
-      </c>
-      <c r="I3" s="16">
-        <v>1321.10620663445</v>
+        <v>-4.7866873316312004</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="16">
         <v>49.54</v>
@@ -1549,39 +1549,39 @@
         <v>3.4454734675930099</v>
       </c>
       <c r="M3" s="17">
-        <v>-2724.3883198980002</v>
-      </c>
-      <c r="N3" s="18">
-        <v>25446.1597963477</v>
+        <v>-4045.4945265324</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="20">
-        <v>0.41501993602273002</v>
+        <v>0.41243459670086002</v>
       </c>
       <c r="E4" s="20">
-        <v>0.56417114585928996</v>
+        <v>0.56065667891191995</v>
       </c>
       <c r="F4" s="20">
-        <v>0.32361670849402002</v>
+        <v>0.32160075955021</v>
       </c>
       <c r="G4" s="21">
-        <v>1.30280779037604</v>
-      </c>
-      <c r="H4" s="22">
-        <v>22.2442307431313</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
+        <v>1.29469203516298</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="23">
         <v>68.86</v>
@@ -1595,37 +1595,37 @@
       <c r="M4" s="24">
         <v>216.16153022678299</v>
       </c>
-      <c r="N4" s="25">
-        <v>3690.7569878477898</v>
+      <c r="N4" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="28">
-        <v>1.64165094346305</v>
+        <v>1.6328575693087599</v>
       </c>
       <c r="E5" s="28">
-        <v>2.91251019528847</v>
+        <v>2.8969095635114499</v>
       </c>
       <c r="F5" s="28">
-        <v>2.6548689999045498</v>
+        <v>2.6406484029257902</v>
       </c>
       <c r="G5" s="29">
-        <v>7.20903013865607</v>
-      </c>
-      <c r="H5" s="22">
-        <v>16.054946631094001</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
+        <v>7.1704155357459998</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="30">
         <v>73.400000000000006</v>
@@ -1639,37 +1639,37 @@
       <c r="M5" s="31">
         <v>322.32358180913502</v>
       </c>
-      <c r="N5" s="25">
-        <v>717.83413362916599</v>
+      <c r="N5" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="28">
-        <v>6.5535041105602101</v>
+        <v>6.3506157274065496</v>
       </c>
       <c r="E6" s="28">
-        <v>5.2794361104389704</v>
+        <v>5.1159912970476098</v>
       </c>
       <c r="F6" s="28">
-        <v>22.2321042971003</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="22">
-        <v>21.224620653535499</v>
+        <v>21.5438258404386</v>
+      </c>
+      <c r="G6" s="29">
+        <v>33.010432864892699</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J6" s="30">
         <v>145.97999999999999</v>
@@ -1680,11 +1680,11 @@
       <c r="L6" s="30">
         <v>495.22248411518399</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="25">
-        <v>472.78067896691402</v>
+      <c r="M6" s="31">
+        <v>758.80248411518403</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1694,8 +1694,8 @@
       <c r="B7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28">
-        <v>0</v>
+      <c r="C7" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="28">
         <v>10.935134708324901</v>
@@ -1709,11 +1709,11 @@
       <c r="G7" s="29">
         <v>20.362893474953399</v>
       </c>
-      <c r="H7" s="22">
-        <v>-1.1814914457815</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
+      <c r="H7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J7" s="30">
         <v>1206.22</v>
@@ -1727,8 +1727,8 @@
       <c r="M7" s="31">
         <v>2246.1661444974502</v>
       </c>
-      <c r="N7" s="25">
-        <v>-130.32657116199999</v>
+      <c r="N7" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1738,8 +1738,8 @@
       <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28">
-        <v>1.13709947459419</v>
+      <c r="C8" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="28">
         <v>12.396203632236</v>
@@ -1751,13 +1751,13 @@
         <v>1.9465037044308</v>
       </c>
       <c r="G8" s="29">
-        <v>29.850495962027502</v>
-      </c>
-      <c r="H8" s="22">
-        <v>9.6301752191922301</v>
-      </c>
-      <c r="I8" s="30">
-        <v>175</v>
+        <v>28.7133964874333</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J8" s="30">
         <v>1907.78</v>
@@ -1769,10 +1769,10 @@
         <v>299.56758919175201</v>
       </c>
       <c r="M8" s="31">
-        <v>4594.0015891917501</v>
-      </c>
-      <c r="N8" s="25">
-        <v>1482.08727645406</v>
+        <v>4419.0015891917501</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1782,26 +1782,26 @@
       <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28">
-        <v>0.55104907688588001</v>
+      <c r="C9" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="28">
-        <v>1.1813257261500101</v>
+        <v>1.1878474126729299</v>
       </c>
       <c r="E9" s="28">
-        <v>-1.4242294109367</v>
+        <v>-1.4320920838213</v>
       </c>
       <c r="F9" s="28">
-        <v>0.48316958260409998</v>
+        <v>0.48583699302731997</v>
       </c>
       <c r="G9" s="29">
-        <v>0.79131497470328005</v>
-      </c>
-      <c r="H9" s="22">
-        <v>16.165091204189899</v>
-      </c>
-      <c r="I9" s="30">
-        <v>69.228318397129996</v>
+        <v>0.24159232187897001</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J9" s="30">
         <v>148.41</v>
@@ -1813,10 +1813,10 @@
         <v>60.7006147135818</v>
       </c>
       <c r="M9" s="31">
-        <v>99.412933110711904</v>
-      </c>
-      <c r="N9" s="25">
-        <v>2030.82107881665</v>
+        <v>30.184614713581801</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1826,26 +1826,26 @@
       <c r="B10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28">
-        <v>1.55910042762527</v>
+      <c r="C10" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="28">
-        <v>0.25047884501888001</v>
+        <v>0.25047879588025002</v>
       </c>
       <c r="E10" s="28">
-        <v>1.3213867753291899</v>
+        <v>1.32138651610115</v>
       </c>
       <c r="F10" s="28">
-        <v>0.22948596357244999</v>
+        <v>0.22948591855218001</v>
       </c>
       <c r="G10" s="29">
-        <v>3.3604520115457901</v>
-      </c>
-      <c r="H10" s="22">
-        <v>12.7615331578062</v>
-      </c>
-      <c r="I10" s="30">
-        <v>6046.9573121642197</v>
+        <v>1.8013512305335699</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J10" s="30">
         <v>971.48</v>
@@ -1857,10 +1857,10 @@
         <v>890.05929372820901</v>
       </c>
       <c r="M10" s="31">
-        <v>13033.483605892399</v>
-      </c>
-      <c r="N10" s="25">
-        <v>49495.494245076297</v>
+        <v>6986.5262937282096</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1870,8 +1870,8 @@
       <c r="B11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="20">
-        <v>-4.8530636055199999E-2</v>
+      <c r="C11" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="20">
         <v>4.1884847693790901</v>
@@ -1883,13 +1883,13 @@
         <v>0.42155605338928998</v>
       </c>
       <c r="G11" s="21">
-        <v>6.9124291886989102</v>
-      </c>
-      <c r="H11" s="22">
-        <v>37.830560275635598</v>
-      </c>
-      <c r="I11" s="23">
-        <v>-11.31184473067</v>
+        <v>6.9609598247541298</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J11" s="23">
         <v>976.28</v>
@@ -1901,10 +1901,10 @@
         <v>98.259100000000004</v>
       </c>
       <c r="M11" s="24">
-        <v>1611.1951552693299</v>
-      </c>
-      <c r="N11" s="25">
-        <v>8817.7996147691902</v>
+        <v>1622.5070000000001</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1914,26 +1914,26 @@
       <c r="B12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="33">
-        <v>-0.74028326420349999</v>
+      <c r="C12" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="33">
-        <v>4.9772051823405601</v>
+        <v>4.2396625328376398</v>
       </c>
       <c r="E12" s="33">
-        <v>1.4295125101861299</v>
+        <v>1.21768149144472</v>
       </c>
       <c r="F12" s="33">
-        <v>4.7057842784060702</v>
+        <v>4.0084618901309996</v>
       </c>
       <c r="G12" s="34">
-        <v>10.3722187067292</v>
+        <v>9.46580591441335</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="36">
-        <v>-145</v>
+        <v>17</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="J12" s="36">
         <v>974.89</v>
@@ -1945,10 +1945,10 @@
         <v>921.72652464730004</v>
       </c>
       <c r="M12" s="37">
-        <v>2031.6165246472999</v>
+        <v>2176.6165246473001</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1959,22 +1959,22 @@
         <v>37</v>
       </c>
       <c r="C13" s="41">
-        <v>1.28994850255264</v>
+        <v>1.2943979965885299</v>
       </c>
       <c r="D13" s="41">
-        <v>1.2210858272109999</v>
+        <v>1.19848706444622</v>
       </c>
       <c r="E13" s="41">
-        <v>0.83000388247034995</v>
+        <v>0.82468963266209006</v>
       </c>
       <c r="F13" s="41">
-        <v>0.53629248174060995</v>
+        <v>0.51377467349512995</v>
       </c>
       <c r="G13" s="42">
-        <v>3.8773306939746002</v>
+        <v>3.8313493671919598</v>
       </c>
       <c r="H13" s="43">
-        <v>17.0434962392664</v>
+        <v>17.0355640441649</v>
       </c>
       <c r="I13" s="44">
         <v>7455.9799924651297</v>
@@ -1992,7 +1992,7 @@
         <v>22188.775228862101</v>
       </c>
       <c r="N13" s="46">
-        <v>92023.407240745699</v>
+        <v>92023.807633634104</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -2002,8 +2002,8 @@
       <c r="B14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="28">
-        <v>0</v>
+      <c r="C14" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="28">
         <v>19.549994618770299</v>
@@ -2017,11 +2017,11 @@
       <c r="G14" s="29">
         <v>21.188961973760499</v>
       </c>
-      <c r="H14" s="22">
-        <v>1.2780843756753999</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0</v>
+      <c r="H14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="30">
         <v>588.94000000000005</v>
@@ -2035,8 +2035,8 @@
       <c r="M14" s="31">
         <v>638.31359077946604</v>
       </c>
-      <c r="N14" s="25">
-        <v>38.502057258244697</v>
+      <c r="N14" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2046,26 +2046,26 @@
       <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="28">
-        <v>5.6669671967300002E-2</v>
+      <c r="C15" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="28">
-        <v>3.42285037984314</v>
+        <v>3.3655923464019399</v>
       </c>
       <c r="E15" s="28">
-        <v>2.6325073005322102</v>
+        <v>2.58847026288203</v>
       </c>
       <c r="F15" s="28">
-        <v>0.91145778453742998</v>
+        <v>0.89621076099979002</v>
       </c>
       <c r="G15" s="29">
-        <v>7.0234851368800797</v>
-      </c>
-      <c r="H15" s="22">
-        <v>20.819176112529799</v>
-      </c>
-      <c r="I15" s="30">
-        <v>22.10627722724</v>
+        <v>6.8502733702837499</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J15" s="30">
         <v>1335.22</v>
@@ -2077,10 +2077,10 @@
         <v>355.55064581170302</v>
       </c>
       <c r="M15" s="31">
-        <v>2739.7919230389398</v>
-      </c>
-      <c r="N15" s="25">
-        <v>8121.3542060362897</v>
+        <v>2717.6856458116999</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2090,26 +2090,26 @@
       <c r="B16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
+      <c r="C16" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="28">
-        <v>33.109084945123399</v>
+        <v>33.093904271013102</v>
       </c>
       <c r="E16" s="28">
-        <v>1.12440270761252</v>
+        <v>1.1238871635827901</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
       </c>
       <c r="G16" s="29">
-        <v>34.233487652736002</v>
-      </c>
-      <c r="H16" s="22">
-        <v>6.2111423972899296</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
+        <v>34.217791434595902</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="30">
         <v>753.85</v>
@@ -2123,8 +2123,8 @@
       <c r="M16" s="31">
         <v>779.45115999999996</v>
       </c>
-      <c r="N16" s="25">
-        <v>141.419483623834</v>
+      <c r="N16" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2134,26 +2134,26 @@
       <c r="B17" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13">
-        <v>0</v>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="13">
-        <v>6.4662357020865899</v>
+        <v>6.43200059505652</v>
       </c>
       <c r="E17" s="13">
-        <v>5.1821238743668401</v>
+        <v>5.1546874223635903</v>
       </c>
       <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="14">
-        <v>11.6483595764534</v>
-      </c>
-      <c r="H17" s="48">
-        <v>22.518454938719898</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
+        <v>11.5866880174201</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J17" s="16">
         <v>707.05</v>
@@ -2167,8 +2167,8 @@
       <c r="M17" s="17">
         <v>1273.6889000000001</v>
       </c>
-      <c r="N17" s="49">
-        <v>2462.2785648355102</v>
+      <c r="N17" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2178,26 +2178,26 @@
       <c r="B18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13">
-        <v>-1.07087353861E-2</v>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="13">
-        <v>1.46412723948113</v>
+        <v>1.4641290117763399</v>
       </c>
       <c r="E18" s="13">
-        <v>37.950964565214399</v>
+        <v>37.951010504058203</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="48">
-        <v>11.605099645088499</v>
-      </c>
-      <c r="I18" s="16">
-        <v>-1.3697066905699999</v>
+        <v>17</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J18" s="16">
         <v>187.27</v>
@@ -2206,13 +2206,13 @@
         <v>4854.1390000000001</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="49">
-        <v>1484.3566542112201</v>
+        <v>17</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2222,41 +2222,41 @@
       <c r="B19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20">
-        <v>0</v>
+      <c r="C19" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="20">
         <v>6.0031747677036202</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F19" s="20">
         <v>4.1197738558415402</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="22">
-        <v>10.102190659127199</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J19" s="23">
         <v>3025.53</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L19" s="23">
         <v>2076.3179278274201</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="25">
-        <v>5091.3861560957002</v>
+        <v>17</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2266,26 +2266,26 @@
       <c r="B20" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13">
-        <v>1.6452755793159999E-2</v>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="13">
-        <v>0.56116702901935001</v>
+        <v>0.56116694069469997</v>
       </c>
       <c r="E20" s="13">
-        <v>3.9614266922237502</v>
+        <v>3.9614260687167202</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
       </c>
       <c r="G20" s="14">
-        <v>4.5390464770362602</v>
-      </c>
-      <c r="H20" s="48">
-        <v>-0.39960299485709999</v>
-      </c>
-      <c r="I20" s="16">
-        <v>1.8784568749699999</v>
+        <v>4.5225930094114197</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J20" s="16">
         <v>64.069999999999993</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>518.23555687497003</v>
-      </c>
-      <c r="N20" s="49">
-        <v>-45.623784998984</v>
+        <v>516.35709999999995</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2310,8 +2310,8 @@
       <c r="B21" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="13">
-        <v>0</v>
+      <c r="C21" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="13">
         <v>0.69160798906262</v>
@@ -2325,11 +2325,11 @@
       <c r="G21" s="14">
         <v>10.0046718806854</v>
       </c>
-      <c r="H21" s="48">
-        <v>24.9081690857989</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
+      <c r="H21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J21" s="16">
         <v>116.71</v>
@@ -2343,8 +2343,8 @@
       <c r="M21" s="17">
         <v>1688.30504225</v>
       </c>
-      <c r="N21" s="49">
-        <v>4203.2950167965701</v>
+      <c r="N21" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2354,8 +2354,8 @@
       <c r="B22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="28">
-        <v>0</v>
+      <c r="C22" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="28">
         <v>11.9279182216197</v>
@@ -2369,11 +2369,11 @@
       <c r="G22" s="29">
         <v>20.125890124886102</v>
       </c>
-      <c r="H22" s="22">
-        <v>2.46095936455899</v>
-      </c>
-      <c r="I22" s="30">
-        <v>0</v>
+      <c r="H22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="30">
         <v>51.37</v>
@@ -2387,8 +2387,8 @@
       <c r="M22" s="31">
         <v>86.676229372656394</v>
       </c>
-      <c r="N22" s="25">
-        <v>10.5986208329511</v>
+      <c r="N22" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2399,22 +2399,22 @@
         <v>56</v>
       </c>
       <c r="C23" s="41">
-        <v>1.8028307840109999E-2</v>
+        <v>1.805197348692E-2</v>
       </c>
       <c r="D23" s="41">
-        <v>4.7336921640513498</v>
+        <v>4.7023449367015298</v>
       </c>
       <c r="E23" s="41">
-        <v>7.4039123961855697</v>
+        <v>7.32103476189008</v>
       </c>
       <c r="F23" s="41">
-        <v>1.7392296623700501</v>
+        <v>1.7258497828453301</v>
       </c>
       <c r="G23" s="42">
-        <v>13.894862530447099</v>
+        <v>13.7672814549239</v>
       </c>
       <c r="H23" s="43">
-        <v>14.8977206684509</v>
+        <v>14.8322421890675</v>
       </c>
       <c r="I23" s="44">
         <v>22.61502741164</v>
@@ -2442,8 +2442,8 @@
       <c r="B24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="28">
-        <v>0</v>
+      <c r="C24" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="28">
         <v>6.5856032601686296</v>
@@ -2457,11 +2457,11 @@
       <c r="G24" s="29">
         <v>21.0931509999808</v>
       </c>
-      <c r="H24" s="22">
-        <v>12.530859602661501</v>
-      </c>
-      <c r="I24" s="30">
-        <v>0</v>
+      <c r="H24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J24" s="30">
         <v>78.239999999999995</v>
@@ -2475,8 +2475,8 @@
       <c r="M24" s="31">
         <v>250.596349194021</v>
       </c>
-      <c r="N24" s="25">
-        <v>148.87238368002301</v>
+      <c r="N24" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2486,26 +2486,26 @@
       <c r="B25" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="28">
-        <v>0</v>
+      <c r="C25" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="28">
-        <v>8.1428063138655702</v>
+        <v>8.2135005129228205</v>
       </c>
       <c r="E25" s="28">
-        <v>6.6342594013437903</v>
+        <v>6.6918567009280201</v>
       </c>
       <c r="F25" s="28">
-        <v>2.3746487354786501</v>
+        <v>2.39526495597147</v>
       </c>
       <c r="G25" s="29">
-        <v>17.151714450688001</v>
+        <v>17.300622169822301</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="30">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J25" s="30">
         <v>272.48</v>
@@ -2520,7 +2520,7 @@
         <v>573.94207517443203</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2530,8 +2530,8 @@
       <c r="B26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="28">
-        <v>0</v>
+      <c r="C26" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="28">
         <v>13.973258074616901</v>
@@ -2545,11 +2545,11 @@
       <c r="G26" s="29">
         <v>17.359778816089499</v>
       </c>
-      <c r="H26" s="22">
-        <v>15.1641973264413</v>
-      </c>
-      <c r="I26" s="30">
-        <v>0</v>
+      <c r="H26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J26" s="30">
         <v>276.93</v>
@@ -2563,8 +2563,8 @@
       <c r="M26" s="31">
         <v>344.04599999999999</v>
       </c>
-      <c r="N26" s="25">
-        <v>300.53271350078501</v>
+      <c r="N26" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2574,26 +2574,26 @@
       <c r="B27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="28">
-        <v>0</v>
+      <c r="C27" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="28">
-        <v>5.1939104022664804</v>
+        <v>5.1939104022664901</v>
       </c>
       <c r="E27" s="28">
-        <v>2.7522497714740002</v>
+        <v>2.75224977147401</v>
       </c>
       <c r="F27" s="28">
         <v>0.57343306479516998</v>
       </c>
       <c r="G27" s="29">
-        <v>8.5195932385356592</v>
-      </c>
-      <c r="H27" s="22">
-        <v>29.969405743746101</v>
-      </c>
-      <c r="I27" s="30">
-        <v>0</v>
+        <v>8.5195932385356699</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J27" s="30">
         <v>4809.97</v>
@@ -2607,8 +2607,8 @@
       <c r="M27" s="31">
         <v>7889.81417000903</v>
       </c>
-      <c r="N27" s="25">
-        <v>27754.029503924899</v>
+      <c r="N27" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2618,26 +2618,26 @@
       <c r="B28" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="28">
-        <v>1.0434103685954399</v>
+      <c r="C28" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="28">
-        <v>3.2361517015813002</v>
+        <v>3.2346725257657498</v>
       </c>
       <c r="E28" s="28">
-        <v>1.09336947476478</v>
+        <v>1.0928697189332699</v>
       </c>
       <c r="F28" s="28">
-        <v>2.8252554060272899</v>
+        <v>2.8239640421313101</v>
       </c>
       <c r="G28" s="29">
-        <v>8.1981869509688092</v>
-      </c>
-      <c r="H28" s="22">
-        <v>13.6226591853539</v>
-      </c>
-      <c r="I28" s="30">
-        <v>1048.1881317044599</v>
+        <v>7.1515062868303199</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J28" s="30">
         <v>3250.97</v>
@@ -2649,10 +2649,10 @@
         <v>2838.1922154157701</v>
       </c>
       <c r="M28" s="31">
-        <v>8235.7263471202295</v>
-      </c>
-      <c r="N28" s="25">
-        <v>13685.0371724447</v>
+        <v>7187.5382154157696</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2662,8 +2662,8 @@
       <c r="B29" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="28">
-        <v>-7.8687395612900002E-2</v>
+      <c r="C29" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="28">
         <v>5.3611341869143603</v>
@@ -2675,13 +2675,13 @@
         <v>2.89036438302927</v>
       </c>
       <c r="G29" s="29">
-        <v>11.5356093040941</v>
-      </c>
-      <c r="H29" s="22">
-        <v>13.4620992249402</v>
-      </c>
-      <c r="I29" s="30">
-        <v>-11.09859329503</v>
+        <v>11.614296699707101</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J29" s="30">
         <v>756.17</v>
@@ -2693,10 +2693,10 @@
         <v>407.67620419760198</v>
       </c>
       <c r="M29" s="31">
-        <v>1627.05901090257</v>
-      </c>
-      <c r="N29" s="25">
-        <v>1898.78395429271</v>
+        <v>1638.1576041976</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2706,26 +2706,26 @@
       <c r="B30" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="28">
-        <v>-5.8283874926071002</v>
+      <c r="C30" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="28">
-        <v>0.15790592700521</v>
+        <v>0.15791194845734999</v>
       </c>
       <c r="E30" s="28">
-        <v>3.35619223224721</v>
+        <v>3.3563202144659301</v>
       </c>
       <c r="F30" s="28">
-        <v>2.2675779944534402</v>
+        <v>2.2676644643701702</v>
       </c>
       <c r="G30" s="29">
-        <v>-4.6711338901299998E-2</v>
-      </c>
-      <c r="H30" s="22">
-        <v>17.151728580934801</v>
-      </c>
-      <c r="I30" s="30">
-        <v>-818.67499870198003</v>
+        <v>5.7818966272934498</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J30" s="30">
         <v>22.18</v>
@@ -2737,10 +2737,10 @@
         <v>318.51166622338201</v>
       </c>
       <c r="M30" s="31">
-        <v>-6.5612324785986003</v>
-      </c>
-      <c r="N30" s="25">
-        <v>2409.1897444266301</v>
+        <v>812.11376622338196</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2750,8 +2750,8 @@
       <c r="B31" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="28">
-        <v>0</v>
+      <c r="C31" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="28">
         <v>11.501196139568</v>
@@ -2765,11 +2765,11 @@
       <c r="G31" s="29">
         <v>17.435303462553101</v>
       </c>
-      <c r="H31" s="22">
-        <v>6.2425703992395798</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
+      <c r="H31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J31" s="30">
         <v>1191.0999999999999</v>
@@ -2783,8 +2783,8 @@
       <c r="M31" s="31">
         <v>1805.6547947044301</v>
       </c>
-      <c r="N31" s="25">
-        <v>646.50019983169796</v>
+      <c r="N31" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2794,29 +2794,29 @@
       <c r="B32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="28">
-        <v>-1.1176295272173999</v>
+      <c r="C32" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E32" s="28">
-        <v>9.0971476778140197</v>
+        <v>8.5417802586967593</v>
       </c>
       <c r="F32" s="28">
-        <v>1.49665019984209</v>
+        <v>1.4052819173600199</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="22">
-        <v>6.2294349910003302</v>
-      </c>
-      <c r="I32" s="30">
-        <v>-17.659402422380001</v>
+        <v>17</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K32" s="30">
         <v>143.74189999999999</v>
@@ -2825,10 +2825,10 @@
         <v>23.6482193078321</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="25">
-        <v>98.429843424069404</v>
+        <v>17</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2839,25 +2839,25 @@
         <v>76</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D33" s="28">
-        <v>36.859385277255797</v>
+        <v>28.802433790460199</v>
       </c>
       <c r="E33" s="28">
-        <v>8.8316476478807306</v>
+        <v>6.9011717022779502</v>
       </c>
       <c r="F33" s="28">
-        <v>31.1577367801072</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>23</v>
+        <v>24.347086743830701</v>
+      </c>
+      <c r="G33" s="29">
+        <v>60.050692236568899</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J33" s="30">
         <v>1865.58</v>
@@ -2868,11 +2868,11 @@
       <c r="L33" s="30">
         <v>1577</v>
       </c>
-      <c r="M33" s="31" t="s">
-        <v>23</v>
+      <c r="M33" s="31">
+        <v>3889.58</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -2883,25 +2883,25 @@
         <v>78</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D34" s="20">
-        <v>41.085282790605902</v>
+        <v>35.446455001359901</v>
       </c>
       <c r="E34" s="20">
-        <v>-5.0524391531049</v>
+        <v>-4.3590075307597003</v>
       </c>
       <c r="F34" s="20">
-        <v>15.254949133770801</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="22">
-        <v>9.1233718796547993</v>
+        <v>13.1612546218589</v>
+      </c>
+      <c r="G34" s="21">
+        <v>44.248702092459098</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J34" s="23">
         <v>1885.27</v>
@@ -2912,11 +2912,11 @@
       <c r="L34" s="23">
         <v>700</v>
       </c>
-      <c r="M34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="25">
-        <v>418.64186237242097</v>
+      <c r="M34" s="24">
+        <v>2353.4299999999998</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -2926,8 +2926,8 @@
       <c r="B35" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="28">
-        <v>0</v>
+      <c r="C35" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="28">
         <v>4.8405456742198103</v>
@@ -2941,11 +2941,11 @@
       <c r="G35" s="29">
         <v>8.8558037037033603</v>
       </c>
-      <c r="H35" s="22">
-        <v>12.5010609791638</v>
-      </c>
-      <c r="I35" s="30">
-        <v>0</v>
+      <c r="H35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J35" s="30">
         <v>1624.67</v>
@@ -2959,8 +2959,8 @@
       <c r="M35" s="31">
         <v>2972.3422877555499</v>
       </c>
-      <c r="N35" s="25">
-        <v>4195.8283441446001</v>
+      <c r="N35" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2970,8 +2970,8 @@
       <c r="B36" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="28">
-        <v>1.521866712385E-2</v>
+      <c r="C36" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="28">
         <v>3.5407392432859099</v>
@@ -2983,13 +2983,13 @@
         <v>0.71286779147571999</v>
       </c>
       <c r="G36" s="29">
-        <v>5.8978647154968602</v>
-      </c>
-      <c r="H36" s="22">
-        <v>27.569965143903001</v>
-      </c>
-      <c r="I36" s="30">
-        <v>9.2545422522099994</v>
+        <v>5.8826460483730099</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J36" s="30">
         <v>2153.14</v>
@@ -3001,10 +3001,10 @@
         <v>433.49821917798101</v>
       </c>
       <c r="M36" s="31">
-        <v>3586.5189614301898</v>
-      </c>
-      <c r="N36" s="25">
-        <v>16765.424017740901</v>
+        <v>3577.26441917798</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3014,26 +3014,26 @@
       <c r="B37" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="28">
-        <v>-0.249859241156</v>
+      <c r="C37" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="28">
-        <v>5.5261529441448403</v>
+        <v>5.5178984704075003</v>
       </c>
       <c r="E37" s="28">
-        <v>3.3127444989513002</v>
+        <v>3.3077962170739301</v>
       </c>
       <c r="F37" s="28">
-        <v>3.74857869256752</v>
+        <v>3.7429794004952801</v>
       </c>
       <c r="G37" s="29">
-        <v>12.3376168945077</v>
-      </c>
-      <c r="H37" s="22">
-        <v>11.129280183316</v>
-      </c>
-      <c r="I37" s="30">
-        <v>-94.949761673880005</v>
+        <v>12.568674087976699</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J37" s="30">
         <v>2100.0100000000002</v>
@@ -3045,10 +3045,10 @@
         <v>1424.5086626709201</v>
       </c>
       <c r="M37" s="31">
-        <v>4688.4549009970397</v>
-      </c>
-      <c r="N37" s="25">
-        <v>4229.2712333502304</v>
+        <v>4783.4046626709196</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3059,22 +3059,22 @@
         <v>85</v>
       </c>
       <c r="C38" s="41">
-        <v>4.4200153303370002E-2</v>
+        <v>4.3970482129940001E-2</v>
       </c>
       <c r="D38" s="41">
-        <v>5.3752816747661702</v>
+        <v>5.2896901350930996</v>
       </c>
       <c r="E38" s="41">
-        <v>2.3173307382000701</v>
+        <v>2.3149264000698402</v>
       </c>
       <c r="F38" s="41">
-        <v>2.3318812070428199</v>
+        <v>2.2929326746216199</v>
       </c>
       <c r="G38" s="42">
-        <v>10.0686937733124</v>
+        <v>9.9415196919145004</v>
       </c>
       <c r="H38" s="43">
-        <v>19.022992718021801</v>
+        <v>18.979787118191101</v>
       </c>
       <c r="I38" s="44">
         <v>115.0599178634</v>
@@ -3092,7 +3092,7 @@
         <v>38360.334381694302</v>
       </c>
       <c r="N38" s="46">
-        <v>72550.540973133597</v>
+        <v>72556.798971697295</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -3102,8 +3102,8 @@
       <c r="B39" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="13">
-        <v>0</v>
+      <c r="C39" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D39" s="13">
         <v>0.10271792992904</v>
@@ -3117,11 +3117,11 @@
       <c r="G39" s="14">
         <v>1.95438262898996</v>
       </c>
-      <c r="H39" s="48">
-        <v>34.391917516208402</v>
-      </c>
-      <c r="I39" s="16">
-        <v>0</v>
+      <c r="H39" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J39" s="16">
         <v>175.72</v>
@@ -3135,8 +3135,8 @@
       <c r="M39" s="17">
         <v>3343.37068322299</v>
       </c>
-      <c r="N39" s="49">
-        <v>58834.399701423601</v>
+      <c r="N39" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -3146,8 +3146,8 @@
       <c r="B40" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="28">
-        <v>1.0200281781001199</v>
+      <c r="C40" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D40" s="28">
         <v>0.57571608888722003</v>
@@ -3159,13 +3159,13 @@
         <v>8.8581934073642508</v>
       </c>
       <c r="G40" s="29">
-        <v>13.4340777193213</v>
-      </c>
-      <c r="H40" s="22">
-        <v>19.1291630161803</v>
-      </c>
-      <c r="I40" s="30">
-        <v>3083.9</v>
+        <v>12.4140495412212</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J40" s="30">
         <v>1740.59</v>
@@ -3177,10 +3177,10 @@
         <v>26781.4</v>
       </c>
       <c r="M40" s="31">
-        <v>40615.89</v>
-      </c>
-      <c r="N40" s="25">
-        <v>57834.1138923006</v>
+        <v>37531.99</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3191,40 +3191,40 @@
         <v>91</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D41" s="13">
         <v>0.80008635090511004</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J41" s="16">
         <v>316.01</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L41" s="16">
         <v>0</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N41" s="49" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -3234,8 +3234,8 @@
       <c r="B42" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="13">
-        <v>0</v>
+      <c r="C42" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D42" s="13">
         <v>5.2248519826298701</v>
@@ -3249,11 +3249,11 @@
       <c r="G42" s="14">
         <v>17.284620029844699</v>
       </c>
-      <c r="H42" s="48">
-        <v>20.398145854821301</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
+      <c r="H42" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J42" s="16">
         <v>412.18</v>
@@ -3267,8 +3267,8 @@
       <c r="M42" s="17">
         <v>1363.55531364076</v>
       </c>
-      <c r="N42" s="49">
-        <v>1609.1762573163501</v>
+      <c r="N42" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3278,8 +3278,8 @@
       <c r="B43" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="28">
-        <v>0.95008883074613004</v>
+      <c r="C43" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D43" s="28">
         <v>0.63223103390966995</v>
@@ -3291,13 +3291,13 @@
         <v>5.8084054761121502</v>
       </c>
       <c r="G43" s="29">
-        <v>8.8255717785194108</v>
-      </c>
-      <c r="H43" s="22">
-        <v>27.436199675580799</v>
-      </c>
-      <c r="I43" s="30">
-        <v>1138.8784837349999</v>
+        <v>7.8754829477732802</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J43" s="30">
         <v>757.86</v>
@@ -3309,10 +3309,10 @@
         <v>6962.5784531723402</v>
       </c>
       <c r="M43" s="31">
-        <v>10579.2779369073</v>
-      </c>
-      <c r="N43" s="25">
-        <v>32887.974760673198</v>
+        <v>9440.3994531723401</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3322,26 +3322,26 @@
       <c r="B44" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="28">
-        <v>-0.19378860392450001</v>
+      <c r="C44" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D44" s="28">
-        <v>2.5122835653906299</v>
+        <v>2.3557060042956302</v>
       </c>
       <c r="E44" s="28">
-        <v>2.1568136824720301</v>
+        <v>2.0223907093689499</v>
       </c>
       <c r="F44" s="28">
-        <v>5.2329046452729502</v>
+        <v>4.9067649299609304</v>
       </c>
       <c r="G44" s="29">
-        <v>9.70821328921107</v>
-      </c>
-      <c r="H44" s="22">
-        <v>8.2517870343736508</v>
-      </c>
-      <c r="I44" s="30">
-        <v>-75.90456847582</v>
+        <v>9.2848616436255096</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J44" s="30">
         <v>984.03</v>
@@ -3353,10 +3353,10 @@
         <v>2049.66319448389</v>
       </c>
       <c r="M44" s="31">
-        <v>3802.5855260080698</v>
-      </c>
-      <c r="N44" s="25">
-        <v>3232.1216073282399</v>
+        <v>3878.4900944838901</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3367,22 +3367,22 @@
         <v>98</v>
       </c>
       <c r="C45" s="41">
-        <v>0.68675681481568995</v>
+        <v>0.68397653249072998</v>
       </c>
       <c r="D45" s="41">
-        <v>0.64716646685221002</v>
+        <v>0.64487004855261998</v>
       </c>
       <c r="E45" s="41">
-        <v>2.3095766275244798</v>
+        <v>2.30045940469721</v>
       </c>
       <c r="F45" s="41">
-        <v>6.0415515731639404</v>
+        <v>6.0186656518032304</v>
       </c>
       <c r="G45" s="42">
-        <v>9.6850514823563199</v>
+        <v>9.6479716375437903</v>
       </c>
       <c r="H45" s="43">
-        <v>23.192572913132999</v>
+        <v>23.099906664509401</v>
       </c>
       <c r="I45" s="44">
         <v>4146.8739152591797</v>
@@ -3410,8 +3410,8 @@
       <c r="B46" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="28">
-        <v>3.19428813230512</v>
+      <c r="C46" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D46" s="28">
         <v>4.1842521813433704</v>
@@ -3423,13 +3423,13 @@
         <v>1.5077033610711299</v>
       </c>
       <c r="G46" s="29">
-        <v>10.402387348124799</v>
-      </c>
-      <c r="H46" s="22">
-        <v>17.471308795337102</v>
-      </c>
-      <c r="I46" s="30">
-        <v>459.73143414550998</v>
+        <v>7.2080992158197201</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J46" s="30">
         <v>602.21</v>
@@ -3441,10 +3441,10 @@
         <v>216.99314518350599</v>
       </c>
       <c r="M46" s="31">
-        <v>1497.14247932902</v>
-      </c>
-      <c r="N46" s="25">
-        <v>2514.52264673542</v>
+        <v>1037.4110451835099</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3454,8 +3454,8 @@
       <c r="B47" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="28">
-        <v>1.3037491252459701</v>
+      <c r="C47" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D47" s="28">
         <v>7.1838871447383204</v>
@@ -3467,13 +3467,13 @@
         <v>2.9218795964335702</v>
       </c>
       <c r="G47" s="29">
-        <v>12.4286178032346</v>
-      </c>
-      <c r="H47" s="22">
-        <v>5.6150003315526904</v>
-      </c>
-      <c r="I47" s="30">
-        <v>208.48880312252999</v>
+        <v>11.1248686779886</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J47" s="30">
         <v>1148.81</v>
@@ -3485,10 +3485,10 @@
         <v>467.251841732701</v>
       </c>
       <c r="M47" s="31">
-        <v>1987.52014485523</v>
-      </c>
-      <c r="N47" s="25">
-        <v>897.92175196065205</v>
+        <v>1779.0313417327</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3498,8 +3498,8 @@
       <c r="B48" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="28">
-        <v>0</v>
+      <c r="C48" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D48" s="28">
         <v>7.6968637736353802</v>
@@ -3513,11 +3513,11 @@
       <c r="G48" s="29">
         <v>24.9730792107352</v>
       </c>
-      <c r="H48" s="22">
-        <v>31.053456553714199</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
+      <c r="H48" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J48" s="30">
         <v>152.54</v>
@@ -3531,8 +3531,8 @@
       <c r="M48" s="31">
         <v>494.92801416781498</v>
       </c>
-      <c r="N48" s="25">
-        <v>615.43173973394198</v>
+      <c r="N48" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3542,8 +3542,8 @@
       <c r="B49" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="28">
-        <v>1.5299771058538001</v>
+      <c r="C49" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D49" s="28">
         <v>2.05200175516643</v>
@@ -3555,13 +3555,13 @@
         <v>0.56080226262695998</v>
       </c>
       <c r="G49" s="29">
-        <v>5.7411648149321204</v>
-      </c>
-      <c r="H49" s="22">
-        <v>11.372894654721099</v>
-      </c>
-      <c r="I49" s="30">
-        <v>895.63977917538</v>
+        <v>4.2111877090783301</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J49" s="30">
         <v>1201.23</v>
@@ -3573,10 +3573,10 @@
         <v>328.29041214964599</v>
       </c>
       <c r="M49" s="31">
-        <v>3360.8447913250302</v>
-      </c>
-      <c r="N49" s="25">
-        <v>6657.6269789703802</v>
+        <v>2465.20501214965</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3586,8 +3586,8 @@
       <c r="B50" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="28">
-        <v>0.57305142785903995</v>
+      <c r="C50" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D50" s="28">
         <v>10.7439932235659</v>
@@ -3599,13 +3599,13 @@
         <v>15.2532095204824</v>
       </c>
       <c r="G50" s="29">
-        <v>29.002657915008001</v>
-      </c>
-      <c r="H50" s="22">
-        <v>20.505389375089798</v>
-      </c>
-      <c r="I50" s="30">
-        <v>10.349494526659999</v>
+        <v>28.429606487148899</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J50" s="30">
         <v>194.04</v>
@@ -3617,10 +3617,10 @@
         <v>275.47790786599899</v>
       </c>
       <c r="M50" s="31">
-        <v>523.79740239265902</v>
-      </c>
-      <c r="N50" s="25">
-        <v>370.33397839596398</v>
+        <v>513.44790786599901</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3630,8 +3630,8 @@
       <c r="B51" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="20">
-        <v>2.4929562933477598</v>
+      <c r="C51" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D51" s="20">
         <v>1.36983853983909</v>
@@ -3643,13 +3643,13 @@
         <v>4.9686346020763201</v>
       </c>
       <c r="G51" s="21">
-        <v>14.506416294494899</v>
-      </c>
-      <c r="H51" s="22">
-        <v>26.143640335253199</v>
-      </c>
-      <c r="I51" s="23">
-        <v>1703.99997423169</v>
+        <v>12.0134600011471</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J51" s="23">
         <v>936.32</v>
@@ -3661,10 +3661,10 @@
         <v>3396.19</v>
       </c>
       <c r="M51" s="24">
-        <v>9915.5099742316906</v>
-      </c>
-      <c r="N51" s="25">
-        <v>17869.852983972702</v>
+        <v>8211.51</v>
+      </c>
+      <c r="N51" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3675,7 +3675,7 @@
         <v>112</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D52" s="28">
         <v>4.2968598261085296</v>
@@ -3686,14 +3686,14 @@
       <c r="F52" s="28">
         <v>1.1701151138364401</v>
       </c>
-      <c r="G52" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="22">
-        <v>-9.1468940813879005</v>
+      <c r="G52" s="29">
+        <v>5.79552177517128</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J52" s="30">
         <v>580.67999999999995</v>
@@ -3704,11 +3704,11 @@
       <c r="L52" s="30">
         <v>158.13</v>
       </c>
-      <c r="M52" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" s="25">
-        <v>-1236.1162965818</v>
+      <c r="M52" s="31">
+        <v>783.21</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3719,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D53" s="28">
         <v>8.3707483860655802</v>
@@ -3730,14 +3730,14 @@
       <c r="F53" s="28">
         <v>10.5014824039226</v>
       </c>
-      <c r="G53" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="22">
-        <v>4.3010524053024399</v>
+      <c r="G53" s="29">
+        <v>23.8497163095101</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="I53" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J53" s="30">
         <v>120.51</v>
@@ -3748,11 +3748,11 @@
       <c r="L53" s="30">
         <v>151.18524487050499</v>
       </c>
-      <c r="M53" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="25">
-        <v>61.920368580881203</v>
+      <c r="M53" s="31">
+        <v>343.35392487050501</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3762,26 +3762,26 @@
       <c r="B54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="28">
-        <v>0</v>
+      <c r="C54" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D54" s="28">
-        <v>19.391807146696401</v>
+        <v>19.392364576876599</v>
       </c>
       <c r="E54" s="28">
-        <v>2.8140862257046502</v>
+        <v>2.8141671184538399</v>
       </c>
       <c r="F54" s="28">
-        <v>11.2408944258309</v>
+        <v>11.2412175526936</v>
       </c>
       <c r="G54" s="29">
-        <v>33.446787798231902</v>
+        <v>33.447749248024003</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="30">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J54" s="30">
         <v>597.30999999999995</v>
@@ -3796,7 +3796,7 @@
         <v>1030.23409157436</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -3806,26 +3806,26 @@
       <c r="B55" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="28">
-        <v>0.49205761464532</v>
+      <c r="C55" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D55" s="28">
-        <v>10.7818236175353</v>
+        <v>10.7818234579946</v>
       </c>
       <c r="E55" s="28">
-        <v>4.1701152492485001</v>
+        <v>4.17011518754253</v>
       </c>
       <c r="F55" s="28">
-        <v>5.9144295035382202</v>
+        <v>5.91442941602131</v>
       </c>
       <c r="G55" s="29">
-        <v>21.358425984967301</v>
-      </c>
-      <c r="H55" s="22">
-        <v>5.7663148980863603</v>
-      </c>
-      <c r="I55" s="30">
-        <v>85.032616068050004</v>
+        <v>20.8663680615585</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J55" s="30">
         <v>1863.21</v>
@@ -3837,10 +3837,10 @@
         <v>1022.07424144512</v>
       </c>
       <c r="M55" s="31">
-        <v>3690.9556575131701</v>
-      </c>
-      <c r="N55" s="25">
-        <v>996.47851443144896</v>
+        <v>3605.9230414451199</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3850,8 +3850,8 @@
       <c r="B56" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="28">
-        <v>0.72136063330124001</v>
+      <c r="C56" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="28">
         <v>11.5424305059795</v>
@@ -3863,13 +3863,13 @@
         <v>2.3905179329539901</v>
       </c>
       <c r="G56" s="29">
-        <v>20.208458322766401</v>
-      </c>
-      <c r="H56" s="22">
-        <v>13.422807452540299</v>
-      </c>
-      <c r="I56" s="30">
-        <v>93.141545819450002</v>
+        <v>19.487097689465202</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J56" s="30">
         <v>1490.35</v>
@@ -3881,10 +3881,10 @@
         <v>308.66188880516398</v>
       </c>
       <c r="M56" s="31">
-        <v>2609.3010346246101</v>
-      </c>
-      <c r="N56" s="25">
-        <v>1733.1428659267301</v>
+        <v>2516.15948880516</v>
+      </c>
+      <c r="N56" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3894,8 +3894,8 @@
       <c r="B57" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="13">
-        <v>1.0203169293521599</v>
+      <c r="C57" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D57" s="13">
         <v>0.78490507266472997</v>
@@ -3907,13 +3907,13 @@
         <v>5.3131434581323997</v>
       </c>
       <c r="G57" s="14">
-        <v>7.6327584306493996</v>
-      </c>
-      <c r="H57" s="48">
-        <v>13.776079583564901</v>
-      </c>
-      <c r="I57" s="16">
-        <v>4572.2486284425704</v>
+        <v>6.6124415012972397</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J57" s="16">
         <v>3517.32</v>
@@ -3925,10 +3925,10 @@
         <v>23809.281401014501</v>
       </c>
       <c r="M57" s="17">
-        <v>34203.950029457003</v>
-      </c>
-      <c r="N57" s="49">
-        <v>61733.427300146701</v>
+        <v>29631.701401014499</v>
+      </c>
+      <c r="N57" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3938,26 +3938,26 @@
       <c r="B58" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="28">
-        <v>-0.82601706877509995</v>
+      <c r="C58" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D58" s="28">
-        <v>6.1949949692863404</v>
+        <v>6.1690486165304499</v>
       </c>
       <c r="E58" s="28">
-        <v>4.5713895371919602</v>
+        <v>4.5522432931506698</v>
       </c>
       <c r="F58" s="28">
-        <v>10.821572018060399</v>
+        <v>10.776248280697301</v>
       </c>
       <c r="G58" s="29">
-        <v>20.761939455763599</v>
-      </c>
-      <c r="H58" s="22">
-        <v>14.250260562663099</v>
-      </c>
-      <c r="I58" s="30">
-        <v>-192.52146792306999</v>
+        <v>21.497540190378398</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J58" s="30">
         <v>1443.88</v>
@@ -3969,10 +3969,10 @@
         <v>2522.2056648799999</v>
       </c>
       <c r="M58" s="31">
-        <v>4839.0271969569303</v>
-      </c>
-      <c r="N58" s="25">
-        <v>3321.3370346914598</v>
+        <v>5031.5486648799997</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3982,26 +3982,26 @@
       <c r="B59" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="28">
-        <v>0</v>
+      <c r="C59" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D59" s="28">
-        <v>14.436865253620301</v>
+        <v>14.596778531022499</v>
       </c>
       <c r="E59" s="28">
-        <v>8.9271413859750393</v>
+        <v>9.0260249324918593</v>
       </c>
       <c r="F59" s="28">
-        <v>1.2862734885057301</v>
+        <v>1.3005211943316699</v>
       </c>
       <c r="G59" s="29">
-        <v>24.650280128101102</v>
-      </c>
-      <c r="H59" s="22">
-        <v>3.9591943567040602</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
+        <v>24.923324657845999</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="J59" s="30">
         <v>594.64</v>
@@ -4015,8 +4015,8 @@
       <c r="M59" s="31">
         <v>1015.3203148930299</v>
       </c>
-      <c r="N59" s="25">
-        <v>163.07524458470101</v>
+      <c r="N59" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4026,8 +4026,8 @@
       <c r="B60" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="20">
-        <v>1.4241233979556001</v>
+      <c r="C60" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D60" s="20">
         <v>5.7005541963069204</v>
@@ -4039,13 +4039,13 @@
         <v>6.3494988300766302</v>
       </c>
       <c r="G60" s="21">
-        <v>18.261758378570502</v>
-      </c>
-      <c r="H60" s="22">
-        <v>11.8485822149408</v>
-      </c>
-      <c r="I60" s="23">
-        <v>102.83169896819</v>
+        <v>16.837634980614901</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J60" s="23">
         <v>411.62</v>
@@ -4057,10 +4057,10 @@
         <v>458.47835463600001</v>
       </c>
       <c r="M60" s="24">
-        <v>1318.62705360419</v>
-      </c>
-      <c r="N60" s="25">
-        <v>855.55074881553696</v>
+        <v>1215.795354636</v>
+      </c>
+      <c r="N60" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4069,22 +4069,22 @@
         <v>129</v>
       </c>
       <c r="C61" s="41">
-        <v>1.1830265203841199</v>
+        <v>1.1830296842650401</v>
       </c>
       <c r="D61" s="41">
-        <v>2.2373504009331202</v>
+        <v>2.2378152180989601</v>
       </c>
       <c r="E61" s="41">
-        <v>1.6507471681385899</v>
+        <v>1.65096646373927</v>
       </c>
       <c r="F61" s="41">
-        <v>4.8634972312598501</v>
+        <v>4.8625648236843997</v>
       </c>
       <c r="G61" s="42">
-        <v>9.9346213207156904</v>
+        <v>9.9343761897876703</v>
       </c>
       <c r="H61" s="51">
-        <v>13.9872731476804</v>
+        <v>13.985831057426999</v>
       </c>
       <c r="I61" s="44">
         <v>7938.9425065769601</v>
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="C62" s="55">
-        <v>0.79357782896035001</v>
+        <v>0.79241893938462005</v>
       </c>
       <c r="D62" s="55">
-        <v>2.13234881763701</v>
+        <v>2.1147554554077499</v>
       </c>
       <c r="E62" s="55">
-        <v>2.0150151546697601</v>
+        <v>2.0110369460530499</v>
       </c>
       <c r="F62" s="55">
-        <v>3.8637147159830301</v>
+        <v>3.8449239561059598</v>
       </c>
       <c r="G62" s="56">
-        <v>8.8046565172501499</v>
+        <v>8.7631352969513792</v>
       </c>
       <c r="H62" s="57">
-        <v>18.534169083317799</v>
+        <v>18.495851116046801</v>
       </c>
       <c r="I62" s="58">
         <v>19679.471359576299</v>
@@ -4144,7 +4144,7 @@
         <v>206049.870803584</v>
       </c>
       <c r="N62" s="60">
-        <v>437033.80726797698</v>
+        <v>437040.46565943002</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4153,22 +4153,22 @@
         <v>131</v>
       </c>
       <c r="C63" s="55">
-        <v>1.12201294321348</v>
+        <v>1.12185993528426</v>
       </c>
       <c r="D63" s="55">
-        <v>0.23518492474538999</v>
+        <v>0.23403329776085</v>
       </c>
       <c r="E63" s="55">
-        <v>1.77818675734311</v>
+        <v>1.7739128041614201</v>
       </c>
       <c r="F63" s="55">
-        <v>1.1735331415294099</v>
+        <v>1.1713614587413601</v>
       </c>
       <c r="G63" s="56">
-        <v>4.3089177668313798</v>
+        <v>4.3011674959478903</v>
       </c>
       <c r="H63" s="57">
-        <v>22.806622585410999</v>
+        <v>22.7491711374938</v>
       </c>
       <c r="I63" s="58">
         <v>1121488.6716590701</v>
@@ -4186,7 +4186,7 @@
         <v>3199582.4404789498</v>
       </c>
       <c r="N63" s="60">
-        <v>15317302.426020799</v>
+        <v>15317227.4004735</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -4195,22 +4195,22 @@
         <v>132</v>
       </c>
       <c r="C64" s="63">
-        <v>0.21506814439003999</v>
+        <v>0.21509421210766</v>
       </c>
       <c r="D64" s="63">
-        <v>0.16348100047585001</v>
+        <v>0.16355106304767</v>
       </c>
       <c r="E64" s="63">
-        <v>3.05138009334458</v>
+        <v>3.0538820205102701</v>
       </c>
       <c r="F64" s="63">
-        <v>2.0313152144367899</v>
+        <v>2.0324363601379898</v>
       </c>
       <c r="G64" s="64">
-        <v>5.4612444526472697</v>
+        <v>5.4649636558035901</v>
       </c>
       <c r="H64" s="65">
-        <v>19.3666831859368</v>
+        <v>19.383164708622999</v>
       </c>
       <c r="I64" s="66">
         <v>11880.280384235801</v>
@@ -4228,7 +4228,7 @@
         <v>278515.880422913</v>
       </c>
       <c r="N64" s="68">
-        <v>906819.14354008203</v>
+        <v>906702.45755841804</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -4237,22 +4237,22 @@
         <v>133</v>
       </c>
       <c r="C65" s="70">
-        <v>0.69234245083079005</v>
+        <v>0.68757271900253003</v>
       </c>
       <c r="D65" s="70">
-        <v>0.23401188581313001</v>
+        <v>0.23251086070181001</v>
       </c>
       <c r="E65" s="70">
-        <v>1.4019652780790599</v>
+        <v>1.3958398723113801</v>
       </c>
       <c r="F65" s="70">
-        <v>1.95235283724284</v>
+        <v>1.94267361694262</v>
       </c>
       <c r="G65" s="71">
-        <v>4.2806724519658301</v>
+        <v>4.2585970689583501</v>
       </c>
       <c r="H65" s="72">
-        <v>25.696978219246599</v>
+        <v>25.498781220757198</v>
       </c>
       <c r="I65" s="73">
         <v>171122.56823946201</v>
@@ -4270,7 +4270,7 @@
         <v>802572.34032370197</v>
       </c>
       <c r="N65" s="75">
-        <v>1872598.6671088401</v>
+        <v>1872623.70330718</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4279,22 +4279,22 @@
         <v>134</v>
       </c>
       <c r="C66" s="77">
-        <v>1.1057686150960999</v>
+        <v>1.1055807542681499</v>
       </c>
       <c r="D66" s="77">
-        <v>0.42745683612655</v>
+        <v>0.42416101982753002</v>
       </c>
       <c r="E66" s="77">
-        <v>1.7898399811285</v>
+        <v>1.7855762961953701</v>
       </c>
       <c r="F66" s="77">
-        <v>1.3101562811941601</v>
+        <v>1.3070783411226501</v>
       </c>
       <c r="G66" s="78">
-        <v>4.6332217135453098</v>
+        <v>4.6223964114137104</v>
       </c>
       <c r="H66" s="79">
-        <v>22.545146023328801</v>
+        <v>22.4892222503582</v>
       </c>
       <c r="I66" s="80">
         <v>1141168.1430186499</v>
@@ -4312,7 +4312,7 @@
         <v>3405632.3112825402</v>
       </c>
       <c r="N66" s="82">
-        <v>15754336.2332888</v>
+        <v>15754267.8661329</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4321,22 +4321,22 @@
         <v>135</v>
       </c>
       <c r="C67" s="70">
-        <v>0.49218781637621001</v>
+        <v>0.49158138890384001</v>
       </c>
       <c r="D67" s="70">
-        <v>2.8703469229275602</v>
+        <v>2.8465454194775899</v>
       </c>
       <c r="E67" s="70">
-        <v>2.76676526599329</v>
+        <v>2.7487447972122001</v>
       </c>
       <c r="F67" s="70">
-        <v>5.5190323180792502</v>
+        <v>5.4753516717806203</v>
       </c>
       <c r="G67" s="71">
-        <v>11.6483323233763</v>
+        <v>11.562223277374301</v>
       </c>
       <c r="H67" s="72">
-        <v>17.821605819033699</v>
+        <v>17.7477599377535</v>
       </c>
       <c r="I67" s="73">
         <v>2957.4889624047</v>
@@ -4354,7 +4354,7 @@
         <v>89106.333871102295</v>
       </c>
       <c r="N67" s="75">
-        <v>130967.905983239</v>
+        <v>130974.16398180299</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -4363,22 +4363,22 @@
         <v>136</v>
       </c>
       <c r="C68" s="70">
-        <v>0.97542474683769997</v>
+        <v>0.97180374822116999</v>
       </c>
       <c r="D68" s="70">
-        <v>1.87454858471509</v>
+        <v>1.8699638384019299</v>
       </c>
       <c r="E68" s="70">
-        <v>2.2693736274977998</v>
+        <v>2.2614170120521999</v>
       </c>
       <c r="F68" s="70">
-        <v>5.9895138460705004</v>
+        <v>5.9622764386210898</v>
       </c>
       <c r="G68" s="71">
-        <v>11.1088608051211</v>
+        <v>11.0654610372964</v>
       </c>
       <c r="H68" s="72">
-        <v>16.633899421476102</v>
+        <v>16.587073622561899</v>
       </c>
       <c r="I68" s="73">
         <v>12085.8164218361</v>
@@ -4405,22 +4405,22 @@
         <v>137</v>
       </c>
       <c r="C69" s="70">
-        <v>0.41987584836414998</v>
+        <v>0.41978598633817998</v>
       </c>
       <c r="D69" s="70">
-        <v>5.2326517788844997</v>
+        <v>5.1143522853973504</v>
       </c>
       <c r="E69" s="70">
-        <v>1.6459725212001299</v>
+        <v>1.6589667242314901</v>
       </c>
       <c r="F69" s="70">
-        <v>2.6175603885329299</v>
+        <v>2.5727567950750299</v>
       </c>
       <c r="G69" s="71">
-        <v>9.9160605369816999</v>
+        <v>9.76586179104204</v>
       </c>
       <c r="H69" s="72">
-        <v>16.453583543792401</v>
+        <v>16.425040039170401</v>
       </c>
       <c r="I69" s="73">
         <v>962.49291228279003</v>
@@ -4438,7 +4438,7 @@
         <v>21308.098595031399</v>
       </c>
       <c r="N69" s="75">
-        <v>35783.376542998099</v>
+        <v>35789.6345415619</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4447,22 +4447,22 @@
         <v>138</v>
       </c>
       <c r="C70" s="70">
-        <v>0.61621084712303997</v>
+        <v>0.61277385658935002</v>
       </c>
       <c r="D70" s="70">
-        <v>3.2687796163423801</v>
+        <v>3.2600005412368702</v>
       </c>
       <c r="E70" s="70">
-        <v>1.4030351277102699</v>
+        <v>1.40390968385223</v>
       </c>
       <c r="F70" s="70">
-        <v>1.0817574556216001</v>
+        <v>1.0784048642970401</v>
       </c>
       <c r="G70" s="71">
-        <v>6.3697830467972798</v>
+        <v>6.3550889459755</v>
       </c>
       <c r="H70" s="72">
-        <v>20.350660477062</v>
+        <v>20.2817784550762</v>
       </c>
       <c r="I70" s="73">
         <v>1343.7212340460901</v>
@@ -4489,22 +4489,22 @@
         <v>139</v>
       </c>
       <c r="C71" s="70">
-        <v>1.1830265203841199</v>
+        <v>1.1830296842650401</v>
       </c>
       <c r="D71" s="70">
-        <v>2.2373504009331202</v>
+        <v>2.2378152180989601</v>
       </c>
       <c r="E71" s="70">
-        <v>1.6507471681385899</v>
+        <v>1.65096646373927</v>
       </c>
       <c r="F71" s="70">
-        <v>4.8634972312598501</v>
+        <v>4.8625648236843997</v>
       </c>
       <c r="G71" s="71">
-        <v>9.9346213207156904</v>
+        <v>9.9343761897876703</v>
       </c>
       <c r="H71" s="72">
-        <v>13.9872731476804</v>
+        <v>13.985831057426999</v>
       </c>
       <c r="I71" s="73">
         <v>7938.9425065769601</v>
@@ -4531,22 +4531,22 @@
         <v>140</v>
       </c>
       <c r="C72" s="70">
-        <v>0.28076752555980999</v>
+        <v>0.27923853081185002</v>
       </c>
       <c r="D72" s="70">
-        <v>5.6961038275658797</v>
+        <v>5.5804233886152801</v>
       </c>
       <c r="E72" s="70">
-        <v>2.2998092022037802</v>
+        <v>2.2973873211522799</v>
       </c>
       <c r="F72" s="70">
-        <v>2.5710210052555098</v>
+        <v>2.51786779641693</v>
       </c>
       <c r="G72" s="71">
-        <v>10.847701560585</v>
+        <v>10.6749170369963</v>
       </c>
       <c r="H72" s="72">
-        <v>18.253196549002901</v>
+        <v>18.203766840756099</v>
       </c>
       <c r="I72" s="73">
         <v>953.23837003057997</v>
@@ -4564,7 +4564,7 @@
         <v>30947.335781056299</v>
       </c>
       <c r="N72" s="75">
-        <v>50583.340829737601</v>
+        <v>50589.598828301299</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4573,22 +4573,22 @@
         <v>141</v>
       </c>
       <c r="C73" s="70">
-        <v>0.91317766677150003</v>
+        <v>0.91632422339062003</v>
       </c>
       <c r="D73" s="70">
-        <v>1.83861573871914</v>
+        <v>1.82108371920755</v>
       </c>
       <c r="E73" s="70">
-        <v>1.0500792640189001</v>
+        <v>1.0455726066393001</v>
       </c>
       <c r="F73" s="70">
-        <v>0.88988022649554999</v>
+        <v>0.87215883530743998</v>
       </c>
       <c r="G73" s="71">
-        <v>4.6917528960050898</v>
+        <v>4.6551393845449001</v>
       </c>
       <c r="H73" s="72">
-        <v>17.534317612089399</v>
+        <v>17.526189268699401</v>
       </c>
       <c r="I73" s="73">
         <v>6617.8015402979499</v>
@@ -4606,7 +4606,7 @@
         <v>32897.966962623199</v>
       </c>
       <c r="N73" s="75">
-        <v>118435.493340406</v>
+        <v>118435.893733294</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4615,22 +4615,22 @@
         <v>141</v>
       </c>
       <c r="C74" s="70">
-        <v>0.26110623859324</v>
+        <v>0.25868883723539998</v>
       </c>
       <c r="D74" s="70">
-        <v>0.73015247780480996</v>
+        <v>0.72452229054404005</v>
       </c>
       <c r="E74" s="70">
-        <v>1.4531402922319501</v>
+        <v>1.44029455566938</v>
       </c>
       <c r="F74" s="70">
-        <v>2.77016411854407</v>
+        <v>2.7480683783913098</v>
       </c>
       <c r="G74" s="71">
-        <v>5.2145631271740696</v>
+        <v>5.17157406184013</v>
       </c>
       <c r="H74" s="72">
-        <v>28.382316031235401</v>
+        <v>28.125052164348801</v>
       </c>
       <c r="I74" s="73">
         <v>1062.9739152591801</v>
@@ -4657,22 +4657,22 @@
         <v>142</v>
       </c>
       <c r="C75" s="77">
-        <v>1.3393635937305199</v>
+        <v>1.3391520300959801</v>
       </c>
       <c r="D75" s="77">
-        <v>2.0486926704432098</v>
+        <v>2.0505465506955498</v>
       </c>
       <c r="E75" s="77">
-        <v>-1.1353316870051</v>
+        <v>-1.1318717732585</v>
       </c>
       <c r="F75" s="77">
-        <v>0.59348263083365005</v>
+        <v>0.59403169986197002</v>
       </c>
       <c r="G75" s="78">
-        <v>2.84620720800228</v>
+        <v>2.8518585073949598</v>
       </c>
       <c r="H75" s="72">
-        <v>24.1846018878589</v>
+        <v>24.179083294517199</v>
       </c>
       <c r="I75" s="80">
         <v>1497.98466350942</v>
@@ -4699,22 +4699,22 @@
         <v>143</v>
       </c>
       <c r="C76" s="70">
-        <v>0.78106470055210997</v>
+        <v>0.78154596910755003</v>
       </c>
       <c r="D76" s="70">
-        <v>0.19775917750699001</v>
+        <v>0.19776374280405001</v>
       </c>
       <c r="E76" s="70">
-        <v>4.3174192210340401</v>
+        <v>4.3095030830895196</v>
       </c>
       <c r="F76" s="70">
-        <v>2.55228821000274</v>
+        <v>2.5526884466376401</v>
       </c>
       <c r="G76" s="71">
-        <v>7.8485313090958799</v>
+        <v>7.8415012416387597</v>
       </c>
       <c r="H76" s="65">
-        <v>25.991692190478499</v>
+        <v>25.984597535893599</v>
       </c>
       <c r="I76" s="73">
         <v>20645.130234746499</v>
@@ -4732,7 +4732,7 @@
         <v>284227.099111958</v>
       </c>
       <c r="N76" s="68">
-        <v>847432.51502308296</v>
+        <v>847456.61263042397</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4741,22 +4741,22 @@
         <v>144</v>
       </c>
       <c r="C77" s="70">
-        <v>-0.3776072329895</v>
+        <v>-0.37818536044090001</v>
       </c>
       <c r="D77" s="70">
-        <v>0.1299072485511</v>
+        <v>0.1300538963841</v>
       </c>
       <c r="E77" s="70">
-        <v>3.1528566923011798</v>
+        <v>3.15824988126599</v>
       </c>
       <c r="F77" s="70">
-        <v>0.63460688313602998</v>
+        <v>0.63539632225391995</v>
       </c>
       <c r="G77" s="71">
-        <v>3.5397635909988101</v>
+        <v>3.5455147394631399</v>
       </c>
       <c r="H77" s="72">
-        <v>18.781316966006798</v>
+        <v>18.8167959404465</v>
       </c>
       <c r="I77" s="73">
         <v>-10905.005920527999</v>
@@ -4774,7 +4774,7 @@
         <v>125142.67341425399</v>
       </c>
       <c r="N77" s="75">
-        <v>565148.81060997501</v>
+        <v>565032.12462831195</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4783,28 +4783,28 @@
         <v>144</v>
       </c>
       <c r="C78" s="70">
-        <v>1.5102225738666699</v>
+        <v>1.53144772785362</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E78" s="70">
-        <v>2.38247291366558</v>
+        <v>2.3831121168087499</v>
       </c>
       <c r="F78" s="70">
-        <v>0.93727853170999997</v>
+        <v>0.93661351037026996</v>
       </c>
       <c r="G78" s="71" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H78" s="72">
-        <v>21.823036324866301</v>
+        <v>21.804267138238501</v>
       </c>
       <c r="I78" s="73">
         <v>280276.983037194</v>
       </c>
       <c r="J78" s="73" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K78" s="73">
         <v>380280.82140000002</v>
@@ -4813,7 +4813,7 @@
         <v>132031.16708863701</v>
       </c>
       <c r="M78" s="74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N78" s="75">
         <v>3456996.2846801998</v>
@@ -4825,22 +4825,22 @@
         <v>145</v>
       </c>
       <c r="C79" s="77">
-        <v>1.60061151866394</v>
+        <v>1.6069487756023699</v>
       </c>
       <c r="D79" s="77">
-        <v>0.10112086865701</v>
+        <v>0.10112923023460001</v>
       </c>
       <c r="E79" s="77">
-        <v>1.55927192285976</v>
+        <v>1.55918305379276</v>
       </c>
       <c r="F79" s="77">
-        <v>0.47074398883083002</v>
+        <v>0.47036172771064999</v>
       </c>
       <c r="G79" s="78">
-        <v>3.73174829901154</v>
+        <v>3.7376227873403902</v>
       </c>
       <c r="H79" s="79">
-        <v>21.7372473253062</v>
+        <v>21.7190629386076</v>
       </c>
       <c r="I79" s="80">
         <v>914898.79724921996</v>
@@ -4858,7 +4858,7 @@
         <v>1909482.0962742099</v>
       </c>
       <c r="N79" s="82">
-        <v>11717410.600135099</v>
+        <v>11717424.2152489</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4867,22 +4867,22 @@
         <v>146</v>
       </c>
       <c r="C80" s="70">
-        <v>0.74162162809062004</v>
+        <v>0.74145484148047003</v>
       </c>
       <c r="D80" s="70">
-        <v>0.66534999444084997</v>
+        <v>0.66536065301644998</v>
       </c>
       <c r="E80" s="70">
-        <v>0.79413699461640996</v>
+        <v>0.79486184963326001</v>
       </c>
       <c r="F80" s="70">
-        <v>3.10720413553743</v>
+        <v>3.1074270536315902</v>
       </c>
       <c r="G80" s="71">
-        <v>5.3083127526853104</v>
+        <v>5.3091043977617698</v>
       </c>
       <c r="H80" s="72">
-        <v>21.2864253691023</v>
+        <v>21.283630762951901</v>
       </c>
       <c r="I80" s="73">
         <v>5893.8635852614198</v>
@@ -4909,22 +4909,22 @@
         <v>147</v>
       </c>
       <c r="C81" s="70">
-        <v>0.82844879838327001</v>
+        <v>0.80193227196772998</v>
       </c>
       <c r="D81" s="70">
-        <v>0.87194074225667995</v>
+        <v>0.81150569763876002</v>
       </c>
       <c r="E81" s="70">
-        <v>1.51430795552121</v>
+        <v>1.4797834275595301</v>
       </c>
       <c r="F81" s="70">
-        <v>0.87051357779718996</v>
+        <v>0.85005285140255005</v>
       </c>
       <c r="G81" s="71">
-        <v>4.0852110739583498</v>
+        <v>3.9432742485685601</v>
       </c>
       <c r="H81" s="72">
-        <v>23.754741939761999</v>
+        <v>23.287634759236798</v>
       </c>
       <c r="I81" s="73">
         <v>40592.658010597297</v>
@@ -4951,22 +4951,22 @@
         <v>148</v>
       </c>
       <c r="C82" s="70">
-        <v>0.81549128344822996</v>
+        <v>0.81384239713941997</v>
       </c>
       <c r="D82" s="70">
-        <v>2.77234519847342</v>
+        <v>2.7445144783124902</v>
       </c>
       <c r="E82" s="70">
-        <v>2.5332778061263901</v>
+        <v>2.5251512452959499</v>
       </c>
       <c r="F82" s="70">
-        <v>4.1900960832268899</v>
+        <v>4.1618043989260496</v>
       </c>
       <c r="G82" s="71">
-        <v>10.3112103712749</v>
+        <v>10.245312519673901</v>
       </c>
       <c r="H82" s="72">
-        <v>17.3752005308923</v>
+        <v>17.326144697179199</v>
       </c>
       <c r="I82" s="73">
         <v>13785.6077743149</v>
@@ -4984,7 +4984,7 @@
         <v>161027.10430472699</v>
       </c>
       <c r="N82" s="75">
-        <v>281306.33776189899</v>
+        <v>281312.99615335098</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4993,22 +4993,22 @@
         <v>149</v>
       </c>
       <c r="C83" s="77">
-        <v>1.148165577284</v>
+        <v>1.1509876679223301</v>
       </c>
       <c r="D83" s="77">
-        <v>0.20055987039461001</v>
+        <v>0.20031616886572001</v>
       </c>
       <c r="E83" s="77">
-        <v>1.80167209924521</v>
+        <v>1.8006654730242</v>
       </c>
       <c r="F83" s="77">
-        <v>1.19846177998485</v>
+        <v>1.1984264744669799</v>
       </c>
       <c r="G83" s="78">
-        <v>4.3488593269086699</v>
+        <v>4.35039578427922</v>
       </c>
       <c r="H83" s="79">
-        <v>22.702267793049799</v>
+        <v>22.688669841577799</v>
       </c>
       <c r="I83" s="80">
         <v>1080896.0136484699</v>
@@ -5026,7 +5026,7 @@
         <v>3054216.8237807099</v>
       </c>
       <c r="N83" s="82">
-        <v>14222469.1333225</v>
+        <v>14222394.1077752</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -5035,22 +5035,22 @@
         <v>150</v>
       </c>
       <c r="C84" s="70">
-        <v>0.14731706383679</v>
+        <v>0.1467367670302</v>
       </c>
       <c r="D84" s="70">
-        <v>7.7094416567510802</v>
+        <v>7.6057126633350203</v>
       </c>
       <c r="E84" s="70">
-        <v>3.58258407273614</v>
+        <v>3.5709401873205402</v>
       </c>
       <c r="F84" s="70">
-        <v>2.8613099165496898</v>
+        <v>2.8179278503595602</v>
       </c>
       <c r="G84" s="71">
-        <v>14.300652709873701</v>
+        <v>14.141317468045299</v>
       </c>
       <c r="H84" s="83">
-        <v>14.570578621460999</v>
+        <v>14.545976018684399</v>
       </c>
       <c r="I84" s="73">
         <v>568.79580353596998</v>
@@ -5119,22 +5119,22 @@
         <v>152</v>
       </c>
       <c r="C86" s="70">
-        <v>0.86063076878341005</v>
+        <v>0.85958401553848995</v>
       </c>
       <c r="D86" s="70">
-        <v>1.2382560353426599</v>
+        <v>1.2292720756468301</v>
       </c>
       <c r="E86" s="70">
-        <v>1.7593481392610599</v>
+        <v>1.7541526583074301</v>
       </c>
       <c r="F86" s="70">
-        <v>4.9665687245762298</v>
+        <v>4.9485648841938197</v>
       </c>
       <c r="G86" s="71">
-        <v>8.8248036679633604</v>
+        <v>8.7915736336865695</v>
       </c>
       <c r="H86" s="72">
-        <v>20.592023966634098</v>
+        <v>20.5418419696123</v>
       </c>
       <c r="I86" s="73">
         <v>13828.945869728401</v>
@@ -5152,7 +5152,7 @@
         <v>136528.92254982999</v>
       </c>
       <c r="N86" s="75">
-        <v>322780.20218195103</v>
+        <v>322786.46018051502</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5161,22 +5161,22 @@
         <v>153</v>
       </c>
       <c r="C87" s="70">
-        <v>0.49460145690705998</v>
+        <v>0.48713507441137999</v>
       </c>
       <c r="D87" s="70">
-        <v>0.37537520095829002</v>
+        <v>0.36949120653204998</v>
       </c>
       <c r="E87" s="70">
-        <v>2.0086775699368302</v>
+        <v>1.9853197939537699</v>
       </c>
       <c r="F87" s="70">
-        <v>4.1160433623104602</v>
+        <v>4.0594084784762998</v>
       </c>
       <c r="G87" s="71">
-        <v>6.99469759011264</v>
+        <v>6.9013545533735003</v>
       </c>
       <c r="H87" s="72">
-        <v>26.332124491174</v>
+        <v>26.101164448574</v>
       </c>
       <c r="I87" s="73">
         <v>32562.187641498302</v>
@@ -5194,7 +5194,7 @@
         <v>438212.81610756199</v>
       </c>
       <c r="N87" s="75">
-        <v>1678856.6949416799</v>
+        <v>1678912.81092171</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5203,22 +5203,22 @@
         <v>154</v>
       </c>
       <c r="C88" s="70">
-        <v>1.15276657334873</v>
+        <v>1.15273708317904</v>
       </c>
       <c r="D88" s="70">
-        <v>0.34546454014147998</v>
+        <v>0.34546762404951997</v>
       </c>
       <c r="E88" s="70">
-        <v>1.6210443703992701</v>
+        <v>1.6208211728775599</v>
       </c>
       <c r="F88" s="70">
-        <v>0.26586663073564998</v>
+        <v>0.26584751062095002</v>
       </c>
       <c r="G88" s="71">
-        <v>3.3851421146251401</v>
+        <v>3.3848733907270798</v>
       </c>
       <c r="H88" s="72">
-        <v>13.4257241782189</v>
+        <v>13.423594961276899</v>
       </c>
       <c r="I88" s="73">
         <v>5299.3890887343396</v>
@@ -5236,7 +5236,7 @@
         <v>15865.0474358763</v>
       </c>
       <c r="N88" s="75">
-        <v>61783.933287964901</v>
+        <v>61784.3336808534</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -5245,22 +5245,22 @@
         <v>155</v>
       </c>
       <c r="C89" s="70">
-        <v>0.65727070018221001</v>
+        <v>0.65710089460246002</v>
       </c>
       <c r="D89" s="70">
-        <v>8.2746184609090001E-2</v>
+        <v>8.2909284874980005E-2</v>
       </c>
       <c r="E89" s="70">
-        <v>1.61303136292829</v>
+        <v>1.61250331323854</v>
       </c>
       <c r="F89" s="70">
-        <v>0.97749456887744002</v>
+        <v>0.97768714289214997</v>
       </c>
       <c r="G89" s="71">
-        <v>3.3305428165970299</v>
+        <v>3.3302006356081302</v>
       </c>
       <c r="H89" s="72">
-        <v>20.972602576088299</v>
+        <v>20.962582030353001</v>
       </c>
       <c r="I89" s="73">
         <v>165490.406226658</v>
@@ -5278,7 +5278,7 @@
         <v>752440.95006899</v>
       </c>
       <c r="N89" s="75">
-        <v>1764793.7311418001</v>
+        <v>1764762.6513600999</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5287,22 +5287,22 @@
         <v>156</v>
       </c>
       <c r="C90" s="77">
-        <v>1.66441078195975</v>
+        <v>1.6694303285346299</v>
       </c>
       <c r="D90" s="77">
-        <v>4.53201276581978</v>
+        <v>4.5121901163118796</v>
       </c>
       <c r="E90" s="77">
-        <v>1.8288838308617099</v>
+        <v>1.8269563391645101</v>
       </c>
       <c r="F90" s="77">
-        <v>0.34571520565504998</v>
+        <v>0.34535518810215998</v>
       </c>
       <c r="G90" s="78">
-        <v>8.3710225842962895</v>
+        <v>8.3539319721131804</v>
       </c>
       <c r="H90" s="72">
-        <v>22.271608502217301</v>
+        <v>22.238130282636799</v>
       </c>
       <c r="I90" s="80">
         <v>923449.05741954094</v>
@@ -5320,7 +5320,7 @@
         <v>1988003.9868062199</v>
       </c>
       <c r="N90" s="75">
-        <v>11869389.533088701</v>
+        <v>11869289.471342999</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5329,22 +5329,22 @@
         <v>157</v>
       </c>
       <c r="C91" s="70">
-        <v>0.36196856666851002</v>
+        <v>0.36085372893533002</v>
       </c>
       <c r="D91" s="70">
-        <v>5.9761227379943804</v>
+        <v>5.9165438202817997</v>
       </c>
       <c r="E91" s="70">
-        <v>2.2575403090133799</v>
+        <v>2.2574136615582701</v>
       </c>
       <c r="F91" s="70">
-        <v>2.4716066101418401</v>
+        <v>2.4439167732156699</v>
       </c>
       <c r="G91" s="71">
-        <v>11.0672382238181</v>
+        <v>10.978727983991099</v>
       </c>
       <c r="H91" s="65">
-        <v>19.025665266851099</v>
+        <v>18.991470720005001</v>
       </c>
       <c r="I91" s="73">
         <v>2155.0546739144002</v>
@@ -5371,22 +5371,22 @@
         <v>158</v>
       </c>
       <c r="C92" s="70">
-        <v>-6.9535618457900003E-2</v>
+        <v>-7.0143719485400005E-2</v>
       </c>
       <c r="D92" s="70">
-        <v>4.1142182084950703</v>
+        <v>4.1143298087635696</v>
       </c>
       <c r="E92" s="70">
-        <v>1.9567550851314199</v>
+        <v>1.9563199007940899</v>
       </c>
       <c r="F92" s="70">
-        <v>7.0976380768325704</v>
+        <v>7.0954797557840399</v>
       </c>
       <c r="G92" s="71">
-        <v>13.0990757520012</v>
+        <v>13.0959857458563</v>
       </c>
       <c r="H92" s="72">
-        <v>28.033188605851301</v>
+        <v>28.0331889874425</v>
       </c>
       <c r="I92" s="73">
         <v>-482.8860273889</v>
@@ -5404,7 +5404,7 @@
         <v>64308.124022095799</v>
       </c>
       <c r="N92" s="75">
-        <v>136466.44737246999</v>
+        <v>136518.864930068</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5413,22 +5413,22 @@
         <v>159</v>
       </c>
       <c r="C93" s="70">
-        <v>-4.3977685403304001</v>
+        <v>-4.3792122088022003</v>
       </c>
       <c r="D93" s="70">
-        <v>2.3933410997734099</v>
+        <v>2.3933824403575601</v>
       </c>
       <c r="E93" s="70">
-        <v>3.91630051911417</v>
+        <v>3.8992528354326499</v>
       </c>
       <c r="F93" s="70">
-        <v>4.6132630985879404</v>
+        <v>4.5955340808467602</v>
       </c>
       <c r="G93" s="71">
-        <v>6.5251361771451499</v>
+        <v>6.5089571478347601</v>
       </c>
       <c r="H93" s="72">
-        <v>15.93727665091</v>
+        <v>15.875849759490499</v>
       </c>
       <c r="I93" s="73">
         <v>-836.33440112436006</v>
@@ -5455,22 +5455,22 @@
         <v>160</v>
       </c>
       <c r="C94" s="70">
-        <v>0.46117144283548001</v>
+        <v>0.46100737771733002</v>
       </c>
       <c r="D94" s="70">
-        <v>1.58600897698424</v>
+        <v>1.58534449430291</v>
       </c>
       <c r="E94" s="70">
-        <v>17.978136196995401</v>
+        <v>17.903538753224201</v>
       </c>
       <c r="F94" s="70">
-        <v>3.3170650462326798</v>
+        <v>3.3162327723480201</v>
       </c>
       <c r="G94" s="71">
-        <v>23.342381663047799</v>
+        <v>23.266123397592398</v>
       </c>
       <c r="H94" s="72">
-        <v>30.708548968423699</v>
+        <v>30.583249326734901</v>
       </c>
       <c r="I94" s="73">
         <v>1769.2229921723499</v>
@@ -5488,7 +5488,7 @@
         <v>144157.747562959</v>
       </c>
       <c r="N94" s="75">
-        <v>182561.65224623901</v>
+        <v>182564.66136845</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5497,22 +5497,22 @@
         <v>161</v>
       </c>
       <c r="C95" s="70">
-        <v>6.6279299444629999E-2</v>
+        <v>7.2564235729210003E-2</v>
       </c>
       <c r="D95" s="70">
-        <v>6.9811275907478496</v>
+        <v>6.8592266217167799</v>
       </c>
       <c r="E95" s="70">
-        <v>2.87050925894146</v>
+        <v>2.8706501877923101</v>
       </c>
       <c r="F95" s="70">
-        <v>2.2650208914464698</v>
+        <v>2.1945799159330002</v>
       </c>
       <c r="G95" s="71">
-        <v>12.1829370405804</v>
+        <v>11.9970209611713</v>
       </c>
       <c r="H95" s="72">
-        <v>20.030523569692399</v>
+        <v>19.991253670918098</v>
       </c>
       <c r="I95" s="73">
         <v>135.40135860548</v>
@@ -5530,7 +5530,7 @@
         <v>34902.849774048198</v>
       </c>
       <c r="N95" s="75">
-        <v>52887.030881566701</v>
+        <v>52887.431274455201</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5539,22 +5539,22 @@
         <v>162</v>
       </c>
       <c r="C96" s="77">
-        <v>0.22846561889483999</v>
+        <v>0.22622321761777001</v>
       </c>
       <c r="D96" s="77">
-        <v>2.3949690275125799</v>
+        <v>2.3741625658539101</v>
       </c>
       <c r="E96" s="77">
-        <v>2.5569220600381999</v>
+        <v>2.5370008475203001</v>
       </c>
       <c r="F96" s="77">
-        <v>6.64036513389585</v>
+        <v>6.5916217903285501</v>
       </c>
       <c r="G96" s="78">
-        <v>11.8207218403415</v>
+        <v>11.729008421320501</v>
       </c>
       <c r="H96" s="79">
-        <v>21.169163293413298</v>
+        <v>21.136404333789098</v>
       </c>
       <c r="I96" s="80">
         <v>1259.8588102353999</v>
@@ -5581,22 +5581,22 @@
         <v>163</v>
       </c>
       <c r="C97" s="70">
-        <v>0.66107037006956004</v>
+        <v>0.66117817890506003</v>
       </c>
       <c r="D97" s="70">
-        <v>3.4783078366591602</v>
+        <v>3.4440096442950399</v>
       </c>
       <c r="E97" s="70">
-        <v>1.6939897065018801</v>
+        <v>1.69267133384908</v>
       </c>
       <c r="F97" s="70">
-        <v>3.1145972872569399</v>
+        <v>3.0888982672464902</v>
       </c>
       <c r="G97" s="71">
-        <v>8.9479652004875394</v>
+        <v>8.8867574242956699</v>
       </c>
       <c r="H97" s="72">
-        <v>16.6892342636026</v>
+        <v>16.6676078627587</v>
       </c>
       <c r="I97" s="73">
         <v>8281.5362744260092</v>
@@ -5614,7 +5614,7 @@
         <v>111643.109228299</v>
       </c>
       <c r="N97" s="75">
-        <v>197469.29373522801</v>
+        <v>197475.55173379101</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -5623,22 +5623,22 @@
         <v>164</v>
       </c>
       <c r="C98" s="70">
-        <v>-4.6373583112600002E-2</v>
+        <v>-4.1188818013100002E-2</v>
       </c>
       <c r="D98" s="70">
-        <v>1.7198524869638001</v>
+        <v>1.59328460743084</v>
       </c>
       <c r="E98" s="70">
-        <v>0.93003891118707005</v>
+        <v>0.86403567693727001</v>
       </c>
       <c r="F98" s="70">
-        <v>4.8201865730834603</v>
+        <v>4.44555459619228</v>
       </c>
       <c r="G98" s="71">
-        <v>7.4237043881217204</v>
+        <v>6.86168606254728</v>
       </c>
       <c r="H98" s="72">
-        <v>19.5952113881978</v>
+        <v>18.3203811416451</v>
       </c>
       <c r="I98" s="73">
         <v>163.78798435237999</v>
@@ -5656,7 +5656,7 @@
         <v>119647.447137957</v>
       </c>
       <c r="N98" s="75">
-        <v>318468.11554969399</v>
+        <v>318520.53310729202</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5665,22 +5665,22 @@
         <v>165</v>
       </c>
       <c r="C99" s="77">
-        <v>-2.297480173E-4</v>
+        <v>-2.287330447E-4</v>
       </c>
       <c r="D99" s="77">
-        <v>6.6415412692856197</v>
+        <v>6.5393979902950203</v>
       </c>
       <c r="E99" s="77">
-        <v>0.85239104035640001</v>
+        <v>0.86298128608284996</v>
       </c>
       <c r="F99" s="77">
-        <v>2.8458123837190699</v>
+        <v>2.7964570276396201</v>
       </c>
       <c r="G99" s="78">
-        <v>10.339514945343799</v>
+        <v>10.198607570972801</v>
       </c>
       <c r="H99" s="79">
-        <v>9.4169176334640703</v>
+        <v>9.4143137252201008</v>
       </c>
       <c r="I99" s="80">
         <v>-1.3697066905699999</v>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>Source : Comité d'aide au développement de l'OCDE (récupéré 14/09/2021), base de données sur les IDE du Centre de données en ligne UNCTADStat (récupéré le 17/11/2021), données de la Banque mondiale sur la migrations et les remises (mai 2021), base de données des Perspectives de l'économie mondiale du FMI, octobre 2019 (les flux de portefeuille et l'épargne privée brute ne sont pas inclus dans les éditions plus récentes de cet ensemble de données)</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -1522,16 +1522,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="13">
-        <v>5.8616440796980002E-2</v>
+        <v>2.5214298614929999E-2</v>
       </c>
       <c r="E3" s="13">
-        <v>-4.8493805062095996</v>
+        <v>-4.8493790248251001</v>
       </c>
       <c r="F3" s="13">
         <v>4.0767337814000002E-3</v>
       </c>
       <c r="G3" s="14">
-        <v>-4.7866873316312004</v>
+        <v>-4.8200879924287996</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>17</v>
@@ -1540,16 +1540,16 @@
         <v>17</v>
       </c>
       <c r="J3" s="16">
-        <v>49.54</v>
+        <v>21.31</v>
       </c>
       <c r="K3" s="16">
-        <v>-4098.4799999999996</v>
+        <v>-4098.4787480000005</v>
       </c>
       <c r="L3" s="16">
         <v>3.4454734675930099</v>
       </c>
       <c r="M3" s="17">
-        <v>-4045.4945265324</v>
+        <v>-4073.7232745324</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>17</v>
@@ -1566,16 +1566,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="20">
-        <v>0.41243459670086002</v>
+        <v>0.40488787012747002</v>
       </c>
       <c r="E4" s="20">
-        <v>0.56065667891191995</v>
+        <v>0.56065666172215001</v>
       </c>
       <c r="F4" s="20">
         <v>0.32160075955021</v>
       </c>
       <c r="G4" s="21">
-        <v>1.29469203516298</v>
+        <v>1.28714529139984</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>17</v>
@@ -1584,16 +1584,16 @@
         <v>17</v>
       </c>
       <c r="J4" s="23">
-        <v>68.86</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="K4" s="23">
-        <v>93.607129999999998</v>
+        <v>93.607127129999995</v>
       </c>
       <c r="L4" s="23">
         <v>53.694400226782598</v>
       </c>
       <c r="M4" s="24">
-        <v>216.16153022678299</v>
+        <v>214.90152735678299</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>17</v>
@@ -1610,16 +1610,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="28">
-        <v>1.6328575693087599</v>
+        <v>1.5685665832692199</v>
       </c>
       <c r="E5" s="28">
-        <v>2.8969095635114499</v>
+        <v>2.89690948342579</v>
       </c>
       <c r="F5" s="28">
         <v>2.6406484029257902</v>
       </c>
       <c r="G5" s="29">
-        <v>7.1704155357459998</v>
+        <v>7.1061244696208101</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>17</v>
@@ -1628,16 +1628,16 @@
         <v>17</v>
       </c>
       <c r="J5" s="30">
-        <v>73.400000000000006</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="K5" s="30">
-        <v>130.22149999999999</v>
+        <v>130.22149640000001</v>
       </c>
       <c r="L5" s="30">
         <v>118.702081809135</v>
       </c>
       <c r="M5" s="31">
-        <v>322.32358180913502</v>
+        <v>319.43357820913502</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>17</v>
@@ -1654,16 +1654,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="28">
-        <v>6.3506157274065496</v>
+        <v>6.0987314620161897</v>
       </c>
       <c r="E6" s="28">
-        <v>5.1159912970476098</v>
+        <v>5.1159912926972702</v>
       </c>
       <c r="F6" s="28">
         <v>21.5438258404386</v>
       </c>
       <c r="G6" s="29">
-        <v>33.010432864892699</v>
+        <v>32.758548595152099</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>17</v>
@@ -1672,16 +1672,16 @@
         <v>17</v>
       </c>
       <c r="J6" s="30">
-        <v>145.97999999999999</v>
+        <v>140.19</v>
       </c>
       <c r="K6" s="30">
-        <v>117.6</v>
+        <v>117.5999999</v>
       </c>
       <c r="L6" s="30">
         <v>495.22248411518399</v>
       </c>
       <c r="M6" s="31">
-        <v>758.80248411518403</v>
+        <v>753.01248401518399</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>17</v>
@@ -1698,16 +1698,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="28">
-        <v>10.935134708324901</v>
+        <v>10.58275397669</v>
       </c>
       <c r="E7" s="28">
-        <v>7.4563672157712997</v>
+        <v>7.4563674949924597</v>
       </c>
       <c r="F7" s="28">
         <v>1.9713915508572499</v>
       </c>
       <c r="G7" s="29">
-        <v>20.362893474953399</v>
+        <v>20.010513022539801</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>17</v>
@@ -1716,16 +1716,16 @@
         <v>17</v>
       </c>
       <c r="J7" s="30">
-        <v>1206.22</v>
+        <v>1167.3499999999999</v>
       </c>
       <c r="K7" s="30">
-        <v>822.48820000000001</v>
+        <v>822.4882308</v>
       </c>
       <c r="L7" s="30">
         <v>217.45794449744801</v>
       </c>
       <c r="M7" s="31">
-        <v>2246.1661444974502</v>
+        <v>2207.2961752974502</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>17</v>
@@ -1742,16 +1742,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="28">
-        <v>12.396203632236</v>
+        <v>11.901532872231099</v>
       </c>
       <c r="E8" s="28">
-        <v>14.3706891507665</v>
+        <v>14.370691918791501</v>
       </c>
       <c r="F8" s="28">
         <v>1.9465037044308</v>
       </c>
       <c r="G8" s="29">
-        <v>28.7133964874333</v>
+        <v>28.218728495453401</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>17</v>
@@ -1760,16 +1760,16 @@
         <v>17</v>
       </c>
       <c r="J8" s="30">
-        <v>1907.78</v>
+        <v>1831.65</v>
       </c>
       <c r="K8" s="30">
-        <v>2211.654</v>
+        <v>2211.6544260000001</v>
       </c>
       <c r="L8" s="30">
         <v>299.56758919175201</v>
       </c>
       <c r="M8" s="31">
-        <v>4419.0015891917501</v>
+        <v>4342.8720151917496</v>
       </c>
       <c r="N8" s="25" t="s">
         <v>17</v>
@@ -1786,16 +1786,16 @@
         <v>17</v>
       </c>
       <c r="D9" s="28">
-        <v>1.1878474126729299</v>
+        <v>1.15271062848296</v>
       </c>
       <c r="E9" s="28">
-        <v>-1.4320920838213</v>
+        <v>-1.4320894513638001</v>
       </c>
       <c r="F9" s="28">
         <v>0.48583699302731997</v>
       </c>
       <c r="G9" s="29">
-        <v>0.24159232187897001</v>
+        <v>0.20645817014647</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>17</v>
@@ -1804,16 +1804,16 @@
         <v>17</v>
       </c>
       <c r="J9" s="30">
-        <v>148.41</v>
+        <v>144.02000000000001</v>
       </c>
       <c r="K9" s="30">
-        <v>-178.92599999999999</v>
+        <v>-178.92567109999999</v>
       </c>
       <c r="L9" s="30">
         <v>60.7006147135818</v>
       </c>
       <c r="M9" s="31">
-        <v>30.184614713581801</v>
+        <v>25.7949436135819</v>
       </c>
       <c r="N9" s="25" t="s">
         <v>17</v>
@@ -1830,16 +1830,16 @@
         <v>17</v>
       </c>
       <c r="D10" s="28">
-        <v>0.25047879588025002</v>
+        <v>0.24879515181440001</v>
       </c>
       <c r="E10" s="28">
-        <v>1.32138651610115</v>
+        <v>1.3213865063035199</v>
       </c>
       <c r="F10" s="28">
         <v>0.22948591855218001</v>
       </c>
       <c r="G10" s="29">
-        <v>1.8013512305335699</v>
+        <v>1.7996675766701</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>17</v>
@@ -1848,16 +1848,16 @@
         <v>17</v>
       </c>
       <c r="J10" s="30">
-        <v>971.48</v>
+        <v>964.95</v>
       </c>
       <c r="K10" s="30">
-        <v>5124.9870000000001</v>
+        <v>5124.9869619999999</v>
       </c>
       <c r="L10" s="30">
         <v>890.05929372820901</v>
       </c>
       <c r="M10" s="31">
-        <v>6986.5262937282096</v>
+        <v>6979.9962557282097</v>
       </c>
       <c r="N10" s="25" t="s">
         <v>17</v>
@@ -1874,16 +1874,16 @@
         <v>17</v>
       </c>
       <c r="D11" s="20">
-        <v>4.1884847693790901</v>
+        <v>4.0665129764575401</v>
       </c>
       <c r="E11" s="20">
-        <v>2.35091900198575</v>
+        <v>2.3509190431721398</v>
       </c>
       <c r="F11" s="20">
         <v>0.42155605338928998</v>
       </c>
       <c r="G11" s="21">
-        <v>6.9609598247541298</v>
+        <v>6.8389880730189798</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>17</v>
@@ -1892,16 +1892,16 @@
         <v>17</v>
       </c>
       <c r="J11" s="23">
-        <v>976.28</v>
+        <v>947.85</v>
       </c>
       <c r="K11" s="23">
-        <v>547.96789999999999</v>
+        <v>547.96790959999998</v>
       </c>
       <c r="L11" s="23">
         <v>98.259100000000004</v>
       </c>
       <c r="M11" s="24">
-        <v>1622.5070000000001</v>
+        <v>1594.0770096000001</v>
       </c>
       <c r="N11" s="25" t="s">
         <v>17</v>
@@ -1918,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="33">
-        <v>4.2396625328376398</v>
+        <v>3.6650038461251202</v>
       </c>
       <c r="E12" s="33">
         <v>1.21768149144472</v>
@@ -1927,7 +1927,7 @@
         <v>4.0084618901309996</v>
       </c>
       <c r="G12" s="34">
-        <v>9.46580591441335</v>
+        <v>8.8911472277008397</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>17</v>
@@ -1936,7 +1936,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="36">
-        <v>974.89</v>
+        <v>842.75</v>
       </c>
       <c r="K12" s="36">
         <v>280</v>
@@ -1945,7 +1945,7 @@
         <v>921.72652464730004</v>
       </c>
       <c r="M12" s="37">
-        <v>2176.6165246473001</v>
+        <v>2044.4765246473</v>
       </c>
       <c r="N12" s="38" t="s">
         <v>17</v>
@@ -1962,16 +1962,16 @@
         <v>1.2943979965885299</v>
       </c>
       <c r="D13" s="41">
-        <v>1.19848706444622</v>
+        <v>1.14480224030164</v>
       </c>
       <c r="E13" s="41">
-        <v>0.82468963266209006</v>
+        <v>0.82469002103392997</v>
       </c>
       <c r="F13" s="41">
         <v>0.51377467349512995</v>
       </c>
       <c r="G13" s="42">
-        <v>3.8313493671919598</v>
+        <v>3.7776649314192201</v>
       </c>
       <c r="H13" s="43">
         <v>17.0355640441649</v>
@@ -1980,16 +1980,16 @@
         <v>7455.9799924651297</v>
       </c>
       <c r="J13" s="44">
-        <v>6522.84</v>
+        <v>6198.18</v>
       </c>
       <c r="K13" s="44">
-        <v>5051.1197300000003</v>
+        <v>5051.1217327300001</v>
       </c>
       <c r="L13" s="44">
         <v>3158.8355063969898</v>
       </c>
       <c r="M13" s="45">
-        <v>22188.775228862101</v>
+        <v>21864.117231592099</v>
       </c>
       <c r="N13" s="46">
         <v>92023.807633634104</v>
@@ -2006,16 +2006,16 @@
         <v>17</v>
       </c>
       <c r="D14" s="28">
-        <v>19.549994618770299</v>
+        <v>18.385174244584999</v>
       </c>
       <c r="E14" s="28">
-        <v>3.4687647004509999E-2</v>
+        <v>3.4687642489960001E-2</v>
       </c>
       <c r="F14" s="28">
         <v>1.6042797079856901</v>
       </c>
       <c r="G14" s="29">
-        <v>21.188961973760499</v>
+        <v>20.024141595060701</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>17</v>
@@ -2024,16 +2024,16 @@
         <v>17</v>
       </c>
       <c r="J14" s="30">
-        <v>588.94000000000005</v>
+        <v>553.85</v>
       </c>
       <c r="K14" s="30">
-        <v>1.044959</v>
+        <v>1.044958864</v>
       </c>
       <c r="L14" s="30">
         <v>48.328631779466001</v>
       </c>
       <c r="M14" s="31">
-        <v>638.31359077946604</v>
+        <v>603.22359064346597</v>
       </c>
       <c r="N14" s="25" t="s">
         <v>17</v>
@@ -2050,16 +2050,16 @@
         <v>17</v>
       </c>
       <c r="D15" s="28">
-        <v>3.3655923464019399</v>
+        <v>3.27038824301553</v>
       </c>
       <c r="E15" s="28">
-        <v>2.58847026288203</v>
+        <v>2.5884710896478702</v>
       </c>
       <c r="F15" s="28">
         <v>0.89621076099979002</v>
       </c>
       <c r="G15" s="29">
-        <v>6.8502733702837499</v>
+        <v>6.75507009366319</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>17</v>
@@ -2068,16 +2068,16 @@
         <v>17</v>
       </c>
       <c r="J15" s="30">
-        <v>1335.22</v>
+        <v>1297.45</v>
       </c>
       <c r="K15" s="30">
-        <v>1026.915</v>
+        <v>1026.915328</v>
       </c>
       <c r="L15" s="30">
         <v>355.55064581170302</v>
       </c>
       <c r="M15" s="31">
-        <v>2717.6856458116999</v>
+        <v>2679.9159738117</v>
       </c>
       <c r="N15" s="25" t="s">
         <v>17</v>
@@ -2094,16 +2094,16 @@
         <v>17</v>
       </c>
       <c r="D16" s="28">
-        <v>33.093904271013102</v>
+        <v>30.235145836140902</v>
       </c>
       <c r="E16" s="28">
-        <v>1.1238871635827901</v>
+        <v>1.12388704461419</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
       </c>
       <c r="G16" s="29">
-        <v>34.217791434595902</v>
+        <v>31.359032880755102</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>17</v>
@@ -2112,16 +2112,16 @@
         <v>17</v>
       </c>
       <c r="J16" s="30">
-        <v>753.85</v>
+        <v>688.73</v>
       </c>
       <c r="K16" s="30">
-        <v>25.60116</v>
+        <v>25.60115729</v>
       </c>
       <c r="L16" s="30">
         <v>0</v>
       </c>
       <c r="M16" s="31">
-        <v>779.45115999999996</v>
+        <v>714.33115728999996</v>
       </c>
       <c r="N16" s="25" t="s">
         <v>17</v>
@@ -2138,16 +2138,16 @@
         <v>17</v>
       </c>
       <c r="D17" s="13">
-        <v>6.43200059505652</v>
+        <v>5.8382424749245097</v>
       </c>
       <c r="E17" s="13">
-        <v>5.1546874223635903</v>
+        <v>5.1546878590173302</v>
       </c>
       <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="14">
-        <v>11.5866880174201</v>
+        <v>10.9929303339418</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>17</v>
@@ -2156,16 +2156,16 @@
         <v>17</v>
       </c>
       <c r="J17" s="16">
-        <v>707.05</v>
+        <v>641.78</v>
       </c>
       <c r="K17" s="16">
-        <v>566.63890000000004</v>
+        <v>566.63894800000003</v>
       </c>
       <c r="L17" s="16">
         <v>0</v>
       </c>
       <c r="M17" s="17">
-        <v>1273.6889000000001</v>
+        <v>1208.418948</v>
       </c>
       <c r="N17" s="49" t="s">
         <v>17</v>
@@ -2182,10 +2182,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="13">
-        <v>1.4641290117763399</v>
+        <v>1.3735151641419701</v>
       </c>
       <c r="E18" s="13">
-        <v>37.951010504058203</v>
+        <v>37.951007236017801</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>17</v>
@@ -2200,10 +2200,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="16">
-        <v>187.27</v>
+        <v>175.68</v>
       </c>
       <c r="K18" s="16">
-        <v>4854.1390000000001</v>
+        <v>4854.1385819999996</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>17</v>
@@ -2226,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="20">
-        <v>6.0031747677036202</v>
+        <v>5.5750100880862403</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>17</v>
@@ -2244,7 +2244,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="23">
-        <v>3025.53</v>
+        <v>2809.74</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>17</v>
@@ -2270,16 +2270,16 @@
         <v>17</v>
       </c>
       <c r="D20" s="13">
-        <v>0.56116694069469997</v>
+        <v>0.54960551784911005</v>
       </c>
       <c r="E20" s="13">
-        <v>3.9614260687167202</v>
+        <v>3.9614261746964301</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
       </c>
       <c r="G20" s="14">
-        <v>4.5225930094114197</v>
+        <v>4.51103169254554</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>17</v>
@@ -2288,16 +2288,16 @@
         <v>17</v>
       </c>
       <c r="J20" s="16">
-        <v>64.069999999999993</v>
+        <v>62.75</v>
       </c>
       <c r="K20" s="16">
-        <v>452.28710000000001</v>
+        <v>452.2871121</v>
       </c>
       <c r="L20" s="16">
         <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>516.35709999999995</v>
+        <v>515.03711209999994</v>
       </c>
       <c r="N20" s="49" t="s">
         <v>17</v>
@@ -2314,16 +2314,16 @@
         <v>17</v>
       </c>
       <c r="D21" s="13">
-        <v>0.69160798906262</v>
+        <v>0.68633396703994998</v>
       </c>
       <c r="E21" s="13">
-        <v>9.2036839800252306</v>
+        <v>9.2036832392918004</v>
       </c>
       <c r="F21" s="13">
         <v>0.10937991159759</v>
       </c>
       <c r="G21" s="14">
-        <v>10.0046718806854</v>
+        <v>9.9993971179293393</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>17</v>
@@ -2332,16 +2332,16 @@
         <v>17</v>
       </c>
       <c r="J21" s="16">
-        <v>116.71</v>
+        <v>115.82</v>
       </c>
       <c r="K21" s="16">
-        <v>1553.1369999999999</v>
+        <v>1553.1368749999999</v>
       </c>
       <c r="L21" s="16">
         <v>18.458042249999998</v>
       </c>
       <c r="M21" s="17">
-        <v>1688.30504225</v>
+        <v>1687.4149172499999</v>
       </c>
       <c r="N21" s="49" t="s">
         <v>17</v>
@@ -2358,16 +2358,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="28">
-        <v>11.9279182216197</v>
+        <v>11.7932444320823</v>
       </c>
       <c r="E22" s="28">
-        <v>5.6172437616075497</v>
+        <v>5.6172436455094603</v>
       </c>
       <c r="F22" s="28">
         <v>2.5807281416588101</v>
       </c>
       <c r="G22" s="29">
-        <v>20.125890124886102</v>
+        <v>19.9912162192505</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>17</v>
@@ -2376,16 +2376,16 @@
         <v>17</v>
       </c>
       <c r="J22" s="30">
-        <v>51.37</v>
+        <v>50.79</v>
       </c>
       <c r="K22" s="30">
-        <v>24.191800000000001</v>
+        <v>24.191799499999998</v>
       </c>
       <c r="L22" s="30">
         <v>11.1144293726563</v>
       </c>
       <c r="M22" s="31">
-        <v>86.676229372656394</v>
+        <v>86.096228872656297</v>
       </c>
       <c r="N22" s="25" t="s">
         <v>17</v>
@@ -2402,16 +2402,16 @@
         <v>1.805197348692E-2</v>
       </c>
       <c r="D23" s="41">
-        <v>4.7023449367015298</v>
+        <v>4.4101980111426702</v>
       </c>
       <c r="E23" s="41">
-        <v>7.32103476189008</v>
+        <v>7.3210347712605603</v>
       </c>
       <c r="F23" s="41">
         <v>1.7258497828453301</v>
       </c>
       <c r="G23" s="42">
-        <v>13.7672814549239</v>
+        <v>13.475134538735499</v>
       </c>
       <c r="H23" s="43">
         <v>14.8322421890675</v>
@@ -2420,16 +2420,16 @@
         <v>22.61502741164</v>
       </c>
       <c r="J23" s="44">
-        <v>6830.01</v>
+        <v>6396.59</v>
       </c>
       <c r="K23" s="44">
-        <v>8503.9549189999998</v>
+        <v>8503.9547607540007</v>
       </c>
       <c r="L23" s="44">
         <v>2509.7696770412499</v>
       </c>
       <c r="M23" s="45">
-        <v>17866.349623452901</v>
+        <v>17432.9294652069</v>
       </c>
       <c r="N23" s="46">
         <v>21507.566974691301</v>
@@ -2446,16 +2446,16 @@
         <v>17</v>
       </c>
       <c r="D24" s="28">
-        <v>6.5856032601686296</v>
+        <v>6.1302337095869301</v>
       </c>
       <c r="E24" s="28">
-        <v>0.30953017114540998</v>
+        <v>0.30953020683426002</v>
       </c>
       <c r="F24" s="28">
         <v>14.198017568666801</v>
       </c>
       <c r="G24" s="29">
-        <v>21.0931509999808</v>
+        <v>20.637781485087999</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>17</v>
@@ -2464,16 +2464,16 @@
         <v>17</v>
       </c>
       <c r="J24" s="30">
-        <v>78.239999999999995</v>
+        <v>72.83</v>
       </c>
       <c r="K24" s="30">
-        <v>3.6773609999999999</v>
+        <v>3.6773614239999999</v>
       </c>
       <c r="L24" s="30">
         <v>168.678988194021</v>
       </c>
       <c r="M24" s="31">
-        <v>250.596349194021</v>
+        <v>245.18634961802101</v>
       </c>
       <c r="N24" s="25" t="s">
         <v>17</v>
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="28">
-        <v>8.2135005129228205</v>
+        <v>7.9120655263945299</v>
       </c>
       <c r="E25" s="28">
         <v>6.6918567009280201</v>
@@ -2499,7 +2499,7 @@
         <v>2.39526495597147</v>
       </c>
       <c r="G25" s="29">
-        <v>17.300622169822301</v>
+        <v>16.999187183294001</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>17</v>
@@ -2508,7 +2508,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="30">
-        <v>272.48</v>
+        <v>262.48</v>
       </c>
       <c r="K25" s="30">
         <v>222</v>
@@ -2517,7 +2517,7 @@
         <v>79.462075174431703</v>
       </c>
       <c r="M25" s="31">
-        <v>573.94207517443203</v>
+        <v>563.94207517443203</v>
       </c>
       <c r="N25" s="25" t="s">
         <v>17</v>
@@ -2534,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="28">
-        <v>13.973258074616901</v>
+        <v>13.4217551289066</v>
       </c>
       <c r="E26" s="28">
         <v>3.3865207414725398</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="29">
-        <v>17.359778816089499</v>
+        <v>16.808275870379099</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>17</v>
@@ -2552,7 +2552,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="30">
-        <v>276.93</v>
+        <v>266</v>
       </c>
       <c r="K26" s="30">
         <v>67.116</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="31">
-        <v>344.04599999999999</v>
+        <v>333.11599999999999</v>
       </c>
       <c r="N26" s="25" t="s">
         <v>17</v>
@@ -2578,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="28">
-        <v>5.1939104022664901</v>
+        <v>5.0502833063375201</v>
       </c>
       <c r="E27" s="28">
         <v>2.75224977147401</v>
@@ -2587,7 +2587,7 @@
         <v>0.57343306479516998</v>
       </c>
       <c r="G27" s="29">
-        <v>8.5195932385356699</v>
+        <v>8.3759661426066998</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>17</v>
@@ -2596,7 +2596,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="30">
-        <v>4809.97</v>
+        <v>4676.96</v>
       </c>
       <c r="K27" s="30">
         <v>2548.8000000000002</v>
@@ -2605,7 +2605,7 @@
         <v>531.04417000902401</v>
       </c>
       <c r="M27" s="31">
-        <v>7889.81417000903</v>
+        <v>7756.8041700090198</v>
       </c>
       <c r="N27" s="25" t="s">
         <v>17</v>
@@ -2622,16 +2622,16 @@
         <v>17</v>
       </c>
       <c r="D28" s="28">
-        <v>3.2346725257657498</v>
+        <v>3.15600886234005</v>
       </c>
       <c r="E28" s="28">
-        <v>1.0928697189332699</v>
+        <v>1.0928696661989601</v>
       </c>
       <c r="F28" s="28">
         <v>2.8239640421313101</v>
       </c>
       <c r="G28" s="29">
-        <v>7.1515062868303199</v>
+        <v>7.0728425706703204</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>17</v>
@@ -2640,16 +2640,16 @@
         <v>17</v>
       </c>
       <c r="J28" s="30">
-        <v>3250.97</v>
+        <v>3171.91</v>
       </c>
       <c r="K28" s="30">
-        <v>1098.376</v>
+        <v>1098.375947</v>
       </c>
       <c r="L28" s="30">
         <v>2838.1922154157701</v>
       </c>
       <c r="M28" s="31">
-        <v>7187.5382154157696</v>
+        <v>7108.4781624157704</v>
       </c>
       <c r="N28" s="25" t="s">
         <v>17</v>
@@ -2666,16 +2666,16 @@
         <v>17</v>
       </c>
       <c r="D29" s="28">
-        <v>5.3611341869143603</v>
+        <v>5.1214971535518901</v>
       </c>
       <c r="E29" s="28">
-        <v>3.36279812976343</v>
+        <v>3.3627983098456999</v>
       </c>
       <c r="F29" s="28">
         <v>2.89036438302927</v>
       </c>
       <c r="G29" s="29">
-        <v>11.614296699707101</v>
+        <v>11.3746598464268</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>17</v>
@@ -2684,16 +2684,16 @@
         <v>17</v>
       </c>
       <c r="J29" s="30">
-        <v>756.17</v>
+        <v>722.37</v>
       </c>
       <c r="K29" s="30">
-        <v>474.31139999999999</v>
+        <v>474.31142540000002</v>
       </c>
       <c r="L29" s="30">
         <v>407.67620419760198</v>
       </c>
       <c r="M29" s="31">
-        <v>1638.1576041976</v>
+        <v>1604.3576295976</v>
       </c>
       <c r="N29" s="25" t="s">
         <v>17</v>
@@ -2713,13 +2713,13 @@
         <v>0.15791194845734999</v>
       </c>
       <c r="E30" s="28">
-        <v>3.3563202144659301</v>
+        <v>3.35632023867245</v>
       </c>
       <c r="F30" s="28">
         <v>2.2676644643701702</v>
       </c>
       <c r="G30" s="29">
-        <v>5.7818966272934498</v>
+        <v>5.7818966514999701</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>17</v>
@@ -2731,13 +2731,13 @@
         <v>22.18</v>
       </c>
       <c r="K30" s="30">
-        <v>471.4221</v>
+        <v>471.42210340000003</v>
       </c>
       <c r="L30" s="30">
         <v>318.51166622338201</v>
       </c>
       <c r="M30" s="31">
-        <v>812.11376622338196</v>
+        <v>812.11376962338204</v>
       </c>
       <c r="N30" s="25" t="s">
         <v>17</v>
@@ -2754,16 +2754,16 @@
         <v>17</v>
       </c>
       <c r="D31" s="28">
-        <v>11.501196139568</v>
+        <v>11.280557795357501</v>
       </c>
       <c r="E31" s="28">
-        <v>3.4167030454263898</v>
+        <v>3.4167029112087501</v>
       </c>
       <c r="F31" s="28">
         <v>2.5174042775587102</v>
       </c>
       <c r="G31" s="29">
-        <v>17.435303462553101</v>
+        <v>17.214664984125001</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>17</v>
@@ -2772,16 +2772,16 @@
         <v>17</v>
       </c>
       <c r="J31" s="30">
-        <v>1191.0999999999999</v>
+        <v>1168.25</v>
       </c>
       <c r="K31" s="30">
-        <v>353.84449999999998</v>
+        <v>353.84448609999998</v>
       </c>
       <c r="L31" s="30">
         <v>260.710294704425</v>
       </c>
       <c r="M31" s="31">
-        <v>1805.6547947044301</v>
+        <v>1782.80478080443</v>
       </c>
       <c r="N31" s="25" t="s">
         <v>17</v>
@@ -2801,7 +2801,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="28">
-        <v>8.5417802586967593</v>
+        <v>8.5417776202521303</v>
       </c>
       <c r="F32" s="28">
         <v>1.4052819173600199</v>
@@ -2819,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="K32" s="30">
-        <v>143.74189999999999</v>
+        <v>143.74185560000001</v>
       </c>
       <c r="L32" s="30">
         <v>23.6482193078321</v>
@@ -2842,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="28">
-        <v>28.802433790460199</v>
+        <v>26.5508300296991</v>
       </c>
       <c r="E33" s="28">
         <v>6.9011717022779502</v>
@@ -2851,7 +2851,7 @@
         <v>24.347086743830701</v>
       </c>
       <c r="G33" s="29">
-        <v>60.050692236568899</v>
+        <v>57.7990884758077</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>17</v>
@@ -2860,7 +2860,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="30">
-        <v>1865.58</v>
+        <v>1719.74</v>
       </c>
       <c r="K33" s="30">
         <v>447</v>
@@ -2869,7 +2869,7 @@
         <v>1577</v>
       </c>
       <c r="M33" s="31">
-        <v>3889.58</v>
+        <v>3743.74</v>
       </c>
       <c r="N33" s="25" t="s">
         <v>17</v>
@@ -2886,7 +2886,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="20">
-        <v>35.446455001359901</v>
+        <v>31.5238370702764</v>
       </c>
       <c r="E34" s="20">
         <v>-4.3590075307597003</v>
@@ -2895,7 +2895,7 @@
         <v>13.1612546218589</v>
       </c>
       <c r="G34" s="21">
-        <v>44.248702092459098</v>
+        <v>40.326084161375597</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>17</v>
@@ -2904,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="23">
-        <v>1885.27</v>
+        <v>1676.64</v>
       </c>
       <c r="K34" s="23">
         <v>-231.84</v>
@@ -2913,7 +2913,7 @@
         <v>700</v>
       </c>
       <c r="M34" s="24">
-        <v>2353.4299999999998</v>
+        <v>2144.8000000000002</v>
       </c>
       <c r="N34" s="25" t="s">
         <v>17</v>
@@ -2930,16 +2930,16 @@
         <v>17</v>
       </c>
       <c r="D35" s="28">
-        <v>4.8405456742198103</v>
+        <v>4.5745148351872196</v>
       </c>
       <c r="E35" s="28">
-        <v>2.45906465617368</v>
+        <v>2.4590646332322801</v>
       </c>
       <c r="F35" s="28">
         <v>1.5561933733098601</v>
       </c>
       <c r="G35" s="29">
-        <v>8.8558037037033603</v>
+        <v>8.58977284172936</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>17</v>
@@ -2948,16 +2948,16 @@
         <v>17</v>
       </c>
       <c r="J35" s="30">
-        <v>1624.67</v>
+        <v>1535.38</v>
       </c>
       <c r="K35" s="30">
-        <v>825.35500000000002</v>
+        <v>825.35499230000005</v>
       </c>
       <c r="L35" s="30">
         <v>522.31728775554598</v>
       </c>
       <c r="M35" s="31">
-        <v>2972.3422877555499</v>
+        <v>2883.05228005555</v>
       </c>
       <c r="N35" s="25" t="s">
         <v>17</v>
@@ -2974,16 +2974,16 @@
         <v>17</v>
       </c>
       <c r="D36" s="28">
-        <v>3.5407392432859099</v>
+        <v>3.4936749756847099</v>
       </c>
       <c r="E36" s="28">
-        <v>1.6290390136113799</v>
+        <v>1.6290389703622401</v>
       </c>
       <c r="F36" s="28">
         <v>0.71286779147571999</v>
       </c>
       <c r="G36" s="29">
-        <v>5.8826460483730099</v>
+        <v>5.83558173752267</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>17</v>
@@ -2992,16 +2992,16 @@
         <v>17</v>
       </c>
       <c r="J36" s="30">
-        <v>2153.14</v>
+        <v>2124.52</v>
       </c>
       <c r="K36" s="30">
-        <v>990.62620000000004</v>
+        <v>990.62617369999998</v>
       </c>
       <c r="L36" s="30">
         <v>433.49821917798101</v>
       </c>
       <c r="M36" s="31">
-        <v>3577.26441917798</v>
+        <v>3548.64439287798</v>
       </c>
       <c r="N36" s="25" t="s">
         <v>17</v>
@@ -3018,16 +3018,16 @@
         <v>17</v>
       </c>
       <c r="D37" s="28">
-        <v>5.5178984704075003</v>
+        <v>5.3287142808706198</v>
       </c>
       <c r="E37" s="28">
-        <v>3.3077962170739301</v>
+        <v>3.3077951292648402</v>
       </c>
       <c r="F37" s="28">
         <v>3.7429794004952801</v>
       </c>
       <c r="G37" s="29">
-        <v>12.568674087976699</v>
+        <v>12.379488810630701</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>17</v>
@@ -3036,16 +3036,16 @@
         <v>17</v>
       </c>
       <c r="J37" s="30">
-        <v>2100.0100000000002</v>
+        <v>2028.01</v>
       </c>
       <c r="K37" s="30">
-        <v>1258.886</v>
+        <v>1258.8855860000001</v>
       </c>
       <c r="L37" s="30">
         <v>1424.5086626709201</v>
       </c>
       <c r="M37" s="31">
-        <v>4783.4046626709196</v>
+        <v>4711.4042486709204</v>
       </c>
       <c r="N37" s="25" t="s">
         <v>17</v>
@@ -3062,16 +3062,16 @@
         <v>4.3970482129940001E-2</v>
       </c>
       <c r="D38" s="41">
-        <v>5.2896901350930996</v>
+        <v>5.0704225721893499</v>
       </c>
       <c r="E38" s="41">
-        <v>2.3149264000698402</v>
+        <v>2.3149262721944699</v>
       </c>
       <c r="F38" s="41">
         <v>2.2929326746216199</v>
       </c>
       <c r="G38" s="42">
-        <v>9.9415196919145004</v>
+        <v>9.7222520011353808</v>
       </c>
       <c r="H38" s="43">
         <v>18.979787118191101</v>
@@ -3080,16 +3080,16 @@
         <v>115.0599178634</v>
       </c>
       <c r="J38" s="44">
-        <v>20286.71</v>
+        <v>19447.27</v>
       </c>
       <c r="K38" s="44">
-        <v>8673.3164610000003</v>
+        <v>8673.315930924</v>
       </c>
       <c r="L38" s="44">
         <v>9285.2480028309292</v>
       </c>
       <c r="M38" s="45">
-        <v>38360.334381694302</v>
+        <v>37520.893851618297</v>
       </c>
       <c r="N38" s="46">
         <v>72556.798971697295</v>
@@ -3106,16 +3106,16 @@
         <v>17</v>
       </c>
       <c r="D39" s="13">
-        <v>0.10271792992904</v>
+        <v>0.10052000472683</v>
       </c>
       <c r="E39" s="13">
-        <v>0.80774452646887995</v>
+        <v>0.80774442007993996</v>
       </c>
       <c r="F39" s="13">
         <v>1.04392017259204</v>
       </c>
       <c r="G39" s="14">
-        <v>1.95438262898996</v>
+        <v>1.9521845973988099</v>
       </c>
       <c r="H39" s="48" t="s">
         <v>17</v>
@@ -3124,16 +3124,16 @@
         <v>17</v>
       </c>
       <c r="J39" s="16">
-        <v>175.72</v>
+        <v>171.96</v>
       </c>
       <c r="K39" s="16">
-        <v>1381.8119999999999</v>
+        <v>1381.8118179999999</v>
       </c>
       <c r="L39" s="16">
         <v>1785.8386832229901</v>
       </c>
       <c r="M39" s="17">
-        <v>3343.37068322299</v>
+        <v>3339.61050122299</v>
       </c>
       <c r="N39" s="49" t="s">
         <v>17</v>
@@ -3150,7 +3150,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="28">
-        <v>0.57571608888722003</v>
+        <v>0.56522771587655996</v>
       </c>
       <c r="E40" s="28">
         <v>2.9801400449697102</v>
@@ -3159,7 +3159,7 @@
         <v>8.8581934073642508</v>
       </c>
       <c r="G40" s="29">
-        <v>12.4140495412212</v>
+        <v>12.4035611682105</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>17</v>
@@ -3168,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="30">
-        <v>1740.59</v>
+        <v>1708.88</v>
       </c>
       <c r="K40" s="30">
         <v>9010</v>
@@ -3177,7 +3177,7 @@
         <v>26781.4</v>
       </c>
       <c r="M40" s="31">
-        <v>37531.99</v>
+        <v>37500.28</v>
       </c>
       <c r="N40" s="25" t="s">
         <v>17</v>
@@ -3194,7 +3194,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="13">
-        <v>0.80008635090511004</v>
+        <v>0.74481631185488995</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>17</v>
@@ -3212,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="16">
-        <v>316.01</v>
+        <v>294.18</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>17</v>
@@ -3238,16 +3238,16 @@
         <v>17</v>
       </c>
       <c r="D42" s="13">
-        <v>5.2248519826298701</v>
+        <v>5.0262168461171601</v>
       </c>
       <c r="E42" s="13">
-        <v>11.2426777402274</v>
+        <v>11.242677215435201</v>
       </c>
       <c r="F42" s="13">
         <v>0.81709030698742002</v>
       </c>
       <c r="G42" s="14">
-        <v>17.284620029844699</v>
+        <v>17.085984368539801</v>
       </c>
       <c r="H42" s="48" t="s">
         <v>17</v>
@@ -3256,16 +3256,16 @@
         <v>17</v>
       </c>
       <c r="J42" s="16">
-        <v>412.18</v>
+        <v>396.51</v>
       </c>
       <c r="K42" s="16">
-        <v>886.91639999999995</v>
+        <v>886.91635859999997</v>
       </c>
       <c r="L42" s="16">
         <v>64.458913640756407</v>
       </c>
       <c r="M42" s="17">
-        <v>1363.55531364076</v>
+        <v>1347.8852722407601</v>
       </c>
       <c r="N42" s="49" t="s">
         <v>17</v>
@@ -3282,16 +3282,16 @@
         <v>17</v>
       </c>
       <c r="D43" s="28">
-        <v>0.63223103390966995</v>
+        <v>0.62710884966957003</v>
       </c>
       <c r="E43" s="28">
-        <v>1.43484643775145</v>
+        <v>1.4348468148243001</v>
       </c>
       <c r="F43" s="28">
         <v>5.8084054761121502</v>
       </c>
       <c r="G43" s="29">
-        <v>7.8754829477732802</v>
+        <v>7.8703611406060201</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>17</v>
@@ -3300,16 +3300,16 @@
         <v>17</v>
       </c>
       <c r="J43" s="30">
-        <v>757.86</v>
+        <v>751.72</v>
       </c>
       <c r="K43" s="30">
-        <v>1719.961</v>
+        <v>1719.961452</v>
       </c>
       <c r="L43" s="30">
         <v>6962.5784531723402</v>
       </c>
       <c r="M43" s="31">
-        <v>9440.3994531723401</v>
+        <v>9434.2599051723391</v>
       </c>
       <c r="N43" s="25" t="s">
         <v>17</v>
@@ -3326,16 +3326,16 @@
         <v>17</v>
       </c>
       <c r="D44" s="28">
-        <v>2.3557060042956302</v>
+        <v>2.3438320758774802</v>
       </c>
       <c r="E44" s="28">
-        <v>2.0223907093689499</v>
+        <v>2.0223907895658502</v>
       </c>
       <c r="F44" s="28">
         <v>4.9067649299609304</v>
       </c>
       <c r="G44" s="29">
-        <v>9.2848616436255096</v>
+        <v>9.2729877954042603</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>17</v>
@@ -3344,16 +3344,16 @@
         <v>17</v>
       </c>
       <c r="J44" s="30">
-        <v>984.03</v>
+        <v>979.07</v>
       </c>
       <c r="K44" s="30">
-        <v>844.79690000000005</v>
+        <v>844.79693350000002</v>
       </c>
       <c r="L44" s="30">
         <v>2049.66319448389</v>
       </c>
       <c r="M44" s="31">
-        <v>3878.4900944838901</v>
+        <v>3873.53012798389</v>
       </c>
       <c r="N44" s="25" t="s">
         <v>17</v>
@@ -3370,16 +3370,16 @@
         <v>0.68397653249072998</v>
       </c>
       <c r="D45" s="41">
-        <v>0.64487004855261998</v>
+        <v>0.63290655399604001</v>
       </c>
       <c r="E45" s="41">
-        <v>2.30045940469721</v>
+        <v>2.3004594287029598</v>
       </c>
       <c r="F45" s="41">
         <v>6.0186656518032304</v>
       </c>
       <c r="G45" s="42">
-        <v>9.6479716375437903</v>
+        <v>9.6360081669929603</v>
       </c>
       <c r="H45" s="43">
         <v>23.099906664509401</v>
@@ -3388,16 +3388,16 @@
         <v>4146.8739152591797</v>
       </c>
       <c r="J45" s="44">
-        <v>4386.3900000000003</v>
+        <v>4302.32</v>
       </c>
       <c r="K45" s="44">
-        <v>13843.4863</v>
+        <v>13843.486562100001</v>
       </c>
       <c r="L45" s="44">
         <v>37643.939244519999</v>
       </c>
       <c r="M45" s="45">
-        <v>60020.689459779198</v>
+        <v>59936.6197218792</v>
       </c>
       <c r="N45" s="46">
         <v>154397.786219042</v>
@@ -3414,16 +3414,16 @@
         <v>17</v>
       </c>
       <c r="D46" s="28">
-        <v>4.1842521813433704</v>
+        <v>4.12102391404422</v>
       </c>
       <c r="E46" s="28">
-        <v>1.51614367340522</v>
+        <v>1.5161434760774399</v>
       </c>
       <c r="F46" s="28">
         <v>1.5077033610711299</v>
       </c>
       <c r="G46" s="29">
-        <v>7.2080992158197201</v>
+        <v>7.1448707511927898</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>17</v>
@@ -3432,16 +3432,16 @@
         <v>17</v>
       </c>
       <c r="J46" s="30">
-        <v>602.21</v>
+        <v>593.11</v>
       </c>
       <c r="K46" s="30">
-        <v>218.2079</v>
+        <v>218.2078716</v>
       </c>
       <c r="L46" s="30">
         <v>216.99314518350599</v>
       </c>
       <c r="M46" s="31">
-        <v>1037.4110451835099</v>
+        <v>1028.31101678351</v>
       </c>
       <c r="N46" s="25" t="s">
         <v>17</v>
@@ -3458,16 +3458,16 @@
         <v>17</v>
       </c>
       <c r="D47" s="28">
-        <v>7.1838871447383204</v>
+        <v>6.92700038025521</v>
       </c>
       <c r="E47" s="28">
-        <v>1.01910193681673</v>
+        <v>1.01910220570989</v>
       </c>
       <c r="F47" s="28">
         <v>2.9218795964335702</v>
       </c>
       <c r="G47" s="29">
-        <v>11.1248686779886</v>
+        <v>10.8679821823987</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>17</v>
@@ -3476,16 +3476,16 @@
         <v>17</v>
       </c>
       <c r="J47" s="30">
-        <v>1148.81</v>
+        <v>1107.73</v>
       </c>
       <c r="K47" s="30">
-        <v>162.96950000000001</v>
+        <v>162.96954299999999</v>
       </c>
       <c r="L47" s="30">
         <v>467.251841732701</v>
       </c>
       <c r="M47" s="31">
-        <v>1779.0313417327</v>
+        <v>1737.9513847327</v>
       </c>
       <c r="N47" s="25" t="s">
         <v>17</v>
@@ -3502,16 +3502,16 @@
         <v>17</v>
       </c>
       <c r="D48" s="28">
-        <v>7.6968637736353802</v>
+        <v>7.6665889718510503</v>
       </c>
       <c r="E48" s="28">
-        <v>5.3748016141783896</v>
+        <v>5.3748011045525601</v>
       </c>
       <c r="F48" s="28">
         <v>11.9014138229214</v>
       </c>
       <c r="G48" s="29">
-        <v>24.9730792107352</v>
+        <v>24.942803899325099</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>17</v>
@@ -3520,16 +3520,16 @@
         <v>17</v>
       </c>
       <c r="J48" s="30">
-        <v>152.54</v>
+        <v>151.94</v>
       </c>
       <c r="K48" s="30">
-        <v>106.52030000000001</v>
+        <v>106.52028989999999</v>
       </c>
       <c r="L48" s="30">
         <v>235.867714167815</v>
       </c>
       <c r="M48" s="31">
-        <v>494.92801416781498</v>
+        <v>494.32800406781502</v>
       </c>
       <c r="N48" s="25" t="s">
         <v>17</v>
@@ -3546,16 +3546,16 @@
         <v>17</v>
       </c>
       <c r="D49" s="28">
-        <v>2.05200175516643</v>
+        <v>2.0048711237094698</v>
       </c>
       <c r="E49" s="28">
-        <v>1.5983836912849301</v>
+        <v>1.5983836859893601</v>
       </c>
       <c r="F49" s="28">
         <v>0.56080226262695998</v>
       </c>
       <c r="G49" s="29">
-        <v>4.2111877090783301</v>
+        <v>4.1640570723257904</v>
       </c>
       <c r="H49" s="22" t="s">
         <v>17</v>
@@ -3564,16 +3564,16 @@
         <v>17</v>
       </c>
       <c r="J49" s="30">
-        <v>1201.23</v>
+        <v>1173.6400000000001</v>
       </c>
       <c r="K49" s="30">
-        <v>935.68460000000005</v>
+        <v>935.68459689999997</v>
       </c>
       <c r="L49" s="30">
         <v>328.29041214964599</v>
       </c>
       <c r="M49" s="31">
-        <v>2465.20501214965</v>
+        <v>2437.6150090496499</v>
       </c>
       <c r="N49" s="25" t="s">
         <v>17</v>
@@ -3590,7 +3590,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="28">
-        <v>10.7439932235659</v>
+        <v>10.5119929576066</v>
       </c>
       <c r="E50" s="28">
         <v>2.4324037431006502</v>
@@ -3599,7 +3599,7 @@
         <v>15.2532095204824</v>
       </c>
       <c r="G50" s="29">
-        <v>28.429606487148899</v>
+        <v>28.197606221189599</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>17</v>
@@ -3608,7 +3608,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="30">
-        <v>194.04</v>
+        <v>189.85</v>
       </c>
       <c r="K50" s="30">
         <v>43.93</v>
@@ -3617,7 +3617,7 @@
         <v>275.47790786599899</v>
       </c>
       <c r="M50" s="31">
-        <v>513.44790786599901</v>
+        <v>509.25790786599998</v>
       </c>
       <c r="N50" s="25" t="s">
         <v>17</v>
@@ -3634,7 +3634,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="20">
-        <v>1.36983853983909</v>
+        <v>1.3327221653562999</v>
       </c>
       <c r="E51" s="20">
         <v>5.6749868592316899</v>
@@ -3643,7 +3643,7 @@
         <v>4.9686346020763201</v>
       </c>
       <c r="G51" s="21">
-        <v>12.0134600011471</v>
+        <v>11.976343626664301</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>17</v>
@@ -3652,7 +3652,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="23">
-        <v>936.32</v>
+        <v>910.95</v>
       </c>
       <c r="K51" s="23">
         <v>3879</v>
@@ -3661,7 +3661,7 @@
         <v>3396.19</v>
       </c>
       <c r="M51" s="24">
-        <v>8211.51</v>
+        <v>8186.14</v>
       </c>
       <c r="N51" s="25" t="s">
         <v>17</v>
@@ -3678,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="28">
-        <v>4.2968598261085296</v>
+        <v>4.1387281623971202</v>
       </c>
       <c r="E52" s="28">
         <v>0.32854683522632</v>
@@ -3687,7 +3687,7 @@
         <v>1.1701151138364401</v>
       </c>
       <c r="G52" s="29">
-        <v>5.79552177517128</v>
+        <v>5.6373901114598803</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>17</v>
@@ -3696,7 +3696,7 @@
         <v>17</v>
       </c>
       <c r="J52" s="30">
-        <v>580.67999999999995</v>
+        <v>559.30999999999995</v>
       </c>
       <c r="K52" s="30">
         <v>44.4</v>
@@ -3705,7 +3705,7 @@
         <v>158.13</v>
       </c>
       <c r="M52" s="31">
-        <v>783.21</v>
+        <v>761.84</v>
       </c>
       <c r="N52" s="25" t="s">
         <v>17</v>
@@ -3722,16 +3722,16 @@
         <v>17</v>
       </c>
       <c r="D53" s="28">
-        <v>8.3707483860655802</v>
+        <v>7.8358984767409998</v>
       </c>
       <c r="E53" s="28">
-        <v>4.9774855195219398</v>
+        <v>4.9774855445279096</v>
       </c>
       <c r="F53" s="28">
         <v>10.5014824039226</v>
       </c>
       <c r="G53" s="29">
-        <v>23.8497163095101</v>
+        <v>23.3148664251915</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>17</v>
@@ -3740,16 +3740,16 @@
         <v>17</v>
       </c>
       <c r="J53" s="30">
-        <v>120.51</v>
+        <v>112.81</v>
       </c>
       <c r="K53" s="30">
-        <v>71.658680000000004</v>
+        <v>71.658680360000005</v>
       </c>
       <c r="L53" s="30">
         <v>151.18524487050499</v>
       </c>
       <c r="M53" s="31">
-        <v>343.35392487050501</v>
+        <v>335.65392523050502</v>
       </c>
       <c r="N53" s="25" t="s">
         <v>17</v>
@@ -3766,7 +3766,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="28">
-        <v>19.392364576876599</v>
+        <v>18.861218129508099</v>
       </c>
       <c r="E54" s="28">
         <v>2.8141671184538399</v>
@@ -3775,7 +3775,7 @@
         <v>11.2412175526936</v>
       </c>
       <c r="G54" s="29">
-        <v>33.447749248024003</v>
+        <v>32.916602800655497</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>17</v>
@@ -3784,7 +3784,7 @@
         <v>17</v>
       </c>
       <c r="J54" s="30">
-        <v>597.30999999999995</v>
+        <v>580.95000000000005</v>
       </c>
       <c r="K54" s="30">
         <v>86.68</v>
@@ -3793,7 +3793,7 @@
         <v>346.24409157435701</v>
       </c>
       <c r="M54" s="31">
-        <v>1030.23409157436</v>
+        <v>1013.87409157436</v>
       </c>
       <c r="N54" s="25" t="s">
         <v>17</v>
@@ -3810,16 +3810,16 @@
         <v>17</v>
       </c>
       <c r="D55" s="28">
-        <v>10.7818234579946</v>
+        <v>10.4988541914622</v>
       </c>
       <c r="E55" s="28">
-        <v>4.17011518754253</v>
+        <v>4.1701153918127698</v>
       </c>
       <c r="F55" s="28">
         <v>5.91442941602131</v>
       </c>
       <c r="G55" s="29">
-        <v>20.8663680615585</v>
+        <v>20.5833989992963</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>17</v>
@@ -3828,16 +3828,16 @@
         <v>17</v>
       </c>
       <c r="J55" s="30">
-        <v>1863.21</v>
+        <v>1814.31</v>
       </c>
       <c r="K55" s="30">
-        <v>720.63879999999995</v>
+        <v>720.63883529999998</v>
       </c>
       <c r="L55" s="30">
         <v>1022.07424144512</v>
       </c>
       <c r="M55" s="31">
-        <v>3605.9230414451199</v>
+        <v>3557.0230767451199</v>
       </c>
       <c r="N55" s="25" t="s">
         <v>17</v>
@@ -3854,16 +3854,16 @@
         <v>17</v>
       </c>
       <c r="D56" s="28">
-        <v>11.5424305059795</v>
+        <v>11.148453628172801</v>
       </c>
       <c r="E56" s="28">
-        <v>5.55414925053174</v>
+        <v>5.5541495572249602</v>
       </c>
       <c r="F56" s="28">
         <v>2.3905179329539901</v>
       </c>
       <c r="G56" s="29">
-        <v>19.487097689465202</v>
+        <v>19.093121118351799</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>17</v>
@@ -3872,16 +3872,16 @@
         <v>17</v>
       </c>
       <c r="J56" s="30">
-        <v>1490.35</v>
+        <v>1439.48</v>
       </c>
       <c r="K56" s="30">
-        <v>717.14760000000001</v>
+        <v>717.14763960000005</v>
       </c>
       <c r="L56" s="30">
         <v>308.66188880516398</v>
       </c>
       <c r="M56" s="31">
-        <v>2516.15948880516</v>
+        <v>2465.2895284051601</v>
       </c>
       <c r="N56" s="25" t="s">
         <v>17</v>
@@ -3898,16 +3898,16 @@
         <v>17</v>
       </c>
       <c r="D57" s="13">
-        <v>0.78490507266472997</v>
+        <v>0.73136589367797</v>
       </c>
       <c r="E57" s="13">
-        <v>0.51439297050012001</v>
+        <v>0.51439292854711005</v>
       </c>
       <c r="F57" s="13">
         <v>5.3131434581323997</v>
       </c>
       <c r="G57" s="14">
-        <v>6.6124415012972397</v>
+        <v>6.5589022803574704</v>
       </c>
       <c r="H57" s="48" t="s">
         <v>17</v>
@@ -3916,16 +3916,16 @@
         <v>17</v>
       </c>
       <c r="J57" s="16">
-        <v>3517.32</v>
+        <v>3277.4</v>
       </c>
       <c r="K57" s="16">
-        <v>2305.1</v>
+        <v>2305.0998119999999</v>
       </c>
       <c r="L57" s="16">
         <v>23809.281401014501</v>
       </c>
       <c r="M57" s="17">
-        <v>29631.701401014499</v>
+        <v>29391.781213014499</v>
       </c>
       <c r="N57" s="49" t="s">
         <v>17</v>
@@ -3942,16 +3942,16 @@
         <v>17</v>
       </c>
       <c r="D58" s="28">
-        <v>6.1690486165304499</v>
+        <v>6.1440969280795201</v>
       </c>
       <c r="E58" s="28">
-        <v>4.5522432931506698</v>
+        <v>4.5522425240917803</v>
       </c>
       <c r="F58" s="28">
         <v>10.776248280697301</v>
       </c>
       <c r="G58" s="29">
-        <v>21.497540190378398</v>
+        <v>21.4725877328686</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>17</v>
@@ -3960,16 +3960,16 @@
         <v>17</v>
       </c>
       <c r="J58" s="30">
-        <v>1443.88</v>
+        <v>1438.04</v>
       </c>
       <c r="K58" s="30">
-        <v>1065.463</v>
+        <v>1065.46282</v>
       </c>
       <c r="L58" s="30">
         <v>2522.2056648799999</v>
       </c>
       <c r="M58" s="31">
-        <v>5031.5486648799997</v>
+        <v>5025.7084848799996</v>
       </c>
       <c r="N58" s="25" t="s">
         <v>17</v>
@@ -3986,16 +3986,16 @@
         <v>17</v>
       </c>
       <c r="D59" s="28">
-        <v>14.596778531022499</v>
+        <v>13.8961999300616</v>
       </c>
       <c r="E59" s="28">
-        <v>9.0260249324918593</v>
+        <v>9.0260249300371402</v>
       </c>
       <c r="F59" s="28">
         <v>1.3005211943316699</v>
       </c>
       <c r="G59" s="29">
-        <v>24.923324657845999</v>
+        <v>24.222746054430399</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>17</v>
@@ -4004,16 +4004,16 @@
         <v>17</v>
       </c>
       <c r="J59" s="30">
-        <v>594.64</v>
+        <v>566.1</v>
       </c>
       <c r="K59" s="30">
-        <v>367.7</v>
+        <v>367.69999990000002</v>
       </c>
       <c r="L59" s="30">
         <v>52.9803148930297</v>
       </c>
       <c r="M59" s="31">
-        <v>1015.3203148930299</v>
+        <v>986.78031479303002</v>
       </c>
       <c r="N59" s="25" t="s">
         <v>17</v>
@@ -4030,16 +4030,16 @@
         <v>17</v>
       </c>
       <c r="D60" s="20">
-        <v>5.7005541963069204</v>
+        <v>5.5911465432511296</v>
       </c>
       <c r="E60" s="20">
-        <v>4.78758195423136</v>
+        <v>4.7875814944422403</v>
       </c>
       <c r="F60" s="20">
         <v>6.3494988300766302</v>
       </c>
       <c r="G60" s="21">
-        <v>16.837634980614901</v>
+        <v>16.728226867770001</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>17</v>
@@ -4048,16 +4048,16 @@
         <v>17</v>
       </c>
       <c r="J60" s="23">
-        <v>411.62</v>
+        <v>403.72</v>
       </c>
       <c r="K60" s="23">
-        <v>345.697</v>
+        <v>345.69696679999998</v>
       </c>
       <c r="L60" s="23">
         <v>458.47835463600001</v>
       </c>
       <c r="M60" s="24">
-        <v>1215.795354636</v>
+        <v>1207.8953214359999</v>
       </c>
       <c r="N60" s="25" t="s">
         <v>17</v>
@@ -4072,16 +4072,16 @@
         <v>1.1830296842650401</v>
       </c>
       <c r="D61" s="41">
-        <v>2.2378152180989601</v>
+        <v>2.1575309602091202</v>
       </c>
       <c r="E61" s="41">
-        <v>1.65096646373927</v>
+        <v>1.65096641852329</v>
       </c>
       <c r="F61" s="41">
         <v>4.8625648236843997</v>
       </c>
       <c r="G61" s="42">
-        <v>9.9343761897876703</v>
+        <v>9.8540918866818501</v>
       </c>
       <c r="H61" s="51">
         <v>13.985831057426999</v>
@@ -4090,16 +4090,16 @@
         <v>7938.9425065769601</v>
       </c>
       <c r="J61" s="44">
-        <v>14854.67</v>
+        <v>14319.34</v>
       </c>
       <c r="K61" s="44">
-        <v>11070.79738</v>
+        <v>11070.797055360001</v>
       </c>
       <c r="L61" s="44">
         <v>33749.312223218301</v>
       </c>
       <c r="M61" s="45">
-        <v>67613.722109795301</v>
+        <v>67078.391785155298</v>
       </c>
       <c r="N61" s="52">
         <v>96554.505860364705</v>
@@ -4114,16 +4114,16 @@
         <v>0.79241893938462005</v>
       </c>
       <c r="D62" s="55">
-        <v>2.1147554554077499</v>
+        <v>2.0298441390497302</v>
       </c>
       <c r="E62" s="55">
-        <v>2.0110369460530499</v>
+        <v>2.0110369984785099</v>
       </c>
       <c r="F62" s="55">
         <v>3.8449239561059598</v>
       </c>
       <c r="G62" s="56">
-        <v>8.7631352969513792</v>
+        <v>8.6782240330188092</v>
       </c>
       <c r="H62" s="57">
         <v>18.495851116046801</v>
@@ -4132,16 +4132,16 @@
         <v>19679.471359576299</v>
       </c>
       <c r="J62" s="58">
-        <v>52880.62</v>
+        <v>50663.7</v>
       </c>
       <c r="K62" s="58">
-        <v>47142.674789999997</v>
+        <v>47142.676041867999</v>
       </c>
       <c r="L62" s="58">
         <v>86347.104654007504</v>
       </c>
       <c r="M62" s="59">
-        <v>206049.870803584</v>
+        <v>203832.95205545201</v>
       </c>
       <c r="N62" s="60">
         <v>437040.46565943002</v>
@@ -4156,16 +4156,16 @@
         <v>1.12185993528426</v>
       </c>
       <c r="D63" s="55">
-        <v>0.23403329776085</v>
+        <v>0.22213400809458</v>
       </c>
       <c r="E63" s="55">
-        <v>1.7739128041614201</v>
+        <v>1.7739128907406201</v>
       </c>
       <c r="F63" s="55">
         <v>1.1713614587413601</v>
       </c>
       <c r="G63" s="56">
-        <v>4.3011674959478903</v>
+        <v>4.2892682928608199</v>
       </c>
       <c r="H63" s="57">
         <v>22.7491711374938</v>
@@ -4174,16 +4174,16 @@
         <v>1121488.6716590701</v>
       </c>
       <c r="J63" s="58">
-        <v>57668.57</v>
+        <v>54634.71</v>
       </c>
       <c r="K63" s="58">
-        <v>1394975.0063839999</v>
+        <v>1394975.0853468501</v>
       </c>
       <c r="L63" s="58">
         <v>625450.19243587798</v>
       </c>
       <c r="M63" s="59">
-        <v>3199582.4404789498</v>
+        <v>3196548.6594417999</v>
       </c>
       <c r="N63" s="60">
         <v>15317227.4004735</v>
@@ -4198,16 +4198,16 @@
         <v>0.21509421210766</v>
       </c>
       <c r="D64" s="63">
-        <v>0.16355106304767</v>
+        <v>0.15878610493799</v>
       </c>
       <c r="E64" s="63">
-        <v>3.0538820205102701</v>
+        <v>3.0538820725322302</v>
       </c>
       <c r="F64" s="63">
         <v>2.0324363601379898</v>
       </c>
       <c r="G64" s="64">
-        <v>5.4649636558035901</v>
+        <v>5.4601987497158699</v>
       </c>
       <c r="H64" s="65">
         <v>19.383164708622999</v>
@@ -4216,16 +4216,16 @@
         <v>11880.280384235801</v>
       </c>
       <c r="J64" s="66">
-        <v>7427.34</v>
+        <v>6869.31</v>
       </c>
       <c r="K64" s="66">
-        <v>161839.7126</v>
+        <v>161839.71576336</v>
       </c>
       <c r="L64" s="66">
         <v>97368.547438677298</v>
       </c>
       <c r="M64" s="67">
-        <v>278515.880422913</v>
+        <v>277957.85358627298</v>
       </c>
       <c r="N64" s="68">
         <v>906702.45755841804</v>
@@ -4240,16 +4240,16 @@
         <v>0.68757271900253003</v>
       </c>
       <c r="D65" s="70">
-        <v>0.23251086070181001</v>
+        <v>0.21961496942219</v>
       </c>
       <c r="E65" s="70">
-        <v>1.3958398723113801</v>
+        <v>1.39583987463586</v>
       </c>
       <c r="F65" s="70">
         <v>1.94267361694262</v>
       </c>
       <c r="G65" s="71">
-        <v>4.2585970689583501</v>
+        <v>4.2457011800032101</v>
       </c>
       <c r="H65" s="72">
         <v>25.498781220757198</v>
@@ -4258,16 +4258,16 @@
         <v>171122.56823946201</v>
       </c>
       <c r="J65" s="73">
-        <v>43593.45</v>
+        <v>41362.43</v>
       </c>
       <c r="K65" s="73">
-        <v>273823.639998</v>
+        <v>273823.639822784</v>
       </c>
       <c r="L65" s="73">
         <v>314032.68208623998</v>
       </c>
       <c r="M65" s="74">
-        <v>802572.34032370197</v>
+        <v>800341.32014848595</v>
       </c>
       <c r="N65" s="75">
         <v>1872623.70330718</v>
@@ -4282,16 +4282,16 @@
         <v>1.1055807542681499</v>
       </c>
       <c r="D66" s="77">
-        <v>0.42416101982753002</v>
+        <v>0.40488073012256998</v>
       </c>
       <c r="E66" s="77">
-        <v>1.7855762961953701</v>
+        <v>1.7855763810946399</v>
       </c>
       <c r="F66" s="77">
         <v>1.3070783411226501</v>
       </c>
       <c r="G66" s="78">
-        <v>4.6223964114137104</v>
+        <v>4.6031162066080098</v>
       </c>
       <c r="H66" s="79">
         <v>22.4892222503582</v>
@@ -4300,16 +4300,16 @@
         <v>1141168.1430186499</v>
       </c>
       <c r="J66" s="80">
-        <v>110549.19</v>
+        <v>105298.41</v>
       </c>
       <c r="K66" s="80">
-        <v>1442117.681174</v>
+        <v>1442117.76138872</v>
       </c>
       <c r="L66" s="80">
         <v>711797.29708988604</v>
       </c>
       <c r="M66" s="81">
-        <v>3405632.3112825402</v>
+        <v>3400381.6114972499</v>
       </c>
       <c r="N66" s="82">
         <v>15754267.8661329</v>
@@ -4324,16 +4324,16 @@
         <v>0.49158138890384001</v>
       </c>
       <c r="D67" s="70">
-        <v>2.8465454194775899</v>
+        <v>2.7324557976242301</v>
       </c>
       <c r="E67" s="70">
-        <v>2.7487447972122001</v>
+        <v>2.7487447507215399</v>
       </c>
       <c r="F67" s="70">
         <v>5.4753516717806203</v>
       </c>
       <c r="G67" s="71">
-        <v>11.562223277374301</v>
+        <v>11.448133609030201</v>
       </c>
       <c r="H67" s="72">
         <v>17.7477599377535</v>
@@ -4342,16 +4342,16 @@
         <v>2957.4889624047</v>
       </c>
       <c r="J67" s="73">
-        <v>26134.19</v>
+        <v>25020.29</v>
       </c>
       <c r="K67" s="73">
-        <v>19551.049719999999</v>
+        <v>19551.049286387999</v>
       </c>
       <c r="L67" s="73">
         <v>40463.605188697598</v>
       </c>
       <c r="M67" s="74">
-        <v>89106.333871102295</v>
+        <v>87992.433437490297</v>
       </c>
       <c r="N67" s="75">
         <v>130974.16398180299</v>
@@ -4366,16 +4366,16 @@
         <v>0.97180374822116999</v>
       </c>
       <c r="D68" s="70">
-        <v>1.8699638384019299</v>
+        <v>1.7935492202421499</v>
       </c>
       <c r="E68" s="70">
-        <v>2.2614170120521999</v>
+        <v>2.2614170230333301</v>
       </c>
       <c r="F68" s="70">
         <v>5.9622764386210898</v>
       </c>
       <c r="G68" s="71">
-        <v>11.0654610372964</v>
+        <v>10.9890464301177</v>
       </c>
       <c r="H68" s="72">
         <v>16.587073622561899</v>
@@ -4384,16 +4384,16 @@
         <v>12085.8164218361</v>
       </c>
       <c r="J68" s="73">
-        <v>23894.29</v>
+        <v>22903.75</v>
       </c>
       <c r="K68" s="73">
-        <v>25496.659801000002</v>
+        <v>25496.659968574</v>
       </c>
       <c r="L68" s="73">
         <v>71372.759329897104</v>
       </c>
       <c r="M68" s="74">
-        <v>132849.52555273299</v>
+        <v>131858.98572030701</v>
       </c>
       <c r="N68" s="75">
         <v>198751.392128034</v>
@@ -4408,16 +4408,16 @@
         <v>0.41978598633817998</v>
       </c>
       <c r="D69" s="70">
-        <v>5.1143522853973504</v>
+        <v>4.9196574575377499</v>
       </c>
       <c r="E69" s="70">
-        <v>1.6589667242314901</v>
+        <v>1.6589664752139801</v>
       </c>
       <c r="F69" s="70">
         <v>2.5727567950750299</v>
       </c>
       <c r="G69" s="71">
-        <v>9.76586179104204</v>
+        <v>9.5711667141649404</v>
       </c>
       <c r="H69" s="72">
         <v>16.425040039170401</v>
@@ -4426,16 +4426,16 @@
         <v>962.49291228279003</v>
       </c>
       <c r="J69" s="73">
-        <v>11169.43</v>
+        <v>10723.18</v>
       </c>
       <c r="K69" s="73">
-        <v>3470.9376590000002</v>
+        <v>3470.9371516639999</v>
       </c>
       <c r="L69" s="73">
         <v>5705.2380237485604</v>
       </c>
       <c r="M69" s="74">
-        <v>21308.098595031399</v>
+        <v>20861.848087695402</v>
       </c>
       <c r="N69" s="75">
         <v>35789.6345415619</v>
@@ -4450,16 +4450,16 @@
         <v>0.61277385658935002</v>
       </c>
       <c r="D70" s="70">
-        <v>3.2600005412368702</v>
+        <v>3.07125981726429</v>
       </c>
       <c r="E70" s="70">
-        <v>1.40390968385223</v>
+        <v>1.40391037078782</v>
       </c>
       <c r="F70" s="70">
         <v>1.0784048642970401</v>
       </c>
       <c r="G70" s="71">
-        <v>6.3550889459755</v>
+        <v>6.1663489089384997</v>
       </c>
       <c r="H70" s="72">
         <v>20.2817784550762</v>
@@ -4468,16 +4468,16 @@
         <v>1343.7212340460901</v>
       </c>
       <c r="J70" s="73">
-        <v>8070.65</v>
+        <v>7586.15</v>
       </c>
       <c r="K70" s="73">
-        <v>4759.3194190000004</v>
+        <v>4759.3204988540001</v>
       </c>
       <c r="L70" s="73">
         <v>2773.92544521327</v>
       </c>
       <c r="M70" s="74">
-        <v>16947.616098259401</v>
+        <v>16463.1171781134</v>
       </c>
       <c r="N70" s="75">
         <v>47600.226970870703</v>
@@ -4492,16 +4492,16 @@
         <v>1.1830296842650401</v>
       </c>
       <c r="D71" s="70">
-        <v>2.2378152180989601</v>
+        <v>2.1575309602091202</v>
       </c>
       <c r="E71" s="70">
-        <v>1.65096646373927</v>
+        <v>1.65096641852329</v>
       </c>
       <c r="F71" s="70">
         <v>4.8625648236843997</v>
       </c>
       <c r="G71" s="71">
-        <v>9.9343761897876703</v>
+        <v>9.8540918866818608</v>
       </c>
       <c r="H71" s="72">
         <v>13.985831057426999</v>
@@ -4510,16 +4510,16 @@
         <v>7938.9425065769601</v>
       </c>
       <c r="J71" s="73">
-        <v>14854.67</v>
+        <v>14319.34</v>
       </c>
       <c r="K71" s="73">
-        <v>11070.79738</v>
+        <v>11070.797055360001</v>
       </c>
       <c r="L71" s="73">
         <v>33749.312223218301</v>
       </c>
       <c r="M71" s="74">
-        <v>67613.722109795301</v>
+        <v>67078.391785155298</v>
       </c>
       <c r="N71" s="75">
         <v>96554.505860364705</v>
@@ -4534,16 +4534,16 @@
         <v>0.27923853081185002</v>
       </c>
       <c r="D72" s="70">
-        <v>5.5804233886152801</v>
+        <v>5.3226413518082696</v>
       </c>
       <c r="E72" s="70">
-        <v>2.2973873211522799</v>
+        <v>2.29738716382766</v>
       </c>
       <c r="F72" s="70">
         <v>2.51786779641693</v>
       </c>
       <c r="G72" s="71">
-        <v>10.6749170369963</v>
+        <v>10.4171348428647</v>
       </c>
       <c r="H72" s="72">
         <v>18.203766840756099</v>
@@ -4552,16 +4552,16 @@
         <v>953.23837003057997</v>
       </c>
       <c r="J72" s="73">
-        <v>16085.88</v>
+        <v>15337.12</v>
       </c>
       <c r="K72" s="73">
-        <v>6235.6930000000002</v>
+        <v>6235.6925252999999</v>
       </c>
       <c r="L72" s="73">
         <v>7672.5244110256899</v>
       </c>
       <c r="M72" s="74">
-        <v>30947.335781056299</v>
+        <v>30198.575306356299</v>
       </c>
       <c r="N72" s="75">
         <v>50589.598828301299</v>
@@ -4576,16 +4576,16 @@
         <v>0.91632422339062003</v>
       </c>
       <c r="D73" s="70">
-        <v>1.82108371920755</v>
+        <v>1.74062184646479</v>
       </c>
       <c r="E73" s="70">
-        <v>1.0455726066393001</v>
+        <v>1.04557293077486</v>
       </c>
       <c r="F73" s="70">
         <v>0.87215883530743998</v>
       </c>
       <c r="G73" s="71">
-        <v>4.6551393845449001</v>
+        <v>4.5746778359377096</v>
       </c>
       <c r="H73" s="72">
         <v>17.526189268699401</v>
@@ -4594,16 +4594,16 @@
         <v>6617.8015402979499</v>
       </c>
       <c r="J73" s="73">
-        <v>12558.1</v>
+        <v>11949.82</v>
       </c>
       <c r="K73" s="73">
-        <v>7134.8986910000003</v>
+        <v>7134.9006522540003</v>
       </c>
       <c r="L73" s="73">
         <v>6587.1667313252301</v>
       </c>
       <c r="M73" s="74">
-        <v>32897.966962623199</v>
+        <v>32289.688923877198</v>
       </c>
       <c r="N73" s="75">
         <v>118435.893733294</v>
@@ -4618,16 +4618,16 @@
         <v>0.25868883723539998</v>
       </c>
       <c r="D74" s="70">
-        <v>0.72452229054404005</v>
+        <v>0.71085973581924</v>
       </c>
       <c r="E74" s="70">
-        <v>1.44029455566938</v>
+        <v>1.4402946100554199</v>
       </c>
       <c r="F74" s="70">
         <v>2.7480683783913098</v>
       </c>
       <c r="G74" s="71">
-        <v>5.17157406184013</v>
+        <v>5.1579115615013702</v>
       </c>
       <c r="H74" s="72">
         <v>28.125052164348801</v>
@@ -4636,16 +4636,16 @@
         <v>1062.9739152591801</v>
       </c>
       <c r="J74" s="73">
-        <v>2645.8</v>
+        <v>2593.44</v>
       </c>
       <c r="K74" s="73">
-        <v>4833.4862999999996</v>
+        <v>4833.4865620999999</v>
       </c>
       <c r="L74" s="73">
         <v>10862.53924452</v>
       </c>
       <c r="M74" s="74">
-        <v>19404.7994597791</v>
+        <v>19352.4397218792</v>
       </c>
       <c r="N74" s="75">
         <v>96563.672326741405</v>
@@ -4660,16 +4660,16 @@
         <v>1.3391520300959801</v>
       </c>
       <c r="D75" s="77">
-        <v>2.0505465506955498</v>
+        <v>1.9485028999784999</v>
       </c>
       <c r="E75" s="77">
-        <v>-1.1318717732585</v>
+        <v>-1.1318702907259</v>
       </c>
       <c r="F75" s="77">
         <v>0.59403169986197002</v>
       </c>
       <c r="G75" s="78">
-        <v>2.8518585073949598</v>
+        <v>2.7498163392105801</v>
       </c>
       <c r="H75" s="72">
         <v>24.179083294517199</v>
@@ -4678,16 +4678,16 @@
         <v>1497.98466350942</v>
       </c>
       <c r="J75" s="80">
-        <v>2345.81</v>
+        <v>2231.25</v>
       </c>
       <c r="K75" s="80">
-        <v>-1232.16812</v>
+        <v>-1232.1664401400001</v>
       </c>
       <c r="L75" s="80">
         <v>701.18045107032196</v>
       </c>
       <c r="M75" s="81">
-        <v>3312.8069945797401</v>
+        <v>3198.2486744397402</v>
       </c>
       <c r="N75" s="75">
         <v>27570.574016950501</v>
@@ -4702,16 +4702,16 @@
         <v>0.78154596910755003</v>
       </c>
       <c r="D76" s="70">
-        <v>0.19776374280405001</v>
+        <v>0.19188898642731</v>
       </c>
       <c r="E76" s="70">
-        <v>4.3095030830895196</v>
+        <v>4.3095039561016897</v>
       </c>
       <c r="F76" s="70">
         <v>2.5526884466376401</v>
       </c>
       <c r="G76" s="71">
-        <v>7.8415012416387597</v>
+        <v>7.8356273582741904</v>
       </c>
       <c r="H76" s="65">
         <v>25.984597535893599</v>
@@ -4720,16 +4720,16 @@
         <v>20645.130234746499</v>
       </c>
       <c r="J76" s="73">
-        <v>4733.3599999999997</v>
+        <v>4580.0200000000004</v>
       </c>
       <c r="K76" s="73">
-        <v>180971.91810000001</v>
+        <v>180971.966927</v>
       </c>
       <c r="L76" s="73">
         <v>77876.690777211596</v>
       </c>
       <c r="M76" s="74">
-        <v>284227.099111958</v>
+        <v>284073.80793895799</v>
       </c>
       <c r="N76" s="68">
         <v>847456.61263042397</v>
@@ -4744,16 +4744,16 @@
         <v>-0.37818536044090001</v>
       </c>
       <c r="D77" s="70">
-        <v>0.1300538963841</v>
+        <v>0.12523903376518</v>
       </c>
       <c r="E77" s="70">
-        <v>3.15824988126599</v>
+        <v>3.1582500321313902</v>
       </c>
       <c r="F77" s="70">
         <v>0.63539632225391995</v>
       </c>
       <c r="G77" s="71">
-        <v>3.5455147394631399</v>
+        <v>3.5407000277096201</v>
       </c>
       <c r="H77" s="72">
         <v>18.8167959404465</v>
@@ -4762,16 +4762,16 @@
         <v>-10905.005920527999</v>
       </c>
       <c r="J77" s="73">
-        <v>3478.63</v>
+        <v>3351.42</v>
       </c>
       <c r="K77" s="73">
-        <v>112657.45570000001</v>
+        <v>112657.4611405</v>
       </c>
       <c r="L77" s="73">
         <v>19911.593634782901</v>
       </c>
       <c r="M77" s="74">
-        <v>125142.67341425399</v>
+        <v>125015.468854755</v>
       </c>
       <c r="N77" s="75">
         <v>565032.12462831195</v>
@@ -4789,7 +4789,7 @@
         <v>17</v>
       </c>
       <c r="E78" s="70">
-        <v>2.3831121168087499</v>
+        <v>2.3831120959108198</v>
       </c>
       <c r="F78" s="70">
         <v>0.93661351037026996</v>
@@ -4807,7 +4807,7 @@
         <v>17</v>
       </c>
       <c r="K78" s="73">
-        <v>380280.82140000002</v>
+        <v>380280.81909489998</v>
       </c>
       <c r="L78" s="73">
         <v>132031.16708863701</v>
@@ -4828,16 +4828,16 @@
         <v>1.6069487756023699</v>
       </c>
       <c r="D79" s="77">
-        <v>0.10112923023460001</v>
+        <v>9.2499498134429994E-2</v>
       </c>
       <c r="E79" s="77">
-        <v>1.55918305379276</v>
+        <v>1.5591830917234499</v>
       </c>
       <c r="F79" s="77">
         <v>0.47036172771064999</v>
       </c>
       <c r="G79" s="78">
-        <v>3.7376227873403902</v>
+        <v>3.7289930931709101</v>
       </c>
       <c r="H79" s="79">
         <v>21.7190629386076</v>
@@ -4846,16 +4846,16 @@
         <v>914898.79724921996</v>
       </c>
       <c r="J79" s="80">
-        <v>2323</v>
+        <v>2150.7199999999998</v>
       </c>
       <c r="K79" s="80">
-        <v>792792.6054</v>
+        <v>792792.63171580003</v>
       </c>
       <c r="L79" s="80">
         <v>199467.69362499501</v>
       </c>
       <c r="M79" s="81">
-        <v>1909482.0962742099</v>
+        <v>1909309.84259001</v>
       </c>
       <c r="N79" s="82">
         <v>11717424.2152489</v>
@@ -4870,16 +4870,16 @@
         <v>0.74145484148047003</v>
       </c>
       <c r="D80" s="70">
-        <v>0.66536065301644998</v>
+        <v>0.61904775259080003</v>
       </c>
       <c r="E80" s="70">
-        <v>0.79486184963326001</v>
+        <v>0.79486191809616003</v>
       </c>
       <c r="F80" s="70">
         <v>3.1074270536315902</v>
       </c>
       <c r="G80" s="71">
-        <v>5.3091043977617698</v>
+        <v>5.2627915657990201</v>
       </c>
       <c r="H80" s="72">
         <v>21.283630762951901</v>
@@ -4888,16 +4888,16 @@
         <v>5893.8635852614198</v>
       </c>
       <c r="J80" s="73">
-        <v>5545.87</v>
+        <v>5157.3900000000003</v>
       </c>
       <c r="K80" s="73">
-        <v>7901.5504000000001</v>
+        <v>7901.5507576999998</v>
       </c>
       <c r="L80" s="73">
         <v>25681.482513595802</v>
       </c>
       <c r="M80" s="74">
-        <v>45022.7664988572</v>
+        <v>44634.286856557199</v>
       </c>
       <c r="N80" s="75">
         <v>155727.46950607901</v>
@@ -4912,16 +4912,16 @@
         <v>0.80193227196772998</v>
       </c>
       <c r="D81" s="70">
-        <v>0.81150569763876002</v>
+        <v>0.74016788939112999</v>
       </c>
       <c r="E81" s="70">
-        <v>1.4797834275595301</v>
+        <v>1.47978348474777</v>
       </c>
       <c r="F81" s="70">
         <v>0.85005285140255005</v>
       </c>
       <c r="G81" s="71">
-        <v>3.9432742485685601</v>
+        <v>3.8719364975091701</v>
       </c>
       <c r="H81" s="72">
         <v>23.287634759236798</v>
@@ -4930,16 +4930,16 @@
         <v>40592.658010597297</v>
       </c>
       <c r="J81" s="73">
-        <v>9558.92</v>
+        <v>8719.56</v>
       </c>
       <c r="K81" s="73">
-        <v>66962.129199999996</v>
+        <v>66962.132318799995</v>
       </c>
       <c r="L81" s="73">
         <v>28251.909487640401</v>
       </c>
       <c r="M81" s="74">
-        <v>145365.61669823801</v>
+        <v>144526.25981703799</v>
       </c>
       <c r="N81" s="75">
         <v>1094833.29269831</v>
@@ -4954,16 +4954,16 @@
         <v>0.81384239713941997</v>
       </c>
       <c r="D82" s="70">
-        <v>2.7445144783124902</v>
+        <v>2.64283223062289</v>
       </c>
       <c r="E82" s="70">
-        <v>2.5251512452959499</v>
+        <v>2.5251512909418898</v>
       </c>
       <c r="F82" s="70">
         <v>4.1618043989260496</v>
       </c>
       <c r="G82" s="71">
-        <v>10.245312519673901</v>
+        <v>10.143630317630199</v>
       </c>
       <c r="H82" s="72">
         <v>17.326144697179199</v>
@@ -4972,16 +4972,16 @@
         <v>13785.6077743149</v>
       </c>
       <c r="J82" s="73">
-        <v>47334.75</v>
+        <v>45506.31</v>
       </c>
       <c r="K82" s="73">
-        <v>39241.124389999997</v>
+        <v>39241.125284168003</v>
       </c>
       <c r="L82" s="73">
         <v>60665.622140411702</v>
       </c>
       <c r="M82" s="74">
-        <v>161027.10430472699</v>
+        <v>159198.665198895</v>
       </c>
       <c r="N82" s="75">
         <v>281312.99615335098</v>
@@ -4996,16 +4996,16 @@
         <v>1.1509876679223301</v>
       </c>
       <c r="D83" s="77">
-        <v>0.20031616886572001</v>
+        <v>0.1918873414982</v>
       </c>
       <c r="E83" s="77">
-        <v>1.8006654730242</v>
+        <v>1.8006655622766601</v>
       </c>
       <c r="F83" s="77">
         <v>1.1984264744669799</v>
       </c>
       <c r="G83" s="78">
-        <v>4.35039578427922</v>
+        <v>4.3419670461641697</v>
       </c>
       <c r="H83" s="79">
         <v>22.688669841577799</v>
@@ -5014,16 +5014,16 @@
         <v>1080896.0136484699</v>
       </c>
       <c r="J83" s="80">
-        <v>48109.650000000103</v>
+        <v>45915.15</v>
       </c>
       <c r="K83" s="80">
-        <v>1328012.8771840001</v>
+        <v>1328012.95302805</v>
       </c>
       <c r="L83" s="80">
         <v>597198.28294823796</v>
       </c>
       <c r="M83" s="81">
-        <v>3054216.8237807099</v>
+        <v>3052022.3996247598</v>
       </c>
       <c r="N83" s="82">
         <v>14222394.1077752</v>
@@ -5038,16 +5038,16 @@
         <v>0.1467367670302</v>
       </c>
       <c r="D84" s="70">
-        <v>7.6057126633350203</v>
+        <v>7.2480867592052203</v>
       </c>
       <c r="E84" s="70">
-        <v>3.5709401873205402</v>
+        <v>3.5709402266378398</v>
       </c>
       <c r="F84" s="70">
         <v>2.8179278503595602</v>
       </c>
       <c r="G84" s="71">
-        <v>14.141317468045299</v>
+        <v>13.7836916032328</v>
       </c>
       <c r="H84" s="83">
         <v>14.545976018684399</v>
@@ -5056,16 +5056,16 @@
         <v>568.79580353596998</v>
       </c>
       <c r="J84" s="73">
-        <v>29700.240000000002</v>
+        <v>28260.71</v>
       </c>
       <c r="K84" s="73">
-        <v>11931.721699</v>
+        <v>11931.721875714</v>
       </c>
       <c r="L84" s="73">
         <v>11305.4125984565</v>
       </c>
       <c r="M84" s="74">
-        <v>53506.170100992502</v>
+        <v>52066.640277706501</v>
       </c>
       <c r="N84" s="84">
         <v>52371.241954636796</v>
@@ -5080,16 +5080,16 @@
         <v>0</v>
       </c>
       <c r="D85" s="70">
-        <v>21.5457636995705</v>
+        <v>19.821775368344401</v>
       </c>
       <c r="E85" s="70">
-        <v>-0.63386370471120002</v>
+        <v>-0.63386324677259998</v>
       </c>
       <c r="F85" s="70">
         <v>4.3896098300849999</v>
       </c>
       <c r="G85" s="71">
-        <v>25.301509824944301</v>
+        <v>23.577521951656799</v>
       </c>
       <c r="H85" s="72">
         <v>10.459175388256799</v>
@@ -5098,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="J85" s="73">
-        <v>19082.04</v>
+        <v>18053.88</v>
       </c>
       <c r="K85" s="73">
-        <v>-302.55466000000001</v>
+        <v>-302.55443409999998</v>
       </c>
       <c r="L85" s="73">
         <v>828.57190411117995</v>
       </c>
       <c r="M85" s="74">
-        <v>19608.057244111202</v>
+        <v>18579.897470011201</v>
       </c>
       <c r="N85" s="75">
         <v>4360.8966920984603</v>
@@ -5122,16 +5122,16 @@
         <v>0.85958401553848995</v>
       </c>
       <c r="D86" s="70">
-        <v>1.2292720756468301</v>
+        <v>1.1908819478295101</v>
       </c>
       <c r="E86" s="70">
-        <v>1.7541526583074301</v>
+        <v>1.7541527186733901</v>
       </c>
       <c r="F86" s="70">
         <v>4.9485648841938197</v>
       </c>
       <c r="G86" s="71">
-        <v>8.7915736336865695</v>
+        <v>8.7531835662352098</v>
       </c>
       <c r="H86" s="72">
         <v>20.5418419696123</v>
@@ -5140,16 +5140,16 @@
         <v>13828.945869728401</v>
       </c>
       <c r="J86" s="73">
-        <v>21472.66</v>
+        <v>20731.490000000002</v>
       </c>
       <c r="K86" s="73">
-        <v>27550.696861</v>
+        <v>27550.697802023999</v>
       </c>
       <c r="L86" s="73">
         <v>73676.619819101194</v>
       </c>
       <c r="M86" s="74">
-        <v>136528.92254982999</v>
+        <v>135787.753490854</v>
       </c>
       <c r="N86" s="75">
         <v>322786.46018051502</v>
@@ -5164,16 +5164,16 @@
         <v>0.48713507441137999</v>
       </c>
       <c r="D87" s="70">
-        <v>0.36949120653204998</v>
+        <v>0.35724306651905002</v>
       </c>
       <c r="E87" s="70">
-        <v>1.9853197939537699</v>
+        <v>1.9853198193306001</v>
       </c>
       <c r="F87" s="70">
         <v>4.0594084784762998</v>
       </c>
       <c r="G87" s="71">
-        <v>6.9013545533735003</v>
+        <v>6.8891064387373202</v>
       </c>
       <c r="H87" s="72">
         <v>26.101164448574</v>
@@ -5182,16 +5182,16 @@
         <v>32562.187641498302</v>
       </c>
       <c r="J87" s="73">
-        <v>23877.279999999999</v>
+        <v>23135.119999999999</v>
       </c>
       <c r="K87" s="73">
-        <v>125845.63885800001</v>
+        <v>125845.640600673</v>
       </c>
       <c r="L87" s="73">
         <v>255927.709608064</v>
       </c>
       <c r="M87" s="74">
-        <v>438212.81610756199</v>
+        <v>437470.657850235</v>
       </c>
       <c r="N87" s="75">
         <v>1678912.81092171</v>
@@ -5206,16 +5206,16 @@
         <v>1.15273708317904</v>
       </c>
       <c r="D88" s="70">
-        <v>0.34546762404951997</v>
+        <v>0.33775433307835001</v>
       </c>
       <c r="E88" s="70">
-        <v>1.6208211728775599</v>
+        <v>1.62082120989711</v>
       </c>
       <c r="F88" s="70">
         <v>0.26584751062095002</v>
       </c>
       <c r="G88" s="71">
-        <v>3.3848733907270798</v>
+        <v>3.37716013677545</v>
       </c>
       <c r="H88" s="72">
         <v>13.423594961276899</v>
@@ -5224,16 +5224,16 @@
         <v>5299.3890887343396</v>
       </c>
       <c r="J88" s="73">
-        <v>1707.72</v>
+        <v>1671.5</v>
       </c>
       <c r="K88" s="73">
-        <v>7516.51433</v>
+        <v>7516.5145085300001</v>
       </c>
       <c r="L88" s="73">
         <v>1341.4240171419499</v>
       </c>
       <c r="M88" s="74">
-        <v>15865.0474358763</v>
+        <v>15828.8276144063</v>
       </c>
       <c r="N88" s="75">
         <v>61784.3336808534</v>
@@ -5248,16 +5248,16 @@
         <v>0.65710089460246002</v>
       </c>
       <c r="D89" s="70">
-        <v>8.2909284874980005E-2</v>
+        <v>7.7715640300229996E-2</v>
       </c>
       <c r="E89" s="70">
-        <v>1.61250331323854</v>
+        <v>1.61250331573465</v>
       </c>
       <c r="F89" s="70">
         <v>0.97768714289214997</v>
       </c>
       <c r="G89" s="71">
-        <v>3.3302006356081302</v>
+        <v>3.3250069935294899</v>
       </c>
       <c r="H89" s="72">
         <v>20.962582030353001</v>
@@ -5266,16 +5266,16 @@
         <v>165490.406226658</v>
       </c>
       <c r="J89" s="73">
-        <v>14318.54</v>
+        <v>13079.16</v>
       </c>
       <c r="K89" s="73">
-        <v>362663.70041599998</v>
+        <v>362663.70102030598</v>
       </c>
       <c r="L89" s="73">
         <v>209968.30342633199</v>
       </c>
       <c r="M89" s="74">
-        <v>752440.95006899</v>
+        <v>751201.570673296</v>
       </c>
       <c r="N89" s="75">
         <v>1764762.6513600999</v>
@@ -5293,13 +5293,13 @@
         <v>4.5121901163118796</v>
       </c>
       <c r="E90" s="77">
-        <v>1.8269563391645101</v>
+        <v>1.8269565054358401</v>
       </c>
       <c r="F90" s="77">
         <v>0.34535518810215998</v>
       </c>
       <c r="G90" s="78">
-        <v>8.3539319721131804</v>
+        <v>8.3539321383845095</v>
       </c>
       <c r="H90" s="72">
         <v>22.238130282636799</v>
@@ -5311,13 +5311,13 @@
         <v>106.71</v>
       </c>
       <c r="K90" s="80">
-        <v>905977.96366999997</v>
+        <v>905978.04001557</v>
       </c>
       <c r="L90" s="80">
         <v>158470.25571668</v>
       </c>
       <c r="M90" s="81">
-        <v>1988003.9868062199</v>
+        <v>1988004.0631517901</v>
       </c>
       <c r="N90" s="75">
         <v>11869289.471342999</v>
@@ -5332,16 +5332,16 @@
         <v>0.36085372893533002</v>
       </c>
       <c r="D91" s="70">
-        <v>5.9165438202817997</v>
+        <v>5.6620869325171697</v>
       </c>
       <c r="E91" s="70">
-        <v>2.2574136615582701</v>
+        <v>2.2574138503260799</v>
       </c>
       <c r="F91" s="70">
         <v>2.4439167732156699</v>
       </c>
       <c r="G91" s="71">
-        <v>10.978727983991099</v>
+        <v>10.724271284994201</v>
       </c>
       <c r="H91" s="65">
         <v>18.991470720005001</v>
@@ -5350,16 +5350,16 @@
         <v>2155.0546739144002</v>
       </c>
       <c r="J91" s="73">
-        <v>35885.54</v>
+        <v>34308.339999999997</v>
       </c>
       <c r="K91" s="73">
-        <v>11909.892260000001</v>
+        <v>11909.893422038</v>
       </c>
       <c r="L91" s="73">
         <v>15398.7510916626</v>
       </c>
       <c r="M91" s="74">
-        <v>65349.238025576997</v>
+        <v>63772.039187615002</v>
       </c>
       <c r="N91" s="68">
         <v>111477.913005718</v>
@@ -5374,16 +5374,16 @@
         <v>-7.0143719485400005E-2</v>
       </c>
       <c r="D92" s="70">
-        <v>4.1143298087635696</v>
+        <v>3.9101172982383301</v>
       </c>
       <c r="E92" s="70">
-        <v>1.9563199007940899</v>
+        <v>1.95631994370871</v>
       </c>
       <c r="F92" s="70">
         <v>7.0954797557840399</v>
       </c>
       <c r="G92" s="71">
-        <v>13.0959857458563</v>
+        <v>12.891773278245701</v>
       </c>
       <c r="H92" s="72">
         <v>28.0331889874425</v>
@@ -5392,16 +5392,16 @@
         <v>-482.8860273889</v>
       </c>
       <c r="J92" s="73">
-        <v>19680.63</v>
+        <v>18660.11</v>
       </c>
       <c r="K92" s="73">
-        <v>9896.4384900000005</v>
+        <v>9896.4387033139992</v>
       </c>
       <c r="L92" s="73">
         <v>35213.941559484701</v>
       </c>
       <c r="M92" s="74">
-        <v>64308.124022095799</v>
+        <v>63287.604235409803</v>
       </c>
       <c r="N92" s="75">
         <v>136518.864930068</v>
@@ -5416,16 +5416,16 @@
         <v>-4.3792122088022003</v>
       </c>
       <c r="D93" s="70">
-        <v>2.3933824403575601</v>
+        <v>2.3036422165085999</v>
       </c>
       <c r="E93" s="70">
-        <v>3.8992528354326499</v>
+        <v>3.89925263299792</v>
       </c>
       <c r="F93" s="70">
         <v>4.5955340808467602</v>
       </c>
       <c r="G93" s="71">
-        <v>6.5089571478347601</v>
+        <v>6.41921672155107</v>
       </c>
       <c r="H93" s="72">
         <v>15.875849759490499</v>
@@ -5434,16 +5434,16 @@
         <v>-836.33440112436006</v>
       </c>
       <c r="J93" s="73">
-        <v>424.84</v>
+        <v>410.55</v>
       </c>
       <c r="K93" s="73">
-        <v>821.21214099999997</v>
+        <v>821.21209018399998</v>
       </c>
       <c r="L93" s="73">
         <v>909.00626213621103</v>
       </c>
       <c r="M93" s="74">
-        <v>1318.72400201185</v>
+        <v>1304.4339511958501</v>
       </c>
       <c r="N93" s="75">
         <v>3344.4427006784999</v>
@@ -5458,16 +5458,16 @@
         <v>0.46100737771733002</v>
       </c>
       <c r="D94" s="70">
-        <v>1.58534449430291</v>
+        <v>1.54328431351952</v>
       </c>
       <c r="E94" s="70">
-        <v>17.903538753224201</v>
+        <v>17.903545790674801</v>
       </c>
       <c r="F94" s="70">
         <v>3.3162327723480201</v>
       </c>
       <c r="G94" s="71">
-        <v>23.266123397592398</v>
+        <v>23.224070254259701</v>
       </c>
       <c r="H94" s="72">
         <v>30.583249326734901</v>
@@ -5476,16 +5476,16 @@
         <v>1769.2229921723499</v>
       </c>
       <c r="J94" s="73">
-        <v>3903.55</v>
+        <v>3469.25</v>
       </c>
       <c r="K94" s="73">
-        <v>123298.93648600001</v>
+        <v>123298.98611164901</v>
       </c>
       <c r="L94" s="73">
         <v>15186.0380847871</v>
       </c>
       <c r="M94" s="74">
-        <v>144157.747562959</v>
+        <v>143723.49718860799</v>
       </c>
       <c r="N94" s="75">
         <v>182564.66136845</v>
@@ -5500,16 +5500,16 @@
         <v>7.2564235729210003E-2</v>
       </c>
       <c r="D95" s="70">
-        <v>6.8592266217167799</v>
+        <v>6.5602008043542002</v>
       </c>
       <c r="E95" s="70">
-        <v>2.8706501877923101</v>
+        <v>2.8706500981216299</v>
       </c>
       <c r="F95" s="70">
         <v>2.1945799159330002</v>
       </c>
       <c r="G95" s="71">
-        <v>11.9970209611713</v>
+        <v>11.697995054138</v>
       </c>
       <c r="H95" s="72">
         <v>19.991253670918098</v>
@@ -5518,16 +5518,16 @@
         <v>135.40135860548</v>
       </c>
       <c r="J95" s="73">
-        <v>19984.189999999999</v>
+        <v>19031.990000000002</v>
       </c>
       <c r="K95" s="73">
-        <v>8115.6161490000004</v>
+        <v>8115.6159179839997</v>
       </c>
       <c r="L95" s="73">
         <v>6667.64226644267</v>
       </c>
       <c r="M95" s="74">
-        <v>34902.849774048198</v>
+        <v>33950.649543032101</v>
       </c>
       <c r="N95" s="75">
         <v>52887.431274455201</v>
@@ -5542,16 +5542,16 @@
         <v>0.22622321761777001</v>
       </c>
       <c r="D96" s="77">
-        <v>2.3741625658539101</v>
+        <v>2.2889776950317202</v>
       </c>
       <c r="E96" s="77">
-        <v>2.5370008475203001</v>
+        <v>2.53700078494537</v>
       </c>
       <c r="F96" s="77">
         <v>6.5916217903285501</v>
       </c>
       <c r="G96" s="78">
-        <v>11.729008421320501</v>
+        <v>11.643823487923401</v>
       </c>
       <c r="H96" s="79">
         <v>21.136404333789098</v>
@@ -5560,16 +5560,16 @@
         <v>1259.8588102353999</v>
       </c>
       <c r="J96" s="80">
-        <v>10695.31</v>
+        <v>10326.84</v>
       </c>
       <c r="K96" s="80">
-        <v>14176.350688</v>
+        <v>14176.350170284</v>
       </c>
       <c r="L96" s="80">
         <v>30804.906407516701</v>
       </c>
       <c r="M96" s="81">
-        <v>56936.425905752199</v>
+        <v>56567.9553880362</v>
       </c>
       <c r="N96" s="82">
         <v>101904.12761619101</v>
@@ -5584,16 +5584,16 @@
         <v>0.66117817890506003</v>
       </c>
       <c r="D97" s="70">
-        <v>3.4440096442950399</v>
+        <v>3.2830858344304601</v>
       </c>
       <c r="E97" s="70">
-        <v>1.69267133384908</v>
+        <v>1.6926714320206999</v>
       </c>
       <c r="F97" s="70">
         <v>3.0888982672464902</v>
       </c>
       <c r="G97" s="71">
-        <v>8.8867574242956699</v>
+        <v>8.7258337126027108</v>
       </c>
       <c r="H97" s="72">
         <v>16.6676078627587</v>
@@ -5602,16 +5602,16 @@
         <v>8281.5362744260092</v>
       </c>
       <c r="J97" s="73">
-        <v>42311.14</v>
+        <v>40257.07</v>
       </c>
       <c r="K97" s="73">
-        <v>20508.42006</v>
+        <v>20508.421088438001</v>
       </c>
       <c r="L97" s="73">
         <v>40542.012893872597</v>
       </c>
       <c r="M97" s="74">
-        <v>111643.109228299</v>
+        <v>109589.040256737</v>
       </c>
       <c r="N97" s="75">
         <v>197475.55173379101</v>
@@ -5626,16 +5626,16 @@
         <v>-4.1188818013100002E-2</v>
       </c>
       <c r="D98" s="70">
-        <v>1.59328460743084</v>
+        <v>1.5084909042796999</v>
       </c>
       <c r="E98" s="70">
-        <v>0.86403567693727001</v>
+        <v>0.86403570270594998</v>
       </c>
       <c r="F98" s="70">
         <v>4.44555459619228</v>
       </c>
       <c r="G98" s="71">
-        <v>6.86168606254728</v>
+        <v>6.7768923851648202</v>
       </c>
       <c r="H98" s="72">
         <v>18.3203811416451</v>
@@ -5644,16 +5644,16 @@
         <v>163.78798435237999</v>
       </c>
       <c r="J98" s="73">
-        <v>35362.129999999997</v>
+        <v>33775.82</v>
       </c>
       <c r="K98" s="73">
-        <v>12552.67146</v>
+        <v>12552.67209113</v>
       </c>
       <c r="L98" s="73">
         <v>71568.857693604194</v>
       </c>
       <c r="M98" s="74">
-        <v>119647.447137957</v>
+        <v>118061.137769087</v>
       </c>
       <c r="N98" s="75">
         <v>318520.53310729202</v>
@@ -5668,16 +5668,16 @@
         <v>-2.287330447E-4</v>
       </c>
       <c r="D99" s="77">
-        <v>6.5393979902950203</v>
+        <v>6.0507768469513197</v>
       </c>
       <c r="E99" s="77">
-        <v>0.86298128608284996</v>
+        <v>0.86298129011104996</v>
       </c>
       <c r="F99" s="77">
         <v>2.7964570276396201</v>
       </c>
       <c r="G99" s="78">
-        <v>10.198607570972801</v>
+        <v>9.7099864316573203</v>
       </c>
       <c r="H99" s="79">
         <v>9.4143137252201008</v>
@@ -5686,16 +5686,16 @@
         <v>-1.3697066905699999</v>
       </c>
       <c r="J99" s="80">
-        <v>32507.29</v>
+        <v>30580.83</v>
       </c>
       <c r="K99" s="80">
-        <v>3154.889349</v>
+        <v>3154.8891940540002</v>
       </c>
       <c r="L99" s="80">
         <v>9938.6617447750996</v>
       </c>
       <c r="M99" s="81">
-        <v>45599.471387084501</v>
+        <v>43673.011232138502</v>
       </c>
       <c r="N99" s="82">
         <v>35975.592789623501</v>
@@ -5969,7 +5969,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
